--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_19_13.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_19_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2091577.06768212</v>
+        <v>-2092243.685118541</v>
       </c>
     </row>
     <row r="7">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>84.54481721446604</v>
       </c>
       <c r="H11" t="n">
-        <v>84.54481721446604</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>36.42873081279471</v>
+        <v>28.42894969251408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>23.12798498931295</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>14.91035920039394</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>46.03812530998758</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>51.85943295535306</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.037534323606007</v>
+        <v>6.037534323606014</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>75.16629787707481</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>10.83321277868793</v>
       </c>
       <c r="U12" t="n">
-        <v>33.11619900411944</v>
+        <v>40.54276025677711</v>
       </c>
       <c r="V12" t="n">
         <v>36.53747918923762</v>
       </c>
       <c r="W12" t="n">
-        <v>62.59314185084696</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="X12" t="n">
+        <v>13.20147271330598</v>
+      </c>
+      <c r="Y12" t="n">
         <v>84.54481721446604</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>19.27284440786099</v>
       </c>
     </row>
     <row r="13">
@@ -1582,7 +1582,7 @@
         <v>19.62677120258698</v>
       </c>
       <c r="U13" t="n">
-        <v>84.54481721446602</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="V13" t="n">
         <v>40.99757345828527</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,67 +1613,67 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>71.54466328548713</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>23.12798498931294</v>
+      </c>
+      <c r="T14" t="n">
+        <v>18.30111863217996</v>
+      </c>
+      <c r="U14" t="n">
+        <v>46.03812530998758</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>84.54481721446604</v>
-      </c>
-      <c r="F14" t="n">
-        <v>84.54481721446604</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>84.54481721446604</v>
-      </c>
-      <c r="I14" t="n">
-        <v>36.42873081279471</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>38.03834418970695</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1692,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>51.85943295535305</v>
+        <v>51.85943295535306</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,10 +1728,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.037534323606007</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>84.54481721446604</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1746,13 +1746,13 @@
         <v>36.53747918923762</v>
       </c>
       <c r="W15" t="n">
-        <v>72.69853405926273</v>
+        <v>62.59314185084696</v>
       </c>
       <c r="X15" t="n">
         <v>13.20147271330598</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.27284440786099</v>
+        <v>35.41577093988278</v>
       </c>
     </row>
     <row r="16">
@@ -1819,7 +1819,7 @@
         <v>19.62677120258698</v>
       </c>
       <c r="U16" t="n">
-        <v>84.54481721446604</v>
+        <v>84.54481721446602</v>
       </c>
       <c r="V16" t="n">
         <v>40.99757345828527</v>
@@ -1844,7 +1844,7 @@
         <v>38.65434805750084</v>
       </c>
       <c r="C17" t="n">
-        <v>14.77260506084633</v>
+        <v>14.77260506084647</v>
       </c>
       <c r="D17" t="n">
         <v>2.339267321894795</v>
@@ -1856,7 +1856,7 @@
         <v>67.76635731968099</v>
       </c>
       <c r="G17" t="n">
-        <v>83.3930999360968</v>
+        <v>83.39309993609683</v>
       </c>
       <c r="H17" t="n">
         <v>11.46376063065043</v>
@@ -1923,28 +1923,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>16.57010772354257</v>
+      </c>
+      <c r="G18" t="n">
         <v>84.54481721446604</v>
       </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="I18" t="n">
         <v>84.54481721446604</v>
       </c>
       <c r="J18" t="n">
-        <v>51.85943295535305</v>
+        <v>51.85943295535306</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.037534323606007</v>
+        <v>6.037534323606014</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>84.54481721446604</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>16.57010772354263</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>38.65434805750095</v>
+        <v>38.65434805750084</v>
       </c>
       <c r="C20" t="n">
-        <v>14.77260506084644</v>
+        <v>14.77260506084633</v>
       </c>
       <c r="D20" t="n">
-        <v>2.339267321894908</v>
+        <v>2.339267321894795</v>
       </c>
       <c r="E20" t="n">
-        <v>36.04601974130378</v>
+        <v>36.04601974130367</v>
       </c>
       <c r="F20" t="n">
-        <v>67.76635731968111</v>
+        <v>67.76635731968099</v>
       </c>
       <c r="G20" t="n">
-        <v>83.39309993609695</v>
+        <v>83.39309993609741</v>
       </c>
       <c r="H20" t="n">
-        <v>11.46376063065054</v>
+        <v>11.46376063065043</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>2.463571505434516</v>
+        <v>2.463571505434402</v>
       </c>
       <c r="X20" t="n">
-        <v>24.34982197437375</v>
+        <v>24.34982197437364</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.85267509811749</v>
+        <v>46.8526750981174</v>
       </c>
     </row>
     <row r="21">
@@ -2163,61 +2163,61 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>16.57010772354263</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>51.85943295535306</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>6.037534323606014</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>16.57010772354257</v>
+      </c>
+      <c r="T21" t="n">
         <v>84.54481721446604</v>
       </c>
-      <c r="F21" t="n">
+      <c r="U21" t="n">
         <v>84.54481721446604</v>
       </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
+      <c r="V21" t="n">
         <v>84.54481721446604</v>
-      </c>
-      <c r="J21" t="n">
-        <v>51.85943295535305</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>6.037534323606007</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>38.65434805750095</v>
+        <v>38.65434805750084</v>
       </c>
       <c r="C23" t="n">
-        <v>14.77260506084644</v>
+        <v>14.77260506084633</v>
       </c>
       <c r="D23" t="n">
-        <v>2.339267321894908</v>
+        <v>2.339267321894795</v>
       </c>
       <c r="E23" t="n">
-        <v>36.04601974130378</v>
+        <v>36.04601974130367</v>
       </c>
       <c r="F23" t="n">
-        <v>67.76635731968111</v>
+        <v>67.76635731968099</v>
       </c>
       <c r="G23" t="n">
-        <v>83.39309993609695</v>
+        <v>83.39309993609683</v>
       </c>
       <c r="H23" t="n">
-        <v>11.46376063065054</v>
+        <v>11.46376063065043</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>2.463571505434516</v>
+        <v>2.463571505434402</v>
       </c>
       <c r="X23" t="n">
-        <v>24.34982197437375</v>
+        <v>24.34982197437364</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.85267509811752</v>
+        <v>46.8526750981174</v>
       </c>
     </row>
     <row r="24">
@@ -2409,16 +2409,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>84.54481721446604</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
       <c r="J24" t="n">
-        <v>51.85943295535305</v>
+        <v>51.85943295535306</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.037534323606007</v>
+        <v>6.037534323606014</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>16.57010772354263</v>
+        <v>16.57010772354257</v>
       </c>
       <c r="W24" t="n">
         <v>84.54481721446604</v>
@@ -2558,22 +2558,22 @@
         <v>137.3650538111394</v>
       </c>
       <c r="D26" t="n">
-        <v>124.9317160721878</v>
+        <v>124.9317160721879</v>
       </c>
       <c r="E26" t="n">
-        <v>158.6384684915967</v>
+        <v>158.6384684915968</v>
       </c>
       <c r="F26" t="n">
-        <v>190.358806069974</v>
+        <v>190.3588060699741</v>
       </c>
       <c r="G26" t="n">
-        <v>205.9855486863898</v>
+        <v>205.9855486863899</v>
       </c>
       <c r="H26" t="n">
         <v>134.0562093809435</v>
       </c>
       <c r="I26" t="n">
-        <v>27.69972896891989</v>
+        <v>27.69972896891994</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.39898314543814</v>
+        <v>14.39898314543819</v>
       </c>
       <c r="T26" t="n">
-        <v>9.572116788305152</v>
+        <v>9.572116788305209</v>
       </c>
       <c r="U26" t="n">
-        <v>37.30912346611277</v>
+        <v>37.30912346611282</v>
       </c>
       <c r="V26" t="n">
         <v>108.0393400391126</v>
       </c>
       <c r="W26" t="n">
-        <v>125.0560202557274</v>
+        <v>125.0560202557275</v>
       </c>
       <c r="X26" t="n">
         <v>146.9422707246667</v>
       </c>
       <c r="Y26" t="n">
-        <v>169.4451238484104</v>
+        <v>169.4451238484105</v>
       </c>
     </row>
     <row r="27">
@@ -2631,16 +2631,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>15.65259929627463</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>105.4106769621085</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.037534323606007</v>
+        <v>6.037534323606014</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2.104210934813122</v>
+        <v>2.104210934813179</v>
       </c>
       <c r="U27" t="n">
-        <v>24.38719716024464</v>
+        <v>24.38719716024469</v>
       </c>
       <c r="V27" t="n">
-        <v>27.8084773453628</v>
+        <v>27.80847734536286</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>53.86414000697221</v>
       </c>
       <c r="X27" t="n">
-        <v>217.3129144394706</v>
+        <v>4.47247086943122</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.54384256398617</v>
+        <v>10.54384256398623</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.50238087092331</v>
+        <v>22.50238087092337</v>
       </c>
       <c r="T28" t="n">
-        <v>10.89776935871217</v>
+        <v>10.89776935871223</v>
       </c>
       <c r="U28" t="n">
-        <v>75.81581537059121</v>
+        <v>75.81581537059127</v>
       </c>
       <c r="V28" t="n">
-        <v>32.26857161441046</v>
+        <v>32.26857161441052</v>
       </c>
       <c r="W28" t="n">
-        <v>77.47026351929588</v>
+        <v>77.47026351929594</v>
       </c>
       <c r="X28" t="n">
-        <v>9.079011838203087</v>
+        <v>9.079011838203144</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.300829244128977</v>
+        <v>4.300829244129034</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>205.9855486863899</v>
       </c>
       <c r="H29" t="n">
-        <v>134.0562093809435</v>
+        <v>134.0562093809436</v>
       </c>
       <c r="I29" t="n">
         <v>27.69972896891994</v>
@@ -2843,7 +2843,7 @@
         <v>14.39898314543819</v>
       </c>
       <c r="T29" t="n">
-        <v>9.572116788305209</v>
+        <v>9.572116788305207</v>
       </c>
       <c r="U29" t="n">
         <v>37.30912346611282</v>
@@ -2868,19 +2868,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>51.74254846864778</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.037534323606007</v>
+        <v>6.037534323606014</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2925,7 +2925,7 @@
         <v>2.104210934813179</v>
       </c>
       <c r="U30" t="n">
-        <v>24.38719716024469</v>
+        <v>109.747380591196</v>
       </c>
       <c r="V30" t="n">
         <v>27.80847734536286</v>
@@ -2934,10 +2934,10 @@
         <v>53.86414000697221</v>
       </c>
       <c r="X30" t="n">
-        <v>4.47247086943122</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>10.54384256398623</v>
       </c>
     </row>
     <row r="31">
@@ -3035,7 +3035,7 @@
         <v>124.9317160721879</v>
       </c>
       <c r="E32" t="n">
-        <v>158.6384684915967</v>
+        <v>158.6384684915968</v>
       </c>
       <c r="F32" t="n">
         <v>190.3588060699741</v>
@@ -3047,7 +3047,7 @@
         <v>134.0562093809435</v>
       </c>
       <c r="I32" t="n">
-        <v>27.69972896891991</v>
+        <v>27.69972896891994</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.39898314543817</v>
+        <v>14.39898314543819</v>
       </c>
       <c r="T32" t="n">
-        <v>9.572116788305181</v>
+        <v>9.572116788305209</v>
       </c>
       <c r="U32" t="n">
-        <v>37.30912346611279</v>
+        <v>37.30912346611282</v>
       </c>
       <c r="V32" t="n">
         <v>108.0393400391126</v>
@@ -3123,13 +3123,13 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>50.20982970127779</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>107.1390224876151</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>51.85943295535306</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2.10421093481315</v>
+        <v>2.104210934813179</v>
       </c>
       <c r="U33" t="n">
-        <v>24.38719716024466</v>
+        <v>24.38719716024469</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>27.80847734536286</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7045835770116</v>
+        <v>53.86414000697221</v>
       </c>
       <c r="X33" t="n">
-        <v>213.6807560136774</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.5438425639862</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.50238087092334</v>
+        <v>22.50238087092337</v>
       </c>
       <c r="T34" t="n">
-        <v>10.8977693587122</v>
+        <v>10.89776935871223</v>
       </c>
       <c r="U34" t="n">
-        <v>75.81581537059124</v>
+        <v>75.81581537059127</v>
       </c>
       <c r="V34" t="n">
-        <v>32.26857161441049</v>
+        <v>32.26857161441052</v>
       </c>
       <c r="W34" t="n">
-        <v>77.47026351929591</v>
+        <v>77.47026351929594</v>
       </c>
       <c r="X34" t="n">
-        <v>9.079011838203115</v>
+        <v>9.079011838203144</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.300829244129005</v>
+        <v>4.300829244129034</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>137.8521485991665</v>
+        <v>137.8521485991666</v>
       </c>
       <c r="C35" t="n">
-        <v>113.970405602512</v>
+        <v>113.9704056025121</v>
       </c>
       <c r="D35" t="n">
-        <v>101.5370678635605</v>
+        <v>101.5370678635606</v>
       </c>
       <c r="E35" t="n">
         <v>135.2438202829694</v>
       </c>
       <c r="F35" t="n">
-        <v>166.9641578613467</v>
+        <v>166.9641578613468</v>
       </c>
       <c r="G35" t="n">
-        <v>182.5909004777625</v>
+        <v>182.5909004777626</v>
       </c>
       <c r="H35" t="n">
-        <v>110.6615611723161</v>
+        <v>110.6615611723162</v>
       </c>
       <c r="I35" t="n">
-        <v>4.305080760292526</v>
+        <v>4.305080760292611</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>13.91447525748541</v>
+        <v>13.9144752574855</v>
       </c>
       <c r="V35" t="n">
-        <v>84.64469183048521</v>
+        <v>84.6446918304853</v>
       </c>
       <c r="W35" t="n">
-        <v>101.6613720471001</v>
+        <v>101.6613720471002</v>
       </c>
       <c r="X35" t="n">
-        <v>123.5476225160393</v>
+        <v>123.5476225160394</v>
       </c>
       <c r="Y35" t="n">
-        <v>146.0504756397831</v>
+        <v>146.0504756397832</v>
       </c>
     </row>
     <row r="36">
@@ -3342,13 +3342,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3387,28 +3387,28 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.037534323606007</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>134.3151594521598</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>144.2101459815418</v>
       </c>
       <c r="T36" t="n">
-        <v>37.59667734953831</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0.9925489516172765</v>
+        <v>0.9925489516173618</v>
       </c>
       <c r="V36" t="n">
-        <v>4.413829136735444</v>
+        <v>4.413829136735529</v>
       </c>
       <c r="W36" t="n">
-        <v>30.46949179834479</v>
+        <v>30.46949179834488</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>52.42116716196385</v>
+        <v>52.42116716196394</v>
       </c>
       <c r="V37" t="n">
-        <v>8.873923405783103</v>
+        <v>8.873923405783188</v>
       </c>
       <c r="W37" t="n">
-        <v>54.07561531066852</v>
+        <v>54.07561531066861</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>137.8521485991665</v>
+        <v>137.8521485991666</v>
       </c>
       <c r="C38" t="n">
-        <v>113.970405602512</v>
+        <v>113.9704056025121</v>
       </c>
       <c r="D38" t="n">
-        <v>101.5370678635605</v>
+        <v>101.5370678635606</v>
       </c>
       <c r="E38" t="n">
         <v>135.2438202829694</v>
       </c>
       <c r="F38" t="n">
-        <v>166.9641578613467</v>
+        <v>166.9641578613468</v>
       </c>
       <c r="G38" t="n">
-        <v>182.5909004777625</v>
+        <v>182.5909004777626</v>
       </c>
       <c r="H38" t="n">
-        <v>110.6615611723161</v>
+        <v>110.6615611723162</v>
       </c>
       <c r="I38" t="n">
-        <v>4.305080760292526</v>
+        <v>4.305080760292611</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>13.91447525748541</v>
+        <v>13.9144752574855</v>
       </c>
       <c r="V38" t="n">
-        <v>84.64469183048521</v>
+        <v>84.6446918304853</v>
       </c>
       <c r="W38" t="n">
-        <v>101.6613720471001</v>
+        <v>101.6613720471002</v>
       </c>
       <c r="X38" t="n">
-        <v>123.5476225160393</v>
+        <v>123.5476225160394</v>
       </c>
       <c r="Y38" t="n">
-        <v>146.0504756397831</v>
+        <v>146.0504756397832</v>
       </c>
     </row>
     <row r="39">
@@ -3582,16 +3582,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3600,10 +3600,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>107.1390224876151</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>2.231741457723286</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3624,10 +3624,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.037534323606007</v>
+        <v>6.037534323606014</v>
       </c>
       <c r="R39" t="n">
-        <v>134.3151594521598</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3636,13 +3636,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2276407302841</v>
+        <v>0.9925489516173618</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>4.413829136735529</v>
       </c>
       <c r="W39" t="n">
-        <v>30.46949179834479</v>
+        <v>69.28412119250375</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>52.42116716196385</v>
+        <v>52.42116716196394</v>
       </c>
       <c r="V40" t="n">
-        <v>8.873923405783103</v>
+        <v>8.873923405783188</v>
       </c>
       <c r="W40" t="n">
-        <v>54.07561531066852</v>
+        <v>54.07561531066861</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>137.8521485991666</v>
+        <v>137.8521485991665</v>
       </c>
       <c r="C41" t="n">
-        <v>113.9704056025121</v>
+        <v>113.970405602512</v>
       </c>
       <c r="D41" t="n">
-        <v>101.5370678635606</v>
+        <v>101.5370678635605</v>
       </c>
       <c r="E41" t="n">
         <v>135.2438202829694</v>
       </c>
       <c r="F41" t="n">
-        <v>166.9641578613468</v>
+        <v>166.9641578613467</v>
       </c>
       <c r="G41" t="n">
-        <v>182.5909004777626</v>
+        <v>182.5909004777625</v>
       </c>
       <c r="H41" t="n">
-        <v>110.6615611723162</v>
+        <v>110.6615611723161</v>
       </c>
       <c r="I41" t="n">
-        <v>4.305080760292611</v>
+        <v>4.305080760292526</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>13.91447525748549</v>
+        <v>13.91447525748541</v>
       </c>
       <c r="V41" t="n">
-        <v>84.6446918304853</v>
+        <v>84.64469183048521</v>
       </c>
       <c r="W41" t="n">
-        <v>101.6613720471002</v>
+        <v>101.6613720471001</v>
       </c>
       <c r="X41" t="n">
-        <v>123.5476225160394</v>
+        <v>123.5476225160393</v>
       </c>
       <c r="Y41" t="n">
-        <v>146.0504756397832</v>
+        <v>146.0504756397831</v>
       </c>
     </row>
     <row r="42">
@@ -3819,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
         <v>159.1723150765785</v>
@@ -3834,13 +3834,13 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>38.81462939415898</v>
       </c>
       <c r="I42" t="n">
-        <v>107.1390224876151</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>51.85943295535305</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3861,10 +3861,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.037534323606007</v>
+        <v>6.037534323606014</v>
       </c>
       <c r="R42" t="n">
-        <v>67.33432547555675</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3873,13 +3873,13 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0.9925489516173618</v>
+        <v>0.9925489516172765</v>
       </c>
       <c r="V42" t="n">
-        <v>4.413829136735529</v>
+        <v>4.413829136735444</v>
       </c>
       <c r="W42" t="n">
-        <v>30.46949179834488</v>
+        <v>30.46949179834479</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>52.42116716196394</v>
+        <v>52.42116716196385</v>
       </c>
       <c r="V43" t="n">
-        <v>8.873923405783188</v>
+        <v>8.873923405783103</v>
       </c>
       <c r="W43" t="n">
-        <v>54.07561531066861</v>
+        <v>54.07561531066852</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>137.8521485991666</v>
+        <v>137.8521485991665</v>
       </c>
       <c r="C44" t="n">
         <v>113.970405602512</v>
@@ -3992,10 +3992,10 @@
         <v>182.5909004777625</v>
       </c>
       <c r="H44" t="n">
-        <v>110.6615611723162</v>
+        <v>110.6615611723161</v>
       </c>
       <c r="I44" t="n">
-        <v>4.305080760292554</v>
+        <v>4.305080760292526</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,16 +4031,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>13.91447525748544</v>
+        <v>13.91447525748541</v>
       </c>
       <c r="V44" t="n">
-        <v>84.64469183048524</v>
+        <v>84.64469183048521</v>
       </c>
       <c r="W44" t="n">
         <v>101.6613720471001</v>
       </c>
       <c r="X44" t="n">
-        <v>123.5476225160394</v>
+        <v>123.5476225160393</v>
       </c>
       <c r="Y44" t="n">
         <v>146.0504756397831</v>
@@ -4056,13 +4056,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>98.5317340847086</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>158.8234391199283</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>38.8146293941592</v>
+        <v>107.1390224876151</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4098,10 +4098,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.037534323606007</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>134.3151594521598</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4110,19 +4110,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0.9925489516173049</v>
+        <v>0.9925489516172765</v>
       </c>
       <c r="V45" t="n">
-        <v>4.413829136735473</v>
+        <v>4.413829136735444</v>
       </c>
       <c r="W45" t="n">
-        <v>30.46949179834482</v>
+        <v>30.46949179834479</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>52.42116716196388</v>
+        <v>52.42116716196385</v>
       </c>
       <c r="V46" t="n">
-        <v>8.873923405783131</v>
+        <v>8.873923405783103</v>
       </c>
       <c r="W46" t="n">
-        <v>54.07561531066855</v>
+        <v>54.07561531066852</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>299.7566989692713</v>
+        <v>206.2773067119514</v>
       </c>
       <c r="C11" t="n">
-        <v>299.7566989692713</v>
+        <v>206.2773067119514</v>
       </c>
       <c r="D11" t="n">
-        <v>299.7566989692713</v>
+        <v>206.2773067119514</v>
       </c>
       <c r="E11" t="n">
-        <v>214.3578937021338</v>
+        <v>120.878501444814</v>
       </c>
       <c r="F11" t="n">
-        <v>214.3578937021338</v>
+        <v>120.878501444814</v>
       </c>
       <c r="G11" t="n">
-        <v>128.9590884349964</v>
+        <v>35.47969617767656</v>
       </c>
       <c r="H11" t="n">
-        <v>43.56028316785898</v>
+        <v>35.47969617767656</v>
       </c>
       <c r="I11" t="n">
         <v>6.763585377157283</v>
@@ -5042,49 +5042,49 @@
         <v>6.763585377157283</v>
       </c>
       <c r="K11" t="n">
-        <v>6.763585377157283</v>
+        <v>82.94899698275069</v>
       </c>
       <c r="L11" t="n">
-        <v>55.38741258664101</v>
+        <v>131.5728241922344</v>
       </c>
       <c r="M11" t="n">
-        <v>138.3667488501958</v>
+        <v>214.5521604557891</v>
       </c>
       <c r="N11" t="n">
-        <v>215.8463415097256</v>
+        <v>292.0317531153189</v>
       </c>
       <c r="O11" t="n">
-        <v>252.098765047738</v>
+        <v>328.2841766533313</v>
       </c>
       <c r="P11" t="n">
-        <v>252.098765047738</v>
+        <v>328.2841766533313</v>
       </c>
       <c r="Q11" t="n">
-        <v>335.7981340900594</v>
+        <v>328.2841766533313</v>
       </c>
       <c r="R11" t="n">
         <v>338.1792688578641</v>
       </c>
       <c r="S11" t="n">
-        <v>314.8176678585581</v>
+        <v>338.1792688578641</v>
       </c>
       <c r="T11" t="n">
-        <v>299.7566989692713</v>
+        <v>338.1792688578641</v>
       </c>
       <c r="U11" t="n">
-        <v>299.7566989692713</v>
+        <v>291.6761119790888</v>
       </c>
       <c r="V11" t="n">
-        <v>299.7566989692713</v>
+        <v>291.6761119790888</v>
       </c>
       <c r="W11" t="n">
-        <v>299.7566989692713</v>
+        <v>291.6761119790888</v>
       </c>
       <c r="X11" t="n">
-        <v>299.7566989692713</v>
+        <v>291.6761119790888</v>
       </c>
       <c r="Y11" t="n">
-        <v>299.7566989692713</v>
+        <v>291.6761119790888</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5094,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.763585377157283</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="C12" t="n">
-        <v>6.763585377157283</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="D12" t="n">
-        <v>6.763585377157283</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="E12" t="n">
-        <v>6.763585377157283</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="F12" t="n">
-        <v>6.763585377157283</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="G12" t="n">
-        <v>6.763585377157283</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="H12" t="n">
-        <v>6.763585377157283</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="I12" t="n">
-        <v>6.763585377157283</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="J12" t="n">
         <v>6.763585377157283</v>
       </c>
       <c r="K12" t="n">
-        <v>45.76878079825745</v>
+        <v>45.76878079825744</v>
       </c>
       <c r="L12" t="n">
-        <v>45.76878079825745</v>
+        <v>129.4681498405788</v>
       </c>
       <c r="M12" t="n">
-        <v>87.08116173089998</v>
+        <v>213.1675188829002</v>
       </c>
       <c r="N12" t="n">
-        <v>170.7805307732214</v>
+        <v>254.4798998155428</v>
       </c>
       <c r="O12" t="n">
-        <v>254.4798998155428</v>
+        <v>338.1792688578641</v>
       </c>
       <c r="P12" t="n">
         <v>338.1792688578641</v>
@@ -5145,25 +5145,25 @@
         <v>332.0807493390702</v>
       </c>
       <c r="S12" t="n">
-        <v>256.1551959278835</v>
+        <v>332.0807493390702</v>
       </c>
       <c r="T12" t="n">
-        <v>245.2125567574917</v>
+        <v>321.1381101686783</v>
       </c>
       <c r="U12" t="n">
-        <v>211.7618506927246</v>
+        <v>280.1858270810247</v>
       </c>
       <c r="V12" t="n">
-        <v>174.855306057131</v>
+        <v>243.2792824454311</v>
       </c>
       <c r="W12" t="n">
-        <v>111.6299102481947</v>
+        <v>157.8804771782937</v>
       </c>
       <c r="X12" t="n">
-        <v>26.23110498105727</v>
+        <v>144.5456562557624</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.763585377157283</v>
+        <v>59.14685098862502</v>
       </c>
     </row>
     <row r="13">
@@ -5173,55 +5173,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.99316122774185</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="C13" t="n">
-        <v>32.99316122774185</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="D13" t="n">
-        <v>91.33266478844124</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="E13" t="n">
-        <v>91.33266478844124</v>
+        <v>68.57453288595752</v>
       </c>
       <c r="F13" t="n">
-        <v>91.33266478844124</v>
+        <v>133.1072467985983</v>
       </c>
       <c r="G13" t="n">
-        <v>91.33266478844124</v>
+        <v>133.1072467985983</v>
       </c>
       <c r="H13" t="n">
-        <v>129.2849311870878</v>
+        <v>133.1072467985983</v>
       </c>
       <c r="I13" t="n">
-        <v>129.2849311870878</v>
+        <v>133.1072467985983</v>
       </c>
       <c r="J13" t="n">
-        <v>212.7004779251836</v>
+        <v>133.1072467985983</v>
       </c>
       <c r="K13" t="n">
-        <v>212.7004779251836</v>
+        <v>133.1774756018528</v>
       </c>
       <c r="L13" t="n">
-        <v>212.7004779251836</v>
+        <v>216.8768446441742</v>
       </c>
       <c r="M13" t="n">
-        <v>212.7004779251836</v>
+        <v>300.5762136864956</v>
       </c>
       <c r="N13" t="n">
-        <v>212.7004779251836</v>
+        <v>300.5762136864956</v>
       </c>
       <c r="O13" t="n">
-        <v>224.9156385379446</v>
+        <v>300.5762136864956</v>
       </c>
       <c r="P13" t="n">
-        <v>224.9156385379446</v>
+        <v>300.5762136864956</v>
       </c>
       <c r="Q13" t="n">
-        <v>301.4940970687574</v>
+        <v>300.5762136864956</v>
       </c>
       <c r="R13" t="n">
-        <v>301.4940970687574</v>
+        <v>301.4940970687575</v>
       </c>
       <c r="S13" t="n">
         <v>269.9472458416886</v>
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>299.7566989692713</v>
+        <v>79.03092202916449</v>
       </c>
       <c r="C14" t="n">
-        <v>299.7566989692713</v>
+        <v>79.03092202916449</v>
       </c>
       <c r="D14" t="n">
-        <v>299.7566989692713</v>
+        <v>79.03092202916449</v>
       </c>
       <c r="E14" t="n">
-        <v>214.3578937021339</v>
+        <v>79.03092202916449</v>
       </c>
       <c r="F14" t="n">
-        <v>128.9590884349964</v>
+        <v>79.03092202916449</v>
       </c>
       <c r="G14" t="n">
-        <v>128.9590884349964</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="H14" t="n">
-        <v>43.56028316785901</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="I14" t="n">
         <v>6.763585377157283</v>
@@ -5279,22 +5279,22 @@
         <v>6.763585377157283</v>
       </c>
       <c r="K14" t="n">
-        <v>6.763585377157283</v>
+        <v>82.94899698275069</v>
       </c>
       <c r="L14" t="n">
-        <v>55.38741258664101</v>
+        <v>131.5728241922344</v>
       </c>
       <c r="M14" t="n">
-        <v>138.3667488501958</v>
+        <v>214.5521604557891</v>
       </c>
       <c r="N14" t="n">
-        <v>215.8463415097256</v>
+        <v>292.0317531153189</v>
       </c>
       <c r="O14" t="n">
-        <v>252.098765047738</v>
+        <v>328.2841766533313</v>
       </c>
       <c r="P14" t="n">
-        <v>252.098765047738</v>
+        <v>328.2841766533313</v>
       </c>
       <c r="Q14" t="n">
         <v>328.2841766533313</v>
@@ -5303,25 +5303,25 @@
         <v>338.1792688578641</v>
       </c>
       <c r="S14" t="n">
-        <v>338.1792688578641</v>
+        <v>314.8176678585581</v>
       </c>
       <c r="T14" t="n">
-        <v>338.1792688578641</v>
+        <v>296.3316894422147</v>
       </c>
       <c r="U14" t="n">
-        <v>299.7566989692713</v>
+        <v>249.8285325634393</v>
       </c>
       <c r="V14" t="n">
-        <v>299.7566989692713</v>
+        <v>249.8285325634393</v>
       </c>
       <c r="W14" t="n">
-        <v>299.7566989692713</v>
+        <v>249.8285325634393</v>
       </c>
       <c r="X14" t="n">
-        <v>299.7566989692713</v>
+        <v>249.8285325634393</v>
       </c>
       <c r="Y14" t="n">
-        <v>299.7566989692713</v>
+        <v>164.4297272963019</v>
       </c>
     </row>
     <row r="15">
@@ -5331,43 +5331,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>59.14685098862501</v>
+        <v>144.5456562557624</v>
       </c>
       <c r="C15" t="n">
-        <v>59.14685098862501</v>
+        <v>144.5456562557624</v>
       </c>
       <c r="D15" t="n">
-        <v>59.14685098862501</v>
+        <v>144.5456562557624</v>
       </c>
       <c r="E15" t="n">
-        <v>59.14685098862501</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="F15" t="n">
-        <v>59.14685098862501</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="G15" t="n">
-        <v>59.14685098862501</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="H15" t="n">
-        <v>59.14685098862501</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="I15" t="n">
-        <v>59.14685098862501</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="J15" t="n">
         <v>6.763585377157283</v>
       </c>
       <c r="K15" t="n">
-        <v>6.763585377157283</v>
+        <v>45.76878079825744</v>
       </c>
       <c r="L15" t="n">
-        <v>90.46295441947866</v>
+        <v>129.4681498405788</v>
       </c>
       <c r="M15" t="n">
-        <v>174.1623234618</v>
+        <v>129.4681498405788</v>
       </c>
       <c r="N15" t="n">
-        <v>254.4798998155428</v>
+        <v>170.7805307732214</v>
       </c>
       <c r="O15" t="n">
         <v>254.4798998155428</v>
@@ -5376,31 +5376,31 @@
         <v>338.1792688578641</v>
       </c>
       <c r="Q15" t="n">
-        <v>332.0807493390702</v>
+        <v>338.1792688578641</v>
       </c>
       <c r="R15" t="n">
-        <v>246.6819440719328</v>
+        <v>338.1792688578641</v>
       </c>
       <c r="S15" t="n">
-        <v>246.6819440719328</v>
+        <v>338.1792688578641</v>
       </c>
       <c r="T15" t="n">
-        <v>235.7393049015409</v>
+        <v>327.2366296874723</v>
       </c>
       <c r="U15" t="n">
-        <v>202.2885988367738</v>
+        <v>293.7859236227052</v>
       </c>
       <c r="V15" t="n">
-        <v>165.3820542011803</v>
+        <v>256.8793789871116</v>
       </c>
       <c r="W15" t="n">
-        <v>91.9491915150563</v>
+        <v>193.6539831781753</v>
       </c>
       <c r="X15" t="n">
-        <v>78.61437059252501</v>
+        <v>180.319162255644</v>
       </c>
       <c r="Y15" t="n">
-        <v>59.14685098862501</v>
+        <v>144.5456562557624</v>
       </c>
     </row>
     <row r="16">
@@ -5416,49 +5416,49 @@
         <v>6.763585377157283</v>
       </c>
       <c r="D16" t="n">
-        <v>6.763585377157283</v>
+        <v>65.10308893785665</v>
       </c>
       <c r="E16" t="n">
-        <v>6.763585377157283</v>
+        <v>126.9140364466569</v>
       </c>
       <c r="F16" t="n">
-        <v>19.56463405465532</v>
+        <v>126.9140364466569</v>
       </c>
       <c r="G16" t="n">
-        <v>19.56463405465532</v>
+        <v>126.9140364466569</v>
       </c>
       <c r="H16" t="n">
-        <v>57.51690045330191</v>
+        <v>126.9140364466569</v>
       </c>
       <c r="I16" t="n">
-        <v>57.51690045330191</v>
+        <v>134.3791812883402</v>
       </c>
       <c r="J16" t="n">
-        <v>57.51690045330191</v>
+        <v>217.794728026436</v>
       </c>
       <c r="K16" t="n">
-        <v>57.51690045330191</v>
+        <v>217.794728026436</v>
       </c>
       <c r="L16" t="n">
-        <v>57.51690045330191</v>
+        <v>217.794728026436</v>
       </c>
       <c r="M16" t="n">
-        <v>57.51690045330191</v>
+        <v>217.794728026436</v>
       </c>
       <c r="N16" t="n">
-        <v>57.51690045330191</v>
+        <v>301.4940970687574</v>
       </c>
       <c r="O16" t="n">
-        <v>141.2162694956233</v>
+        <v>301.4940970687574</v>
       </c>
       <c r="P16" t="n">
-        <v>224.9156385379447</v>
+        <v>301.4940970687574</v>
       </c>
       <c r="Q16" t="n">
-        <v>301.4940970687575</v>
+        <v>301.4940970687574</v>
       </c>
       <c r="R16" t="n">
-        <v>301.4940970687575</v>
+        <v>301.4940970687574</v>
       </c>
       <c r="S16" t="n">
         <v>269.9472458416886</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>224.7243025594537</v>
+        <v>224.7243025594536</v>
       </c>
       <c r="C17" t="n">
-        <v>209.8024792656695</v>
+        <v>209.8024792656691</v>
       </c>
       <c r="D17" t="n">
-        <v>207.4395829809272</v>
+        <v>207.4395829809268</v>
       </c>
       <c r="E17" t="n">
-        <v>171.0294620301154</v>
+        <v>171.029462030115</v>
       </c>
       <c r="F17" t="n">
-        <v>102.5785960506396</v>
+        <v>102.5785960506392</v>
       </c>
       <c r="G17" t="n">
         <v>18.34314156973347</v>
@@ -5510,40 +5510,40 @@
         <v>6.763585377157283</v>
       </c>
       <c r="I17" t="n">
-        <v>6.763585377157283</v>
+        <v>78.43651156321485</v>
       </c>
       <c r="J17" t="n">
-        <v>6.763585377157283</v>
+        <v>78.43651156321485</v>
       </c>
       <c r="K17" t="n">
-        <v>6.763585377157283</v>
+        <v>78.43651156321485</v>
       </c>
       <c r="L17" t="n">
-        <v>55.38741258664101</v>
+        <v>127.0603387726985</v>
       </c>
       <c r="M17" t="n">
-        <v>138.3667488501958</v>
+        <v>210.0396750362533</v>
       </c>
       <c r="N17" t="n">
-        <v>215.8463415097256</v>
+        <v>287.5192676957831</v>
       </c>
       <c r="O17" t="n">
-        <v>252.098765047738</v>
+        <v>323.7716912337955</v>
       </c>
       <c r="P17" t="n">
-        <v>252.098765047738</v>
+        <v>323.7716912337955</v>
       </c>
       <c r="Q17" t="n">
-        <v>252.098765047738</v>
+        <v>323.7716912337955</v>
       </c>
       <c r="R17" t="n">
-        <v>252.098765047738</v>
+        <v>323.7716912337955</v>
       </c>
       <c r="S17" t="n">
-        <v>252.098765047738</v>
+        <v>323.7716912337955</v>
       </c>
       <c r="T17" t="n">
-        <v>252.098765047738</v>
+        <v>323.7716912337955</v>
       </c>
       <c r="U17" t="n">
         <v>323.7716912337955</v>
@@ -5568,40 +5568,40 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>332.0807493390702</v>
+      </c>
+      <c r="C18" t="n">
+        <v>332.0807493390702</v>
+      </c>
+      <c r="D18" t="n">
+        <v>332.0807493390702</v>
+      </c>
+      <c r="E18" t="n">
+        <v>332.0807493390702</v>
+      </c>
+      <c r="F18" t="n">
+        <v>315.3432667900373</v>
+      </c>
+      <c r="G18" t="n">
         <v>229.9444615228998</v>
-      </c>
-      <c r="C18" t="n">
-        <v>144.5456562557624</v>
-      </c>
-      <c r="D18" t="n">
-        <v>144.5456562557624</v>
-      </c>
-      <c r="E18" t="n">
-        <v>144.5456562557624</v>
-      </c>
-      <c r="F18" t="n">
-        <v>144.5456562557624</v>
-      </c>
-      <c r="G18" t="n">
-        <v>144.5456562557624</v>
       </c>
       <c r="H18" t="n">
         <v>144.5456562557624</v>
       </c>
       <c r="I18" t="n">
-        <v>59.14685098862501</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="J18" t="n">
         <v>6.763585377157283</v>
       </c>
       <c r="K18" t="n">
-        <v>45.76878079825745</v>
+        <v>45.76878079825744</v>
       </c>
       <c r="L18" t="n">
         <v>129.4681498405788</v>
       </c>
       <c r="M18" t="n">
-        <v>170.7805307732214</v>
+        <v>129.4681498405788</v>
       </c>
       <c r="N18" t="n">
         <v>170.7805307732214</v>
@@ -5631,13 +5631,13 @@
         <v>332.0807493390702</v>
       </c>
       <c r="W18" t="n">
-        <v>246.6819440719328</v>
+        <v>332.0807493390702</v>
       </c>
       <c r="X18" t="n">
-        <v>229.9444615228998</v>
+        <v>332.0807493390702</v>
       </c>
       <c r="Y18" t="n">
-        <v>229.9444615228998</v>
+        <v>332.0807493390702</v>
       </c>
     </row>
     <row r="19">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>224.7243025594535</v>
+        <v>224.7243025594539</v>
       </c>
       <c r="C20" t="n">
-        <v>209.8024792656692</v>
+        <v>209.8024792656699</v>
       </c>
       <c r="D20" t="n">
-        <v>207.4395829809268</v>
+        <v>207.4395829809277</v>
       </c>
       <c r="E20" t="n">
-        <v>171.029462030115</v>
+        <v>171.0294620301159</v>
       </c>
       <c r="F20" t="n">
-        <v>102.5785960506392</v>
+        <v>102.5785960506401</v>
       </c>
       <c r="G20" t="n">
-        <v>18.34314156973359</v>
+        <v>18.34314156973347</v>
       </c>
       <c r="H20" t="n">
         <v>6.763585377157283</v>
       </c>
       <c r="I20" t="n">
-        <v>6.763585377157283</v>
+        <v>9.144720144962115</v>
       </c>
       <c r="J20" t="n">
-        <v>6.763585377157283</v>
+        <v>9.144720144962115</v>
       </c>
       <c r="K20" t="n">
-        <v>6.763585377157283</v>
+        <v>9.144720144962115</v>
       </c>
       <c r="L20" t="n">
-        <v>55.38741258664101</v>
+        <v>57.76854735444581</v>
       </c>
       <c r="M20" t="n">
-        <v>138.3667488501958</v>
+        <v>140.7478836180006</v>
       </c>
       <c r="N20" t="n">
-        <v>215.8463415097256</v>
+        <v>218.2274762775303</v>
       </c>
       <c r="O20" t="n">
-        <v>252.098765047738</v>
+        <v>254.4798998155428</v>
       </c>
       <c r="P20" t="n">
-        <v>252.098765047738</v>
+        <v>254.4798998155428</v>
       </c>
       <c r="Q20" t="n">
-        <v>252.098765047738</v>
+        <v>254.4798998155428</v>
       </c>
       <c r="R20" t="n">
-        <v>252.098765047738</v>
+        <v>254.4798998155428</v>
       </c>
       <c r="S20" t="n">
-        <v>252.098765047738</v>
+        <v>254.4798998155428</v>
       </c>
       <c r="T20" t="n">
-        <v>323.7716912337956</v>
+        <v>254.4798998155428</v>
       </c>
       <c r="U20" t="n">
-        <v>323.7716912337956</v>
+        <v>338.1792688578641</v>
       </c>
       <c r="V20" t="n">
         <v>338.1792688578641</v>
       </c>
       <c r="W20" t="n">
-        <v>335.6908127917687</v>
+        <v>335.6908127917688</v>
       </c>
       <c r="X20" t="n">
-        <v>311.095033019674</v>
+        <v>311.0950330196743</v>
       </c>
       <c r="Y20" t="n">
-        <v>263.7690985771313</v>
+        <v>263.7690985771314</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5805,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>332.0807493390702</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="C21" t="n">
-        <v>332.0807493390702</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="D21" t="n">
-        <v>315.3432667900373</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="E21" t="n">
-        <v>229.9444615228998</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="F21" t="n">
-        <v>144.5456562557624</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="G21" t="n">
-        <v>144.5456562557624</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="H21" t="n">
-        <v>144.5456562557624</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="I21" t="n">
-        <v>59.14685098862501</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="J21" t="n">
         <v>6.763585377157283</v>
       </c>
       <c r="K21" t="n">
-        <v>45.76878079825745</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="L21" t="n">
-        <v>129.4681498405788</v>
+        <v>6.763585377157283</v>
       </c>
       <c r="M21" t="n">
-        <v>213.1675188829002</v>
+        <v>87.08116173089998</v>
       </c>
       <c r="N21" t="n">
-        <v>254.4798998155428</v>
+        <v>170.7805307732214</v>
       </c>
       <c r="O21" t="n">
         <v>254.4798998155428</v>
@@ -5856,25 +5856,25 @@
         <v>332.0807493390702</v>
       </c>
       <c r="S21" t="n">
-        <v>332.0807493390702</v>
+        <v>315.3432667900373</v>
       </c>
       <c r="T21" t="n">
-        <v>332.0807493390702</v>
+        <v>229.9444615228998</v>
       </c>
       <c r="U21" t="n">
-        <v>332.0807493390702</v>
+        <v>144.5456562557624</v>
       </c>
       <c r="V21" t="n">
-        <v>332.0807493390702</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="W21" t="n">
-        <v>332.0807493390702</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="X21" t="n">
-        <v>332.0807493390702</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="Y21" t="n">
-        <v>332.0807493390702</v>
+        <v>59.14685098862502</v>
       </c>
     </row>
     <row r="22">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>224.7243025594535</v>
+        <v>224.7243025594537</v>
       </c>
       <c r="C23" t="n">
-        <v>209.8024792656693</v>
+        <v>209.8024792656695</v>
       </c>
       <c r="D23" t="n">
-        <v>207.4395829809269</v>
+        <v>207.4395829809272</v>
       </c>
       <c r="E23" t="n">
-        <v>171.029462030115</v>
+        <v>171.0294620301154</v>
       </c>
       <c r="F23" t="n">
-        <v>102.5785960506391</v>
+        <v>102.5785960506396</v>
       </c>
       <c r="G23" t="n">
-        <v>18.34314156973359</v>
+        <v>18.34314156973347</v>
       </c>
       <c r="H23" t="n">
         <v>6.763585377157283</v>
@@ -5993,46 +5993,46 @@
         <v>6.763585377157283</v>
       </c>
       <c r="L23" t="n">
-        <v>55.38741258664101</v>
+        <v>55.38741258664098</v>
       </c>
       <c r="M23" t="n">
-        <v>138.3667488501958</v>
+        <v>138.3667488501957</v>
       </c>
       <c r="N23" t="n">
-        <v>215.8463415097256</v>
+        <v>215.8463415097255</v>
       </c>
       <c r="O23" t="n">
-        <v>252.098765047738</v>
+        <v>252.0987650477379</v>
       </c>
       <c r="P23" t="n">
-        <v>252.098765047738</v>
+        <v>252.0987650477379</v>
       </c>
       <c r="Q23" t="n">
-        <v>252.098765047738</v>
+        <v>252.0987650477379</v>
       </c>
       <c r="R23" t="n">
-        <v>252.098765047738</v>
+        <v>252.0987650477379</v>
       </c>
       <c r="S23" t="n">
-        <v>335.7981340900594</v>
+        <v>252.0987650477379</v>
       </c>
       <c r="T23" t="n">
-        <v>338.1792688578641</v>
+        <v>252.0987650477379</v>
       </c>
       <c r="U23" t="n">
-        <v>338.1792688578641</v>
+        <v>323.7716912337955</v>
       </c>
       <c r="V23" t="n">
         <v>338.1792688578641</v>
       </c>
       <c r="W23" t="n">
-        <v>335.6908127917687</v>
+        <v>335.6908127917688</v>
       </c>
       <c r="X23" t="n">
-        <v>311.0950330196741</v>
+        <v>311.0950330196742</v>
       </c>
       <c r="Y23" t="n">
-        <v>263.7690985771311</v>
+        <v>263.7690985771313</v>
       </c>
     </row>
     <row r="24">
@@ -6057,13 +6057,13 @@
         <v>144.5456562557624</v>
       </c>
       <c r="G24" t="n">
-        <v>59.14685098862501</v>
+        <v>144.5456562557624</v>
       </c>
       <c r="H24" t="n">
-        <v>59.14685098862501</v>
+        <v>144.5456562557624</v>
       </c>
       <c r="I24" t="n">
-        <v>59.14685098862501</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="J24" t="n">
         <v>6.763585377157283</v>
@@ -6078,7 +6078,7 @@
         <v>90.46295441947866</v>
       </c>
       <c r="N24" t="n">
-        <v>174.1623234618</v>
+        <v>170.7805307732214</v>
       </c>
       <c r="O24" t="n">
         <v>254.4798998155428</v>
@@ -6206,67 +6206,67 @@
         <v>886.2687840112815</v>
       </c>
       <c r="D26" t="n">
-        <v>760.0751314131121</v>
+        <v>760.0751314131119</v>
       </c>
       <c r="E26" t="n">
-        <v>599.834254148873</v>
+        <v>599.8342541488727</v>
       </c>
       <c r="F26" t="n">
-        <v>407.5526318559699</v>
+        <v>407.5526318559695</v>
       </c>
       <c r="G26" t="n">
-        <v>199.4864210616367</v>
+        <v>199.4864210616363</v>
       </c>
       <c r="H26" t="n">
-        <v>64.07610855563374</v>
+        <v>64.07610855563387</v>
       </c>
       <c r="I26" t="n">
-        <v>36.09658434460355</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="J26" t="n">
         <v>171.8183046963238</v>
       </c>
       <c r="K26" t="n">
-        <v>377.4043607994714</v>
+        <v>377.4043607994713</v>
       </c>
       <c r="L26" t="n">
-        <v>636.7402271432942</v>
+        <v>636.740227143294</v>
       </c>
       <c r="M26" t="n">
-        <v>930.431602541188</v>
+        <v>930.4316025411879</v>
       </c>
       <c r="N26" t="n">
         <v>1218.623234335057</v>
       </c>
       <c r="O26" t="n">
-        <v>1465.587697007407</v>
+        <v>1465.587697007408</v>
       </c>
       <c r="P26" t="n">
-        <v>1663.092768286573</v>
+        <v>1663.092768286574</v>
       </c>
       <c r="Q26" t="n">
-        <v>1786.292413200209</v>
+        <v>1786.29241320021</v>
       </c>
       <c r="R26" t="n">
-        <v>1804.829217230177</v>
+        <v>1804.829217230179</v>
       </c>
       <c r="S26" t="n">
-        <v>1790.284789810542</v>
+        <v>1790.284789810545</v>
       </c>
       <c r="T26" t="n">
-        <v>1780.61598497387</v>
+        <v>1780.615984973872</v>
       </c>
       <c r="U26" t="n">
-        <v>1742.930001674767</v>
+        <v>1742.930001674768</v>
       </c>
       <c r="V26" t="n">
-        <v>1633.799355170612</v>
+        <v>1633.799355170614</v>
       </c>
       <c r="W26" t="n">
-        <v>1507.48014279109</v>
+        <v>1507.480142791091</v>
       </c>
       <c r="X26" t="n">
-        <v>1359.053606705568</v>
+        <v>1359.053606705569</v>
       </c>
       <c r="Y26" t="n">
         <v>1187.896915949598</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>225.5088586116398</v>
+        <v>492.7644061254652</v>
       </c>
       <c r="C27" t="n">
-        <v>36.09658434460355</v>
+        <v>303.3521318584289</v>
       </c>
       <c r="D27" t="n">
-        <v>36.09658434460355</v>
+        <v>142.5720156194607</v>
       </c>
       <c r="E27" t="n">
-        <v>36.09658434460355</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="F27" t="n">
-        <v>36.09658434460355</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="G27" t="n">
-        <v>36.09658434460355</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="H27" t="n">
-        <v>36.09658434460355</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="I27" t="n">
-        <v>36.09658434460355</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="J27" t="n">
-        <v>36.09658434460355</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="K27" t="n">
-        <v>75.10177976570371</v>
+        <v>75.10177976570374</v>
       </c>
       <c r="L27" t="n">
         <v>193.8356208840663</v>
       </c>
       <c r="M27" t="n">
-        <v>377.1470773731669</v>
+        <v>377.1470773731668</v>
       </c>
       <c r="N27" t="n">
         <v>583.730132222151</v>
       </c>
       <c r="O27" t="n">
-        <v>716.9661857729278</v>
+        <v>716.9661857729277</v>
       </c>
       <c r="P27" t="n">
-        <v>801.8233632992858</v>
+        <v>801.8233632992857</v>
       </c>
       <c r="Q27" t="n">
-        <v>795.7248437804918</v>
+        <v>795.7248437804917</v>
       </c>
       <c r="R27" t="n">
-        <v>795.7248437804918</v>
+        <v>795.7248437804917</v>
       </c>
       <c r="S27" t="n">
-        <v>795.7248437804918</v>
+        <v>795.7248437804917</v>
       </c>
       <c r="T27" t="n">
-        <v>793.5993781897715</v>
+        <v>793.5993781897713</v>
       </c>
       <c r="U27" t="n">
-        <v>768.965845704676</v>
+        <v>768.9658457046756</v>
       </c>
       <c r="V27" t="n">
-        <v>740.876474648754</v>
+        <v>740.8764746487535</v>
       </c>
       <c r="W27" t="n">
-        <v>471.4779053790453</v>
+        <v>686.4682524194886</v>
       </c>
       <c r="X27" t="n">
-        <v>251.9699109957417</v>
+        <v>681.9506050766288</v>
       </c>
       <c r="Y27" t="n">
-        <v>241.3195649715132</v>
+        <v>671.3002590524003</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.09658434460355</v>
+        <v>70.96787202062416</v>
       </c>
       <c r="C28" t="n">
-        <v>36.09658434460355</v>
+        <v>116.8873019927105</v>
       </c>
       <c r="D28" t="n">
-        <v>36.09658434460355</v>
+        <v>116.8873019927105</v>
       </c>
       <c r="E28" t="n">
-        <v>36.09658434460355</v>
+        <v>187.3399613269468</v>
       </c>
       <c r="F28" t="n">
-        <v>36.09658434460355</v>
+        <v>260.5143870650236</v>
       </c>
       <c r="G28" t="n">
-        <v>36.09658434460355</v>
+        <v>260.5143870650236</v>
       </c>
       <c r="H28" t="n">
-        <v>36.09658434460355</v>
+        <v>270.7780407246697</v>
       </c>
       <c r="I28" t="n">
-        <v>83.76685469911381</v>
+        <v>270.7780407246697</v>
       </c>
       <c r="J28" t="n">
-        <v>83.76685469911381</v>
+        <v>270.7780407246697</v>
       </c>
       <c r="K28" t="n">
-        <v>83.76685469911381</v>
+        <v>270.7780407246697</v>
       </c>
       <c r="L28" t="n">
-        <v>83.76685469911381</v>
+        <v>270.7780407246697</v>
       </c>
       <c r="M28" t="n">
-        <v>83.76685469911381</v>
+        <v>270.7780407246697</v>
       </c>
       <c r="N28" t="n">
-        <v>270.7780407246693</v>
+        <v>270.7780407246697</v>
       </c>
       <c r="O28" t="n">
-        <v>270.7780407246693</v>
+        <v>270.7780407246697</v>
       </c>
       <c r="P28" t="n">
-        <v>270.7780407246693</v>
+        <v>270.7780407246697</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.7780407246693</v>
+        <v>270.7780407246697</v>
       </c>
       <c r="R28" t="n">
-        <v>270.7780407246693</v>
+        <v>270.7780407246697</v>
       </c>
       <c r="S28" t="n">
-        <v>248.0483630772721</v>
+        <v>248.0483630772724</v>
       </c>
       <c r="T28" t="n">
-        <v>237.0405152401891</v>
+        <v>237.0405152401893</v>
       </c>
       <c r="U28" t="n">
-        <v>160.4588835527232</v>
+        <v>160.4588835527234</v>
       </c>
       <c r="V28" t="n">
-        <v>127.8643667704904</v>
+        <v>127.8643667704906</v>
       </c>
       <c r="W28" t="n">
-        <v>49.61157533685816</v>
+        <v>49.61157533685831</v>
       </c>
       <c r="X28" t="n">
-        <v>40.44085630837019</v>
+        <v>40.44085630837029</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.09658434460355</v>
+        <v>36.09658434460358</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6437,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1025.021363618495</v>
+        <v>1025.021363618494</v>
       </c>
       <c r="C29" t="n">
-        <v>886.2687840112832</v>
+        <v>886.2687840112826</v>
       </c>
       <c r="D29" t="n">
-        <v>760.0751314131136</v>
+        <v>760.0751314131129</v>
       </c>
       <c r="E29" t="n">
-        <v>599.8342541488744</v>
+        <v>599.8342541488737</v>
       </c>
       <c r="F29" t="n">
-        <v>407.5526318559712</v>
+        <v>407.5526318559706</v>
       </c>
       <c r="G29" t="n">
-        <v>199.486421061638</v>
+        <v>199.4864210616374</v>
       </c>
       <c r="H29" t="n">
-        <v>64.07610855563439</v>
+        <v>64.07610855563382</v>
       </c>
       <c r="I29" t="n">
         <v>36.09658434460358</v>
       </c>
       <c r="J29" t="n">
-        <v>171.8183046963237</v>
+        <v>171.8183046963238</v>
       </c>
       <c r="K29" t="n">
-        <v>377.4043607994715</v>
+        <v>377.4043607994713</v>
       </c>
       <c r="L29" t="n">
-        <v>636.7402271432943</v>
+        <v>636.740227143294</v>
       </c>
       <c r="M29" t="n">
-        <v>930.4316025411881</v>
+        <v>930.4316025411883</v>
       </c>
       <c r="N29" t="n">
         <v>1218.623234335057</v>
@@ -6494,19 +6494,19 @@
         <v>1780.615984973872</v>
       </c>
       <c r="U29" t="n">
-        <v>1742.930001674769</v>
+        <v>1742.930001674768</v>
       </c>
       <c r="V29" t="n">
         <v>1633.799355170614</v>
       </c>
       <c r="W29" t="n">
-        <v>1507.480142791092</v>
+        <v>1507.480142791091</v>
       </c>
       <c r="X29" t="n">
-        <v>1359.05360670557</v>
+        <v>1359.053606705569</v>
       </c>
       <c r="Y29" t="n">
-        <v>1187.8969159496</v>
+        <v>1187.896915949599</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>277.7740590850215</v>
+        <v>370.087504505945</v>
       </c>
       <c r="C30" t="n">
-        <v>88.36178481798518</v>
+        <v>370.087504505945</v>
       </c>
       <c r="D30" t="n">
-        <v>36.09658434460358</v>
+        <v>370.087504505945</v>
       </c>
       <c r="E30" t="n">
-        <v>36.09658434460358</v>
+        <v>196.5243006273595</v>
       </c>
       <c r="F30" t="n">
         <v>36.09658434460358</v>
@@ -6549,43 +6549,43 @@
         <v>193.8356208840663</v>
       </c>
       <c r="M30" t="n">
-        <v>377.1470773731669</v>
+        <v>377.1470773731668</v>
       </c>
       <c r="N30" t="n">
         <v>583.730132222151</v>
       </c>
       <c r="O30" t="n">
-        <v>716.9661857729278</v>
+        <v>716.9661857729277</v>
       </c>
       <c r="P30" t="n">
-        <v>801.8233632992858</v>
+        <v>801.8233632992857</v>
       </c>
       <c r="Q30" t="n">
-        <v>795.7248437804918</v>
+        <v>795.7248437804917</v>
       </c>
       <c r="R30" t="n">
-        <v>795.7248437804918</v>
+        <v>795.7248437804917</v>
       </c>
       <c r="S30" t="n">
-        <v>795.7248437804918</v>
+        <v>795.7248437804917</v>
       </c>
       <c r="T30" t="n">
-        <v>793.5993781897714</v>
+        <v>793.5993781897713</v>
       </c>
       <c r="U30" t="n">
-        <v>768.9658457046758</v>
+        <v>682.7434381986642</v>
       </c>
       <c r="V30" t="n">
-        <v>740.8764746487536</v>
+        <v>654.6540671427421</v>
       </c>
       <c r="W30" t="n">
-        <v>686.4682524194887</v>
+        <v>600.2458449134772</v>
       </c>
       <c r="X30" t="n">
-        <v>681.9506050766289</v>
+        <v>380.7378505301735</v>
       </c>
       <c r="Y30" t="n">
-        <v>456.3099120119566</v>
+        <v>370.087504505945</v>
       </c>
     </row>
     <row r="31">
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>70.96787202062416</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="C31" t="n">
-        <v>116.8873019927105</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="D31" t="n">
-        <v>183.8685173788459</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="E31" t="n">
-        <v>254.3211767130822</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="F31" t="n">
-        <v>270.7780407246697</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="G31" t="n">
-        <v>270.7780407246697</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="H31" t="n">
-        <v>270.7780407246697</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="I31" t="n">
-        <v>270.7780407246697</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="J31" t="n">
-        <v>270.7780407246697</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="K31" t="n">
-        <v>270.7780407246697</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="L31" t="n">
-        <v>270.7780407246697</v>
+        <v>75.5932011881209</v>
       </c>
       <c r="M31" t="n">
-        <v>270.7780407246697</v>
+        <v>75.5932011881209</v>
       </c>
       <c r="N31" t="n">
         <v>270.7780407246697</v>
@@ -6658,10 +6658,10 @@
         <v>127.8643667704906</v>
       </c>
       <c r="W31" t="n">
-        <v>49.6115753368583</v>
+        <v>49.61157533685831</v>
       </c>
       <c r="X31" t="n">
-        <v>40.44085630837028</v>
+        <v>40.44085630837029</v>
       </c>
       <c r="Y31" t="n">
         <v>36.09658434460358</v>
@@ -6677,22 +6677,22 @@
         <v>1025.021363618494</v>
       </c>
       <c r="C32" t="n">
-        <v>886.2687840112828</v>
+        <v>886.2687840112825</v>
       </c>
       <c r="D32" t="n">
-        <v>760.0751314131132</v>
+        <v>760.075131413113</v>
       </c>
       <c r="E32" t="n">
-        <v>599.8342541488742</v>
+        <v>599.8342541488737</v>
       </c>
       <c r="F32" t="n">
-        <v>407.5526318559711</v>
+        <v>407.5526318559704</v>
       </c>
       <c r="G32" t="n">
-        <v>199.4864210616379</v>
+        <v>199.4864210616372</v>
       </c>
       <c r="H32" t="n">
-        <v>64.07610855563379</v>
+        <v>64.07610855563382</v>
       </c>
       <c r="I32" t="n">
         <v>36.09658434460358</v>
@@ -6704,19 +6704,19 @@
         <v>377.4043607994713</v>
       </c>
       <c r="L32" t="n">
-        <v>636.7402271432941</v>
+        <v>636.740227143294</v>
       </c>
       <c r="M32" t="n">
-        <v>930.4316025411878</v>
+        <v>930.4316025411877</v>
       </c>
       <c r="N32" t="n">
-        <v>1218.623234335057</v>
+        <v>1218.623234335056</v>
       </c>
       <c r="O32" t="n">
         <v>1465.587697007408</v>
       </c>
       <c r="P32" t="n">
-        <v>1663.092768286574</v>
+        <v>1663.092768286575</v>
       </c>
       <c r="Q32" t="n">
         <v>1786.29241320021</v>
@@ -6725,22 +6725,22 @@
         <v>1804.829217230179</v>
       </c>
       <c r="S32" t="n">
-        <v>1790.284789810544</v>
+        <v>1790.284789810545</v>
       </c>
       <c r="T32" t="n">
         <v>1780.615984973873</v>
       </c>
       <c r="U32" t="n">
-        <v>1742.930001674768</v>
+        <v>1742.930001674769</v>
       </c>
       <c r="V32" t="n">
         <v>1633.799355170614</v>
       </c>
       <c r="W32" t="n">
-        <v>1507.480142791092</v>
+        <v>1507.480142791091</v>
       </c>
       <c r="X32" t="n">
-        <v>1359.05360670557</v>
+        <v>1359.053606705569</v>
       </c>
       <c r="Y32" t="n">
         <v>1187.896915949599</v>
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>36.09658434460358</v>
+        <v>247.4180844903066</v>
       </c>
       <c r="C33" t="n">
-        <v>36.09658434460358</v>
+        <v>247.4180844903066</v>
       </c>
       <c r="D33" t="n">
-        <v>36.09658434460358</v>
+        <v>247.4180844903066</v>
       </c>
       <c r="E33" t="n">
-        <v>36.09658434460358</v>
+        <v>247.4180844903066</v>
       </c>
       <c r="F33" t="n">
-        <v>36.09658434460358</v>
+        <v>247.4180844903066</v>
       </c>
       <c r="G33" t="n">
-        <v>36.09658434460358</v>
+        <v>247.4180844903066</v>
       </c>
       <c r="H33" t="n">
-        <v>36.09658434460358</v>
+        <v>196.7010847920462</v>
       </c>
       <c r="I33" t="n">
-        <v>36.09658434460358</v>
+        <v>88.47984995607132</v>
       </c>
       <c r="J33" t="n">
         <v>36.09658434460358</v>
@@ -6786,43 +6786,43 @@
         <v>193.8356208840663</v>
       </c>
       <c r="M33" t="n">
-        <v>377.1470773731669</v>
+        <v>377.1470773731668</v>
       </c>
       <c r="N33" t="n">
         <v>583.730132222151</v>
       </c>
       <c r="O33" t="n">
-        <v>716.9661857729278</v>
+        <v>716.9661857729277</v>
       </c>
       <c r="P33" t="n">
-        <v>801.8233632992858</v>
+        <v>801.8233632992857</v>
       </c>
       <c r="Q33" t="n">
-        <v>801.8233632992858</v>
+        <v>801.8233632992857</v>
       </c>
       <c r="R33" t="n">
-        <v>801.8233632992858</v>
+        <v>801.8233632992857</v>
       </c>
       <c r="S33" t="n">
-        <v>801.8233632992858</v>
+        <v>801.8233632992857</v>
       </c>
       <c r="T33" t="n">
-        <v>799.6978977085654</v>
+        <v>799.6978977085653</v>
       </c>
       <c r="U33" t="n">
-        <v>775.0643652234697</v>
+        <v>775.0643652234696</v>
       </c>
       <c r="V33" t="n">
-        <v>531.9846471271038</v>
+        <v>746.9749941675475</v>
       </c>
       <c r="W33" t="n">
-        <v>262.5860778573951</v>
+        <v>692.5667719382826</v>
       </c>
       <c r="X33" t="n">
-        <v>46.74693036883207</v>
+        <v>473.058777554979</v>
       </c>
       <c r="Y33" t="n">
-        <v>36.09658434460358</v>
+        <v>247.4180844903066</v>
       </c>
     </row>
     <row r="34">
@@ -6832,73 +6832,73 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>70.96787202062418</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="C34" t="n">
-        <v>116.8873019927106</v>
+        <v>82.01601431668995</v>
       </c>
       <c r="D34" t="n">
-        <v>116.8873019927106</v>
+        <v>148.9972297028253</v>
       </c>
       <c r="E34" t="n">
-        <v>116.8873019927106</v>
+        <v>219.4498890370616</v>
       </c>
       <c r="F34" t="n">
-        <v>190.0617277307874</v>
+        <v>270.7780407246697</v>
       </c>
       <c r="G34" t="n">
-        <v>233.7654088942649</v>
+        <v>270.7780407246697</v>
       </c>
       <c r="H34" t="n">
-        <v>233.7654088942649</v>
+        <v>270.7780407246697</v>
       </c>
       <c r="I34" t="n">
-        <v>233.7654088942649</v>
+        <v>270.7780407246697</v>
       </c>
       <c r="J34" t="n">
-        <v>233.7654088942649</v>
+        <v>270.7780407246697</v>
       </c>
       <c r="K34" t="n">
-        <v>233.7654088942649</v>
+        <v>270.7780407246697</v>
       </c>
       <c r="L34" t="n">
-        <v>233.7654088942649</v>
+        <v>270.7780407246697</v>
       </c>
       <c r="M34" t="n">
-        <v>233.7654088942649</v>
+        <v>270.7780407246697</v>
       </c>
       <c r="N34" t="n">
-        <v>270.7780407246696</v>
+        <v>270.7780407246697</v>
       </c>
       <c r="O34" t="n">
-        <v>270.7780407246696</v>
+        <v>270.7780407246697</v>
       </c>
       <c r="P34" t="n">
-        <v>270.7780407246696</v>
+        <v>270.7780407246697</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.7780407246696</v>
+        <v>270.7780407246697</v>
       </c>
       <c r="R34" t="n">
-        <v>270.7780407246696</v>
+        <v>270.7780407246697</v>
       </c>
       <c r="S34" t="n">
-        <v>248.0483630772723</v>
+        <v>248.0483630772724</v>
       </c>
       <c r="T34" t="n">
-        <v>237.0405152401892</v>
+        <v>237.0405152401893</v>
       </c>
       <c r="U34" t="n">
-        <v>160.4588835527233</v>
+        <v>160.4588835527234</v>
       </c>
       <c r="V34" t="n">
-        <v>127.8643667704905</v>
+        <v>127.8643667704906</v>
       </c>
       <c r="W34" t="n">
-        <v>49.61157533685824</v>
+        <v>49.61157533685831</v>
       </c>
       <c r="X34" t="n">
-        <v>40.44085630837025</v>
+        <v>40.44085630837029</v>
       </c>
       <c r="Y34" t="n">
         <v>36.09658434460358</v>
@@ -6914,55 +6914,55 @@
         <v>852.8410737358904</v>
       </c>
       <c r="C35" t="n">
-        <v>737.7194519151709</v>
+        <v>737.7194519151711</v>
       </c>
       <c r="D35" t="n">
-        <v>635.1567571034936</v>
+        <v>635.1567571034938</v>
       </c>
       <c r="E35" t="n">
         <v>498.5468376257469</v>
       </c>
       <c r="F35" t="n">
-        <v>329.8961731193361</v>
+        <v>329.896173119336</v>
       </c>
       <c r="G35" t="n">
-        <v>145.4609201114951</v>
+        <v>145.4609201114956</v>
       </c>
       <c r="H35" t="n">
-        <v>33.6815653919842</v>
+        <v>33.68156539198429</v>
       </c>
       <c r="I35" t="n">
-        <v>29.33299896744629</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="J35" t="n">
-        <v>110.9729207166993</v>
+        <v>188.2154210457075</v>
       </c>
       <c r="K35" t="n">
-        <v>110.9729207166993</v>
+        <v>416.9621788753961</v>
       </c>
       <c r="L35" t="n">
-        <v>393.4694887870631</v>
+        <v>699.4587469457599</v>
       </c>
       <c r="M35" t="n">
-        <v>710.3215659114981</v>
+        <v>782.4380832093146</v>
       </c>
       <c r="N35" t="n">
-        <v>1021.673899431908</v>
+        <v>859.9176758688444</v>
       </c>
       <c r="O35" t="n">
-        <v>1057.92632296992</v>
+        <v>1035.336308451245</v>
       </c>
       <c r="P35" t="n">
-        <v>1278.592095975628</v>
+        <v>1256.002081456953</v>
       </c>
       <c r="Q35" t="n">
-        <v>1424.952442615805</v>
+        <v>1402.362428097129</v>
       </c>
       <c r="R35" t="n">
-        <v>1466.649948372315</v>
+        <v>1444.059933853639</v>
       </c>
       <c r="S35" t="n">
-        <v>1466.649948372315</v>
+        <v>1452.965642266196</v>
       </c>
       <c r="T35" t="n">
         <v>1466.649948372315</v>
@@ -6974,7 +6974,7 @@
         <v>1367.095234142041</v>
       </c>
       <c r="W35" t="n">
-        <v>1264.40697954901</v>
+        <v>1264.406979549011</v>
       </c>
       <c r="X35" t="n">
         <v>1139.611401249981</v>
@@ -6990,10 +6990,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>316.7027169150797</v>
+        <v>477.482833154048</v>
       </c>
       <c r="C36" t="n">
-        <v>316.7027169150797</v>
+        <v>477.482833154048</v>
       </c>
       <c r="D36" t="n">
         <v>316.7027169150797</v>
@@ -7008,58 +7008,58 @@
         <v>156.2750006323238</v>
       </c>
       <c r="H36" t="n">
-        <v>29.33299896744629</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="I36" t="n">
-        <v>29.33299896744629</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="J36" t="n">
-        <v>29.33299896744629</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="K36" t="n">
         <v>68.33819438854646</v>
       </c>
       <c r="L36" t="n">
-        <v>187.0720355069091</v>
+        <v>187.072035506909</v>
       </c>
       <c r="M36" t="n">
-        <v>370.3834919960096</v>
+        <v>370.3834919960095</v>
       </c>
       <c r="N36" t="n">
-        <v>576.9665468449938</v>
+        <v>576.9665468449937</v>
       </c>
       <c r="O36" t="n">
-        <v>710.2026003957706</v>
+        <v>710.2026003957703</v>
       </c>
       <c r="P36" t="n">
-        <v>795.0597779221285</v>
+        <v>795.0597779221283</v>
       </c>
       <c r="Q36" t="n">
-        <v>788.9612584033346</v>
+        <v>795.0597779221283</v>
       </c>
       <c r="R36" t="n">
-        <v>788.9612584033346</v>
+        <v>659.3878996876234</v>
       </c>
       <c r="S36" t="n">
-        <v>788.9612584033346</v>
+        <v>513.7210855648539</v>
       </c>
       <c r="T36" t="n">
-        <v>750.9848166361242</v>
+        <v>513.7210855648539</v>
       </c>
       <c r="U36" t="n">
-        <v>749.9822419375208</v>
+        <v>512.7185108662504</v>
       </c>
       <c r="V36" t="n">
-        <v>745.523828668091</v>
+        <v>508.2600975968206</v>
       </c>
       <c r="W36" t="n">
-        <v>714.7465642253185</v>
+        <v>477.482833154048</v>
       </c>
       <c r="X36" t="n">
-        <v>495.2385698420148</v>
+        <v>477.482833154048</v>
       </c>
       <c r="Y36" t="n">
-        <v>495.2385698420148</v>
+        <v>477.482833154048</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>43.50547897416632</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="C37" t="n">
-        <v>43.50547897416632</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="D37" t="n">
-        <v>43.50547897416632</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="E37" t="n">
-        <v>43.50547897416632</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="F37" t="n">
-        <v>43.50547897416632</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="G37" t="n">
-        <v>43.50547897416632</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="H37" t="n">
-        <v>113.2601589247901</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="I37" t="n">
-        <v>145.8690655113003</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="J37" t="n">
-        <v>145.8690655113003</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="K37" t="n">
-        <v>145.8690655113003</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="L37" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113006</v>
       </c>
       <c r="M37" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113006</v>
       </c>
       <c r="N37" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113006</v>
       </c>
       <c r="O37" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113006</v>
       </c>
       <c r="P37" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113006</v>
       </c>
       <c r="Q37" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113006</v>
       </c>
       <c r="R37" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113006</v>
       </c>
       <c r="S37" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113006</v>
       </c>
       <c r="T37" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113006</v>
       </c>
       <c r="U37" t="n">
-        <v>92.91839161032674</v>
+        <v>92.91839161032691</v>
       </c>
       <c r="V37" t="n">
-        <v>83.95483261458622</v>
+        <v>83.95483261458631</v>
       </c>
       <c r="W37" t="n">
-        <v>29.33299896744629</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="X37" t="n">
-        <v>43.50547897416632</v>
+        <v>29.3329989674463</v>
       </c>
       <c r="Y37" t="n">
-        <v>43.50547897416632</v>
+        <v>29.3329989674463</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>852.8410737358899</v>
+        <v>852.8410737358895</v>
       </c>
       <c r="C38" t="n">
-        <v>737.7194519151708</v>
+        <v>737.7194519151703</v>
       </c>
       <c r="D38" t="n">
-        <v>635.1567571034934</v>
+        <v>635.156757103493</v>
       </c>
       <c r="E38" t="n">
-        <v>498.5468376257464</v>
+        <v>498.5468376257461</v>
       </c>
       <c r="F38" t="n">
         <v>329.8961731193356</v>
       </c>
       <c r="G38" t="n">
-        <v>145.4609201114947</v>
+        <v>145.4609201114956</v>
       </c>
       <c r="H38" t="n">
-        <v>33.68156539198419</v>
+        <v>33.68156539198427</v>
       </c>
       <c r="I38" t="n">
         <v>29.33299896744628</v>
       </c>
       <c r="J38" t="n">
-        <v>188.2154210457076</v>
+        <v>188.2154210457075</v>
       </c>
       <c r="K38" t="n">
-        <v>416.9621788753963</v>
+        <v>416.9621788753961</v>
       </c>
       <c r="L38" t="n">
-        <v>604.7522151292665</v>
+        <v>465.5860060848798</v>
       </c>
       <c r="M38" t="n">
-        <v>687.7315513928213</v>
+        <v>782.4380832093146</v>
       </c>
       <c r="N38" t="n">
-        <v>765.2111440523511</v>
+        <v>1093.790416729724</v>
       </c>
       <c r="O38" t="n">
-        <v>1035.336308451244</v>
+        <v>1363.915581128617</v>
       </c>
       <c r="P38" t="n">
-        <v>1256.002081456951</v>
+        <v>1466.649948372314</v>
       </c>
       <c r="Q38" t="n">
-        <v>1402.362428097128</v>
+        <v>1466.649948372314</v>
       </c>
       <c r="R38" t="n">
-        <v>1444.059933853638</v>
+        <v>1466.649948372314</v>
       </c>
       <c r="S38" t="n">
-        <v>1452.965642266195</v>
+        <v>1466.649948372314</v>
       </c>
       <c r="T38" t="n">
         <v>1466.649948372314</v>
       </c>
       <c r="U38" t="n">
-        <v>1452.594922859702</v>
+        <v>1452.594922859703</v>
       </c>
       <c r="V38" t="n">
-        <v>1367.09523414204</v>
+        <v>1367.095234142041</v>
       </c>
       <c r="W38" t="n">
         <v>1264.40697954901</v>
       </c>
       <c r="X38" t="n">
-        <v>1139.611401249981</v>
+        <v>1139.61140124998</v>
       </c>
       <c r="Y38" t="n">
-        <v>992.0856682805027</v>
+        <v>992.0856682805022</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>139.8085181041518</v>
+        <v>713.5163096347923</v>
       </c>
       <c r="C39" t="n">
-        <v>139.8085181041518</v>
+        <v>524.104035367756</v>
       </c>
       <c r="D39" t="n">
-        <v>139.8085181041518</v>
+        <v>363.3239191287877</v>
       </c>
       <c r="E39" t="n">
-        <v>139.8085181041518</v>
+        <v>189.7607152502022</v>
       </c>
       <c r="F39" t="n">
-        <v>139.8085181041518</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="G39" t="n">
-        <v>139.8085181041518</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="H39" t="n">
-        <v>139.8085181041518</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="I39" t="n">
-        <v>31.58728326817688</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="J39" t="n">
         <v>29.33299896744628</v>
@@ -7260,43 +7260,43 @@
         <v>187.072035506909</v>
       </c>
       <c r="M39" t="n">
-        <v>370.3834919960096</v>
+        <v>370.3834919960095</v>
       </c>
       <c r="N39" t="n">
-        <v>576.9665468449938</v>
+        <v>576.9665468449937</v>
       </c>
       <c r="O39" t="n">
-        <v>710.2026003957706</v>
+        <v>710.2026003957703</v>
       </c>
       <c r="P39" t="n">
-        <v>795.0597779221285</v>
+        <v>795.0597779221283</v>
       </c>
       <c r="Q39" t="n">
-        <v>788.9612584033346</v>
+        <v>788.9612584033343</v>
       </c>
       <c r="R39" t="n">
-        <v>653.2893801688297</v>
+        <v>788.9612584033343</v>
       </c>
       <c r="S39" t="n">
-        <v>653.2893801688297</v>
+        <v>788.9612584033343</v>
       </c>
       <c r="T39" t="n">
-        <v>653.2893801688297</v>
+        <v>788.9612584033343</v>
       </c>
       <c r="U39" t="n">
-        <v>413.6655006432902</v>
+        <v>787.9586837047309</v>
       </c>
       <c r="V39" t="n">
-        <v>170.5857825469243</v>
+        <v>783.5002704353011</v>
       </c>
       <c r="W39" t="n">
-        <v>139.8085181041518</v>
+        <v>713.5163096347923</v>
       </c>
       <c r="X39" t="n">
-        <v>139.8085181041518</v>
+        <v>713.5163096347923</v>
       </c>
       <c r="Y39" t="n">
-        <v>139.8085181041518</v>
+        <v>713.5163096347923</v>
       </c>
     </row>
     <row r="40">
@@ -7342,31 +7342,31 @@
         <v>29.33299896744628</v>
       </c>
       <c r="N40" t="n">
-        <v>145.8690655113003</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="O40" t="n">
-        <v>145.8690655113003</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="P40" t="n">
-        <v>145.8690655113003</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="Q40" t="n">
-        <v>145.8690655113003</v>
+        <v>100.7768585156457</v>
       </c>
       <c r="R40" t="n">
-        <v>145.8690655113003</v>
+        <v>133.4971554498846</v>
       </c>
       <c r="S40" t="n">
-        <v>145.8690655113003</v>
+        <v>133.4971554498846</v>
       </c>
       <c r="T40" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113006</v>
       </c>
       <c r="U40" t="n">
-        <v>92.91839161032672</v>
+        <v>92.91839161032689</v>
       </c>
       <c r="V40" t="n">
-        <v>83.95483261458621</v>
+        <v>83.95483261458629</v>
       </c>
       <c r="W40" t="n">
         <v>29.33299896744628</v>
@@ -7388,49 +7388,49 @@
         <v>852.8410737358895</v>
       </c>
       <c r="C41" t="n">
-        <v>737.71945191517</v>
+        <v>737.7194519151702</v>
       </c>
       <c r="D41" t="n">
-        <v>635.1567571034926</v>
+        <v>635.156757103493</v>
       </c>
       <c r="E41" t="n">
-        <v>498.5468376257458</v>
+        <v>498.5468376257462</v>
       </c>
       <c r="F41" t="n">
-        <v>329.8961731193349</v>
+        <v>329.8961731193354</v>
       </c>
       <c r="G41" t="n">
-        <v>145.4609201114939</v>
+        <v>145.4609201114945</v>
       </c>
       <c r="H41" t="n">
-        <v>33.68156539198427</v>
+        <v>33.68156539198419</v>
       </c>
       <c r="I41" t="n">
         <v>29.33299896744628</v>
       </c>
       <c r="J41" t="n">
-        <v>188.2154210457075</v>
+        <v>188.2154210457076</v>
       </c>
       <c r="K41" t="n">
-        <v>416.9621788753961</v>
+        <v>416.9621788753963</v>
       </c>
       <c r="L41" t="n">
-        <v>699.4587469457599</v>
+        <v>699.4587469457601</v>
       </c>
       <c r="M41" t="n">
-        <v>908.3973243985296</v>
+        <v>782.4380832093149</v>
       </c>
       <c r="N41" t="n">
-        <v>985.8769170580593</v>
+        <v>1093.790416729725</v>
       </c>
       <c r="O41" t="n">
-        <v>1256.002081456952</v>
+        <v>1363.915581128617</v>
       </c>
       <c r="P41" t="n">
-        <v>1256.002081456952</v>
+        <v>1363.915581128617</v>
       </c>
       <c r="Q41" t="n">
-        <v>1402.362428097128</v>
+        <v>1444.059933853638</v>
       </c>
       <c r="R41" t="n">
         <v>1444.059933853638</v>
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>684.7085358151986</v>
+        <v>752.7230059925287</v>
       </c>
       <c r="C42" t="n">
-        <v>684.7085358151986</v>
+        <v>563.3107317254924</v>
       </c>
       <c r="D42" t="n">
-        <v>523.9284195762303</v>
+        <v>402.5306154865241</v>
       </c>
       <c r="E42" t="n">
-        <v>350.3652156976448</v>
+        <v>228.9674116079385</v>
       </c>
       <c r="F42" t="n">
-        <v>189.9374994148889</v>
+        <v>68.53969532518263</v>
       </c>
       <c r="G42" t="n">
-        <v>189.9374994148889</v>
+        <v>68.53969532518263</v>
       </c>
       <c r="H42" t="n">
-        <v>189.9374994148889</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="I42" t="n">
-        <v>81.71626457891401</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="J42" t="n">
         <v>29.33299896744628</v>
@@ -7497,43 +7497,43 @@
         <v>187.072035506909</v>
       </c>
       <c r="M42" t="n">
-        <v>370.3834919960096</v>
+        <v>370.3834919960095</v>
       </c>
       <c r="N42" t="n">
-        <v>576.9665468449938</v>
+        <v>576.9665468449937</v>
       </c>
       <c r="O42" t="n">
-        <v>710.2026003957706</v>
+        <v>710.2026003957703</v>
       </c>
       <c r="P42" t="n">
-        <v>795.0597779221285</v>
+        <v>795.0597779221283</v>
       </c>
       <c r="Q42" t="n">
-        <v>788.9612584033346</v>
+        <v>788.9612584033343</v>
       </c>
       <c r="R42" t="n">
-        <v>720.9467882260045</v>
+        <v>788.9612584033343</v>
       </c>
       <c r="S42" t="n">
-        <v>720.9467882260045</v>
+        <v>788.9612584033343</v>
       </c>
       <c r="T42" t="n">
-        <v>720.9467882260045</v>
+        <v>788.9612584033343</v>
       </c>
       <c r="U42" t="n">
-        <v>719.9442135274011</v>
+        <v>787.958683704731</v>
       </c>
       <c r="V42" t="n">
-        <v>715.4858002579713</v>
+        <v>783.5002704353012</v>
       </c>
       <c r="W42" t="n">
-        <v>684.7085358151986</v>
+        <v>752.7230059925287</v>
       </c>
       <c r="X42" t="n">
-        <v>684.7085358151986</v>
+        <v>752.7230059925287</v>
       </c>
       <c r="Y42" t="n">
-        <v>684.7085358151986</v>
+        <v>752.7230059925287</v>
       </c>
     </row>
     <row r="43">
@@ -7555,55 +7555,55 @@
         <v>29.33299896744628</v>
       </c>
       <c r="F43" t="n">
-        <v>29.33299896744628</v>
+        <v>79.0046826212817</v>
       </c>
       <c r="G43" t="n">
-        <v>29.33299896744628</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="H43" t="n">
-        <v>29.33299896744628</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="I43" t="n">
-        <v>29.33299896744628</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="J43" t="n">
-        <v>29.33299896744628</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="K43" t="n">
-        <v>145.8690655113006</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="L43" t="n">
-        <v>145.8690655113006</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="M43" t="n">
-        <v>145.8690655113006</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="N43" t="n">
-        <v>145.8690655113006</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="O43" t="n">
-        <v>145.8690655113006</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="P43" t="n">
-        <v>145.8690655113006</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="Q43" t="n">
-        <v>145.8690655113006</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="R43" t="n">
-        <v>145.8690655113006</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="S43" t="n">
-        <v>145.8690655113006</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="T43" t="n">
-        <v>145.8690655113006</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="U43" t="n">
-        <v>92.91839161032689</v>
+        <v>92.91839161032672</v>
       </c>
       <c r="V43" t="n">
-        <v>83.95483261458629</v>
+        <v>83.95483261458621</v>
       </c>
       <c r="W43" t="n">
         <v>29.33299896744628</v>
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>852.8410737358901</v>
+        <v>852.8410737358902</v>
       </c>
       <c r="C44" t="n">
         <v>737.719451915171</v>
@@ -7640,7 +7640,7 @@
         <v>145.4609201114947</v>
       </c>
       <c r="H44" t="n">
-        <v>33.68156539198421</v>
+        <v>33.68156539198419</v>
       </c>
       <c r="I44" t="n">
         <v>29.33299896744628</v>
@@ -7652,28 +7652,28 @@
         <v>416.9621788753963</v>
       </c>
       <c r="L44" t="n">
-        <v>465.58600608488</v>
+        <v>699.4587469457601</v>
       </c>
       <c r="M44" t="n">
-        <v>548.5653423484348</v>
+        <v>1016.310824070195</v>
       </c>
       <c r="N44" t="n">
-        <v>859.9176758688448</v>
+        <v>1093.790416729725</v>
       </c>
       <c r="O44" t="n">
-        <v>1035.336308451244</v>
+        <v>1130.042840267737</v>
       </c>
       <c r="P44" t="n">
-        <v>1256.002081456951</v>
+        <v>1350.708613273445</v>
       </c>
       <c r="Q44" t="n">
-        <v>1402.362428097128</v>
+        <v>1424.952442615804</v>
       </c>
       <c r="R44" t="n">
-        <v>1444.059933853638</v>
+        <v>1466.649948372314</v>
       </c>
       <c r="S44" t="n">
-        <v>1452.965642266195</v>
+        <v>1466.649948372314</v>
       </c>
       <c r="T44" t="n">
         <v>1466.649948372314</v>
@@ -7691,7 +7691,7 @@
         <v>1139.611401249981</v>
       </c>
       <c r="Y44" t="n">
-        <v>992.0856682805028</v>
+        <v>992.0856682805029</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>752.7230059925289</v>
+        <v>397.5089542121454</v>
       </c>
       <c r="C45" t="n">
-        <v>563.3107317254926</v>
+        <v>397.5089542121454</v>
       </c>
       <c r="D45" t="n">
-        <v>402.5306154865243</v>
+        <v>297.9819500861771</v>
       </c>
       <c r="E45" t="n">
-        <v>228.9674116079388</v>
+        <v>297.9819500861771</v>
       </c>
       <c r="F45" t="n">
-        <v>68.53969532518286</v>
+        <v>137.5542338034212</v>
       </c>
       <c r="G45" t="n">
-        <v>68.53969532518286</v>
+        <v>137.5542338034212</v>
       </c>
       <c r="H45" t="n">
-        <v>68.53969532518286</v>
+        <v>137.5542338034212</v>
       </c>
       <c r="I45" t="n">
         <v>29.33299896744628</v>
@@ -7734,43 +7734,43 @@
         <v>187.072035506909</v>
       </c>
       <c r="M45" t="n">
-        <v>370.3834919960096</v>
+        <v>370.3834919960095</v>
       </c>
       <c r="N45" t="n">
-        <v>576.9665468449938</v>
+        <v>576.9665468449937</v>
       </c>
       <c r="O45" t="n">
-        <v>710.2026003957706</v>
+        <v>710.2026003957703</v>
       </c>
       <c r="P45" t="n">
-        <v>795.0597779221285</v>
+        <v>795.0597779221283</v>
       </c>
       <c r="Q45" t="n">
-        <v>788.9612584033346</v>
+        <v>795.0597779221283</v>
       </c>
       <c r="R45" t="n">
-        <v>788.9612584033346</v>
+        <v>659.3878996876234</v>
       </c>
       <c r="S45" t="n">
-        <v>788.9612584033346</v>
+        <v>659.3878996876234</v>
       </c>
       <c r="T45" t="n">
-        <v>788.9612584033346</v>
+        <v>659.3878996876234</v>
       </c>
       <c r="U45" t="n">
-        <v>787.9586837047312</v>
+        <v>658.3853249890201</v>
       </c>
       <c r="V45" t="n">
-        <v>783.5002704353014</v>
+        <v>653.9269117195903</v>
       </c>
       <c r="W45" t="n">
-        <v>752.7230059925289</v>
+        <v>623.1496472768177</v>
       </c>
       <c r="X45" t="n">
-        <v>752.7230059925289</v>
+        <v>623.1496472768177</v>
       </c>
       <c r="Y45" t="n">
-        <v>752.7230059925289</v>
+        <v>397.5089542121454</v>
       </c>
     </row>
     <row r="46">
@@ -7813,34 +7813,34 @@
         <v>29.33299896744628</v>
       </c>
       <c r="M46" t="n">
-        <v>145.8690655113004</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="N46" t="n">
-        <v>145.8690655113004</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="O46" t="n">
-        <v>145.8690655113004</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="P46" t="n">
-        <v>145.8690655113004</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="Q46" t="n">
-        <v>145.8690655113004</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="R46" t="n">
-        <v>145.8690655113004</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="S46" t="n">
-        <v>145.8690655113004</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="T46" t="n">
-        <v>145.8690655113004</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="U46" t="n">
-        <v>92.91839161032678</v>
+        <v>92.91839161032672</v>
       </c>
       <c r="V46" t="n">
-        <v>83.95483261458624</v>
+        <v>83.95483261458621</v>
       </c>
       <c r="W46" t="n">
         <v>29.33299896744628</v>
@@ -8772,19 +8772,19 @@
         <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
-        <v>120.3713709098107</v>
+        <v>204.9161881242767</v>
       </c>
       <c r="M12" t="n">
-        <v>158.3434716570121</v>
+        <v>201.1586111617382</v>
       </c>
       <c r="N12" t="n">
-        <v>186.4889234163774</v>
+        <v>143.6737839116514</v>
       </c>
       <c r="O12" t="n">
         <v>205.1857278322749</v>
       </c>
       <c r="P12" t="n">
-        <v>205.1943705594504</v>
+        <v>120.6495533449843</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -9006,19 +9006,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>131.9742862901104</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
         <v>204.9161881242767</v>
       </c>
       <c r="M15" t="n">
-        <v>201.1586111617382</v>
+        <v>116.6137939472722</v>
       </c>
       <c r="N15" t="n">
-        <v>183.0729712056919</v>
+        <v>143.6737839116514</v>
       </c>
       <c r="O15" t="n">
-        <v>120.6409106178089</v>
+        <v>205.1857278322749</v>
       </c>
       <c r="P15" t="n">
         <v>205.1943705594504</v>
@@ -9249,10 +9249,10 @@
         <v>204.9161881242767</v>
       </c>
       <c r="M18" t="n">
-        <v>158.3434716570121</v>
+        <v>116.6137939472722</v>
       </c>
       <c r="N18" t="n">
-        <v>101.9441062019114</v>
+        <v>143.6737839116514</v>
       </c>
       <c r="O18" t="n">
         <v>205.1857278322749</v>
@@ -9480,19 +9480,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>171.373473584151</v>
+        <v>131.9742862901104</v>
       </c>
       <c r="L21" t="n">
-        <v>204.9161881242767</v>
+        <v>120.3713709098107</v>
       </c>
       <c r="M21" t="n">
-        <v>201.1586111617382</v>
+        <v>197.7426589510527</v>
       </c>
       <c r="N21" t="n">
-        <v>143.6737839116513</v>
+        <v>186.4889234163774</v>
       </c>
       <c r="O21" t="n">
-        <v>120.6409106178089</v>
+        <v>205.1857278322749</v>
       </c>
       <c r="P21" t="n">
         <v>205.1943705594504</v>
@@ -9726,10 +9726,10 @@
         <v>201.1586111617382</v>
       </c>
       <c r="N24" t="n">
-        <v>186.4889234163774</v>
+        <v>183.0729712056919</v>
       </c>
       <c r="O24" t="n">
-        <v>201.7697756215894</v>
+        <v>205.1857278322749</v>
       </c>
       <c r="P24" t="n">
         <v>205.1943705594504</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>169.9757986516687</v>
+        <v>85.43098143720266</v>
       </c>
       <c r="C11" t="n">
         <v>146.0940556550142</v>
@@ -23273,10 +23273,10 @@
         <v>130.1697333157987</v>
       </c>
       <c r="H11" t="n">
-        <v>58.24039401035228</v>
+        <v>142.7852112248183</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>7.99978112028063</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>23.12798498931294</v>
       </c>
       <c r="T11" t="n">
-        <v>3.390759431786019</v>
+        <v>18.30111863217996</v>
       </c>
       <c r="U11" t="n">
-        <v>46.03812530998758</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>116.7683418829874</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>169.9757986516687</v>
+        <v>85.43098143720266</v>
       </c>
       <c r="C14" t="n">
         <v>146.0940556550142</v>
@@ -23501,19 +23501,19 @@
         <v>133.6607179160627</v>
       </c>
       <c r="E14" t="n">
-        <v>82.82265312100549</v>
+        <v>167.3674703354715</v>
       </c>
       <c r="F14" t="n">
-        <v>114.5429906993828</v>
+        <v>199.0878079138488</v>
       </c>
       <c r="G14" t="n">
-        <v>214.7145505302647</v>
+        <v>143.1698872447776</v>
       </c>
       <c r="H14" t="n">
-        <v>58.24039401035228</v>
+        <v>142.7852112248183</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>36.42873081279471</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>23.12798498931294</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>18.30111863217996</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>7.99978112028063</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>116.7683418829874</v>
@@ -23561,7 +23561,7 @@
         <v>155.6712725685415</v>
       </c>
       <c r="Y14" t="n">
-        <v>178.1741256922853</v>
+        <v>93.62930847781922</v>
       </c>
     </row>
     <row r="15">
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-8.967031857442096e-14</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>286627.8984323496</v>
+        <v>286627.8984323494</v>
       </c>
       <c r="C2" t="n">
         <v>286627.8984323495</v>
       </c>
       <c r="D2" t="n">
-        <v>286627.8984323496</v>
+        <v>286627.8984323495</v>
       </c>
       <c r="E2" t="n">
         <v>246996.7789316555</v>
@@ -26326,7 +26326,7 @@
         <v>246996.7789316554</v>
       </c>
       <c r="G2" t="n">
-        <v>287208.5283790241</v>
+        <v>287208.528379024</v>
       </c>
       <c r="H2" t="n">
         <v>287208.5283790241</v>
@@ -26335,22 +26335,22 @@
         <v>287208.5283790242</v>
       </c>
       <c r="J2" t="n">
+        <v>287208.5283790244</v>
+      </c>
+      <c r="K2" t="n">
         <v>287208.5283790245</v>
-      </c>
-      <c r="K2" t="n">
-        <v>287208.5283790244</v>
       </c>
       <c r="L2" t="n">
         <v>287208.5283790245</v>
       </c>
       <c r="M2" t="n">
-        <v>287208.5283790243</v>
+        <v>287208.5283790244</v>
       </c>
       <c r="N2" t="n">
         <v>287208.5283790243</v>
       </c>
       <c r="O2" t="n">
-        <v>287208.5283790245</v>
+        <v>287208.5283790243</v>
       </c>
       <c r="P2" t="n">
         <v>287208.5283790244</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>272248.0407556371</v>
+        <v>272248.040755637</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>161150.2341536788</v>
+        <v>161150.2341536787</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>105057.1604753343</v>
       </c>
       <c r="M3" t="n">
-        <v>18715.71856690182</v>
+        <v>18715.71856690187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26442,16 +26442,16 @@
         <v>448080.6067479625</v>
       </c>
       <c r="K4" t="n">
-        <v>448080.6067479626</v>
+        <v>448080.6067479627</v>
       </c>
       <c r="L4" t="n">
-        <v>448080.6067479625</v>
+        <v>448080.6067479627</v>
       </c>
       <c r="M4" t="n">
-        <v>447701.1427578538</v>
+        <v>447701.1427578537</v>
       </c>
       <c r="N4" t="n">
-        <v>447701.1427578538</v>
+        <v>447701.1427578537</v>
       </c>
       <c r="O4" t="n">
         <v>447701.1427578537</v>
@@ -26485,13 +26485,13 @@
         <v>35611.42180862118</v>
       </c>
       <c r="H5" t="n">
-        <v>35611.42180862117</v>
+        <v>35611.42180862118</v>
       </c>
       <c r="I5" t="n">
-        <v>35611.42180862117</v>
+        <v>35611.42180862118</v>
       </c>
       <c r="J5" t="n">
-        <v>47598.27644989195</v>
+        <v>47598.27644989197</v>
       </c>
       <c r="K5" t="n">
         <v>47598.27644989197</v>
@@ -26503,13 +26503,13 @@
         <v>44424.71624350353</v>
       </c>
       <c r="N5" t="n">
+        <v>44424.71624350351</v>
+      </c>
+      <c r="O5" t="n">
         <v>44424.71624350353</v>
       </c>
-      <c r="O5" t="n">
-        <v>44424.71624350351</v>
-      </c>
       <c r="P5" t="n">
-        <v>44424.71624350352</v>
+        <v>44424.71624350353</v>
       </c>
     </row>
     <row r="6">
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-230118.8682115458</v>
+        <v>-230123.3345957511</v>
       </c>
       <c r="C6" t="n">
-        <v>-230118.8682115458</v>
+        <v>-230123.334595751</v>
       </c>
       <c r="D6" t="n">
-        <v>-230118.8682115458</v>
+        <v>-230123.334595751</v>
       </c>
       <c r="E6" t="n">
-        <v>-427358.0050749627</v>
+        <v>-427667.3262245577</v>
       </c>
       <c r="F6" t="n">
-        <v>-155109.9643193256</v>
+        <v>-155419.2854689207</v>
       </c>
       <c r="G6" t="n">
         <v>-301523.6974917342</v>
       </c>
       <c r="H6" t="n">
-        <v>-196466.5370163998</v>
+        <v>-196466.5370163999</v>
       </c>
       <c r="I6" t="n">
         <v>-196466.5370163998</v>
@@ -26552,16 +26552,16 @@
         <v>-313527.5152941644</v>
       </c>
       <c r="M6" t="n">
-        <v>-223633.0491892349</v>
+        <v>-223633.0491892348</v>
       </c>
       <c r="N6" t="n">
-        <v>-204917.330622333</v>
+        <v>-204917.3306223329</v>
       </c>
       <c r="O6" t="n">
-        <v>-270132.52500303</v>
+        <v>-270132.5250030303</v>
       </c>
       <c r="P6" t="n">
-        <v>-204917.3306223328</v>
+        <v>-204917.3306223329</v>
       </c>
     </row>
   </sheetData>
@@ -26701,10 +26701,10 @@
         <v>335.4328923203325</v>
       </c>
       <c r="H2" t="n">
-        <v>335.4328923203324</v>
+        <v>335.4328923203325</v>
       </c>
       <c r="I2" t="n">
-        <v>335.4328923203324</v>
+        <v>335.4328923203325</v>
       </c>
       <c r="J2" t="n">
         <v>212.8404435700394</v>
@@ -26716,13 +26716,13 @@
         <v>212.8404435700394</v>
       </c>
       <c r="M2" t="n">
+        <v>236.2350917786667</v>
+      </c>
+      <c r="N2" t="n">
+        <v>236.2350917786667</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2350917786668</v>
-      </c>
-      <c r="N2" t="n">
-        <v>236.2350917786668</v>
-      </c>
-      <c r="O2" t="n">
-        <v>236.2350917786667</v>
       </c>
       <c r="P2" t="n">
         <v>236.2350917786668</v>
@@ -26811,16 +26811,16 @@
         <v>84.54481721446604</v>
       </c>
       <c r="J4" t="n">
-        <v>451.2073043075443</v>
+        <v>451.2073043075448</v>
       </c>
       <c r="K4" t="n">
-        <v>451.2073043075447</v>
+        <v>451.2073043075448</v>
       </c>
       <c r="L4" t="n">
-        <v>451.2073043075447</v>
+        <v>451.2073043075448</v>
       </c>
       <c r="M4" t="n">
-        <v>366.6624870930787</v>
+        <v>366.6624870930788</v>
       </c>
       <c r="N4" t="n">
         <v>366.6624870930785</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.5189929758717</v>
+        <v>81.51899297587153</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>131.3214505941679</v>
       </c>
       <c r="M2" t="n">
-        <v>23.39464820862727</v>
+        <v>23.39464820862733</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>366.6624870930783</v>
+        <v>366.6624870930788</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.5189929758717</v>
+        <v>81.51899297587153</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28114,7 +28114,7 @@
         <v>75.74779675012002</v>
       </c>
       <c r="K11" t="n">
-        <v>5.17776063756709</v>
+        <v>82.13272185533822</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28129,13 +28129,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>13.34037157088128</v>
+        <v>13.3403715708813</v>
       </c>
       <c r="Q11" t="n">
-        <v>172.9411750131566</v>
+        <v>88.39635779869053</v>
       </c>
       <c r="R11" t="n">
-        <v>196.5215857294696</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="S11" t="n">
         <v>204.1114417261646</v>
@@ -28190,7 +28190,7 @@
         <v>107.1390224876151</v>
       </c>
       <c r="J12" t="n">
-        <v>51.85943295535305</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28217,25 +28217,25 @@
         <v>134.3151594521598</v>
       </c>
       <c r="S12" t="n">
-        <v>116.3034383382497</v>
+        <v>191.4697362153245</v>
       </c>
       <c r="T12" t="n">
         <v>204.1114417261646</v>
       </c>
       <c r="U12" t="n">
-        <v>204.1114417261646</v>
+        <v>196.684880473507</v>
       </c>
       <c r="V12" t="n">
         <v>204.1114417261646</v>
       </c>
       <c r="W12" t="n">
+        <v>182.1597663625456</v>
+      </c>
+      <c r="X12" t="n">
         <v>204.1114417261646</v>
       </c>
-      <c r="X12" t="n">
-        <v>132.7680972250046</v>
-      </c>
       <c r="Y12" t="n">
-        <v>204.1114417261646</v>
+        <v>138.8394689195596</v>
       </c>
     </row>
     <row r="13">
@@ -28245,55 +28245,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>204.1114417261646</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
+        <v>145.1826502507107</v>
+      </c>
+      <c r="E13" t="n">
         <v>204.1114417261646</v>
       </c>
-      <c r="E13" t="n">
-        <v>141.676141212225</v>
-      </c>
       <c r="F13" t="n">
-        <v>138.9268822184467</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="G13" t="n">
         <v>168.6953110816783</v>
       </c>
       <c r="H13" t="n">
-        <v>204.1114417261646</v>
+        <v>165.7758191012691</v>
       </c>
       <c r="I13" t="n">
         <v>164.6886553331604</v>
       </c>
       <c r="J13" t="n">
+        <v>119.8533137078861</v>
+      </c>
+      <c r="K13" t="n">
+        <v>66.4661188228435</v>
+      </c>
+      <c r="L13" t="n">
+        <v>115.8843086546053</v>
+      </c>
+      <c r="M13" t="n">
+        <v>108.9051999996242</v>
+      </c>
+      <c r="N13" t="n">
+        <v>15.68403999776787</v>
+      </c>
+      <c r="O13" t="n">
+        <v>36.70659427566596</v>
+      </c>
+      <c r="P13" t="n">
+        <v>57.81777162581085</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>126.7594634122123</v>
+      </c>
+      <c r="R13" t="n">
         <v>204.1114417261646</v>
-      </c>
-      <c r="K13" t="n">
-        <v>66.39518063773792</v>
-      </c>
-      <c r="L13" t="n">
-        <v>31.33949144013922</v>
-      </c>
-      <c r="M13" t="n">
-        <v>24.3603827851581</v>
-      </c>
-      <c r="N13" t="n">
-        <v>15.68403999776786</v>
-      </c>
-      <c r="O13" t="n">
-        <v>49.04514034916192</v>
-      </c>
-      <c r="P13" t="n">
-        <v>57.81777162581083</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>204.1114417261646</v>
-      </c>
-      <c r="R13" t="n">
-        <v>203.184286794587</v>
       </c>
       <c r="S13" t="n">
         <v>204.1114417261646</v>
@@ -28351,7 +28351,7 @@
         <v>75.74779675012002</v>
       </c>
       <c r="K14" t="n">
-        <v>5.17776063756709</v>
+        <v>82.13272185533822</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28366,10 +28366,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>13.34037157088128</v>
+        <v>13.3403715708813</v>
       </c>
       <c r="Q14" t="n">
-        <v>165.3513190164616</v>
+        <v>88.39635779869053</v>
       </c>
       <c r="R14" t="n">
         <v>204.1114417261646</v>
@@ -28412,7 +28412,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>171.8275718397997</v>
+        <v>87.28275462533364</v>
       </c>
       <c r="F15" t="n">
         <v>158.8234391199283</v>
@@ -28448,10 +28448,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.037534323606014</v>
       </c>
       <c r="R15" t="n">
-        <v>49.77034223769377</v>
+        <v>134.3151594521598</v>
       </c>
       <c r="S15" t="n">
         <v>191.4697362153245</v>
@@ -28466,13 +28466,13 @@
         <v>204.1114417261646</v>
       </c>
       <c r="W15" t="n">
-        <v>194.0060495177489</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="X15" t="n">
         <v>204.1114417261646</v>
       </c>
       <c r="Y15" t="n">
-        <v>204.1114417261646</v>
+        <v>187.9685151941428</v>
       </c>
     </row>
     <row r="16">
@@ -28488,46 +28488,46 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="E16" t="n">
-        <v>141.676141212225</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="F16" t="n">
-        <v>151.8572344179396</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
         <v>168.6953110816783</v>
       </c>
       <c r="H16" t="n">
+        <v>165.7758191012691</v>
+      </c>
+      <c r="I16" t="n">
+        <v>172.2292056782951</v>
+      </c>
+      <c r="J16" t="n">
         <v>204.1114417261646</v>
       </c>
-      <c r="I16" t="n">
-        <v>164.6886553331604</v>
-      </c>
-      <c r="J16" t="n">
-        <v>119.8533137078861</v>
-      </c>
       <c r="K16" t="n">
-        <v>66.39518063773792</v>
+        <v>66.39518063773794</v>
       </c>
       <c r="L16" t="n">
-        <v>31.33949144013922</v>
+        <v>31.33949144013923</v>
       </c>
       <c r="M16" t="n">
-        <v>24.3603827851581</v>
+        <v>24.36038278515811</v>
       </c>
       <c r="N16" t="n">
-        <v>15.68403999776786</v>
+        <v>100.2288572122339</v>
       </c>
       <c r="O16" t="n">
-        <v>121.251411490132</v>
+        <v>36.70659427566596</v>
       </c>
       <c r="P16" t="n">
-        <v>142.3625888402769</v>
+        <v>57.81777162581085</v>
       </c>
       <c r="Q16" t="n">
-        <v>204.1114417261646</v>
+        <v>126.7594634122123</v>
       </c>
       <c r="R16" t="n">
         <v>203.184286794587</v>
@@ -28582,13 +28582,13 @@
         <v>335.4328923203325</v>
       </c>
       <c r="I17" t="n">
-        <v>240.5401725389593</v>
+        <v>312.9370676763912</v>
       </c>
       <c r="J17" t="n">
         <v>75.74779675012002</v>
       </c>
       <c r="K17" t="n">
-        <v>5.17776063756709</v>
+        <v>5.177760637567104</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28603,7 +28603,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>13.34037157088128</v>
+        <v>13.3403715708813</v>
       </c>
       <c r="Q17" t="n">
         <v>88.39635779869053</v>
@@ -28618,7 +28618,7 @@
         <v>222.4125603583446</v>
       </c>
       <c r="U17" t="n">
-        <v>322.546462173584</v>
+        <v>250.1495670361522</v>
       </c>
       <c r="V17" t="n">
         <v>335.4328923203325</v>
@@ -28643,7 +28643,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>102.9733343098999</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
         <v>159.1723150765785</v>
@@ -28652,13 +28652,13 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>142.2533313963858</v>
       </c>
       <c r="G18" t="n">
-        <v>148.7380872222379</v>
+        <v>64.19327000777189</v>
       </c>
       <c r="H18" t="n">
-        <v>125.6725816482287</v>
+        <v>41.12776443376266</v>
       </c>
       <c r="I18" t="n">
         <v>22.5942052731491</v>
@@ -28703,10 +28703,10 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>182.1597663625456</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>200.742806715928</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
         <v>223.3842861340256</v>
@@ -28746,22 +28746,22 @@
         <v>119.8533137078861</v>
       </c>
       <c r="K19" t="n">
-        <v>66.39518063773792</v>
+        <v>66.39518063773794</v>
       </c>
       <c r="L19" t="n">
-        <v>31.33949144013922</v>
+        <v>31.33949144013923</v>
       </c>
       <c r="M19" t="n">
-        <v>24.3603827851581</v>
+        <v>24.36038278515811</v>
       </c>
       <c r="N19" t="n">
-        <v>15.68403999776786</v>
+        <v>15.68403999776787</v>
       </c>
       <c r="O19" t="n">
         <v>36.70659427566596</v>
       </c>
       <c r="P19" t="n">
-        <v>57.81777162581083</v>
+        <v>57.81777162581085</v>
       </c>
       <c r="Q19" t="n">
         <v>126.7594634122123</v>
@@ -28798,34 +28798,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>335.4328923203324</v>
+        <v>335.4328923203325</v>
       </c>
       <c r="C20" t="n">
-        <v>335.4328923203324</v>
+        <v>335.4328923203325</v>
       </c>
       <c r="D20" t="n">
-        <v>335.4328923203324</v>
+        <v>335.4328923203325</v>
       </c>
       <c r="E20" t="n">
-        <v>335.4328923203324</v>
+        <v>335.4328923203325</v>
       </c>
       <c r="F20" t="n">
-        <v>335.4328923203324</v>
+        <v>335.4328923203325</v>
       </c>
       <c r="G20" t="n">
-        <v>335.4328923203324</v>
+        <v>335.4328923203325</v>
       </c>
       <c r="H20" t="n">
-        <v>335.4328923203324</v>
+        <v>335.4328923203325</v>
       </c>
       <c r="I20" t="n">
-        <v>240.5401725389593</v>
+        <v>242.9453591731056</v>
       </c>
       <c r="J20" t="n">
         <v>75.74779675012002</v>
       </c>
       <c r="K20" t="n">
-        <v>5.17776063756709</v>
+        <v>5.177760637567104</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28840,7 +28840,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>13.34037157088128</v>
+        <v>13.3403715708813</v>
       </c>
       <c r="Q20" t="n">
         <v>88.39635779869053</v>
@@ -28852,22 +28852,22 @@
         <v>227.2394267154776</v>
       </c>
       <c r="T20" t="n">
-        <v>294.8094554957765</v>
+        <v>222.4125603583446</v>
       </c>
       <c r="U20" t="n">
-        <v>250.1495670361522</v>
+        <v>334.6943842506183</v>
       </c>
       <c r="V20" t="n">
-        <v>335.4328923203324</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
-        <v>335.4328923203324</v>
+        <v>335.4328923203325</v>
       </c>
       <c r="X20" t="n">
-        <v>335.4328923203324</v>
+        <v>335.4328923203325</v>
       </c>
       <c r="Y20" t="n">
-        <v>335.4328923203324</v>
+        <v>335.4328923203325</v>
       </c>
     </row>
     <row r="21">
@@ -28883,13 +28883,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>142.6022073530359</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>87.28275462533364</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>74.2786219054623</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
         <v>148.7380872222379</v>
@@ -28898,7 +28898,7 @@
         <v>125.6725816482287</v>
       </c>
       <c r="I21" t="n">
-        <v>22.59420527314909</v>
+        <v>107.1390224876151</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28928,16 +28928,16 @@
         <v>134.3151594521598</v>
       </c>
       <c r="S21" t="n">
-        <v>191.4697362153245</v>
+        <v>174.899628491782</v>
       </c>
       <c r="T21" t="n">
-        <v>214.9446545048526</v>
+        <v>130.3998372903865</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2276407302841</v>
+        <v>152.682823515818</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>156.1041037009362</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
@@ -28983,22 +28983,22 @@
         <v>119.8533137078861</v>
       </c>
       <c r="K22" t="n">
-        <v>66.39518063773792</v>
+        <v>66.39518063773794</v>
       </c>
       <c r="L22" t="n">
-        <v>31.33949144013922</v>
+        <v>31.33949144013923</v>
       </c>
       <c r="M22" t="n">
-        <v>24.3603827851581</v>
+        <v>24.36038278515811</v>
       </c>
       <c r="N22" t="n">
-        <v>15.68403999776786</v>
+        <v>15.68403999776787</v>
       </c>
       <c r="O22" t="n">
         <v>36.70659427566596</v>
       </c>
       <c r="P22" t="n">
-        <v>57.81777162581083</v>
+        <v>57.81777162581085</v>
       </c>
       <c r="Q22" t="n">
         <v>126.7594634122123</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>335.4328923203324</v>
+        <v>335.4328923203325</v>
       </c>
       <c r="C23" t="n">
-        <v>335.4328923203324</v>
+        <v>335.4328923203325</v>
       </c>
       <c r="D23" t="n">
-        <v>335.4328923203324</v>
+        <v>335.4328923203325</v>
       </c>
       <c r="E23" t="n">
-        <v>335.4328923203324</v>
+        <v>335.4328923203325</v>
       </c>
       <c r="F23" t="n">
-        <v>335.4328923203324</v>
+        <v>335.4328923203325</v>
       </c>
       <c r="G23" t="n">
-        <v>335.4328923203324</v>
+        <v>335.4328923203325</v>
       </c>
       <c r="H23" t="n">
-        <v>335.4328923203324</v>
+        <v>335.4328923203325</v>
       </c>
       <c r="I23" t="n">
         <v>240.5401725389593</v>
@@ -29062,7 +29062,7 @@
         <v>75.74779675012002</v>
       </c>
       <c r="K23" t="n">
-        <v>5.17776063756709</v>
+        <v>5.177760637567104</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29077,7 +29077,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>13.34037157088128</v>
+        <v>13.3403715708813</v>
       </c>
       <c r="Q23" t="n">
         <v>88.39635779869053</v>
@@ -29086,25 +29086,25 @@
         <v>194.1163990953234</v>
       </c>
       <c r="S23" t="n">
-        <v>311.7842439299436</v>
+        <v>227.2394267154776</v>
       </c>
       <c r="T23" t="n">
-        <v>224.8177469924908</v>
+        <v>222.4125603583446</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1495670361522</v>
+        <v>322.5464621735841</v>
       </c>
       <c r="V23" t="n">
-        <v>320.879783609152</v>
+        <v>335.4328923203325</v>
       </c>
       <c r="W23" t="n">
-        <v>335.4328923203324</v>
+        <v>335.4328923203325</v>
       </c>
       <c r="X23" t="n">
-        <v>335.4328923203324</v>
+        <v>335.4328923203325</v>
       </c>
       <c r="Y23" t="n">
-        <v>335.4328923203324</v>
+        <v>335.4328923203325</v>
       </c>
     </row>
     <row r="24">
@@ -29129,13 +29129,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>64.1932700077719</v>
+        <v>148.7380872222379</v>
       </c>
       <c r="H24" t="n">
         <v>125.6725816482287</v>
       </c>
       <c r="I24" t="n">
-        <v>107.1390224876151</v>
+        <v>22.5942052731491</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29174,7 +29174,7 @@
         <v>237.2276407302841</v>
       </c>
       <c r="V24" t="n">
-        <v>224.0788131918596</v>
+        <v>224.0788131918597</v>
       </c>
       <c r="W24" t="n">
         <v>182.1597663625456</v>
@@ -29220,22 +29220,22 @@
         <v>119.8533137078861</v>
       </c>
       <c r="K25" t="n">
-        <v>66.39518063773792</v>
+        <v>66.39518063773794</v>
       </c>
       <c r="L25" t="n">
-        <v>31.33949144013922</v>
+        <v>31.33949144013923</v>
       </c>
       <c r="M25" t="n">
-        <v>24.3603827851581</v>
+        <v>24.36038278515811</v>
       </c>
       <c r="N25" t="n">
-        <v>15.68403999776786</v>
+        <v>15.68403999776787</v>
       </c>
       <c r="O25" t="n">
         <v>36.70659427566596</v>
       </c>
       <c r="P25" t="n">
-        <v>57.81777162581083</v>
+        <v>57.81777162581085</v>
       </c>
       <c r="Q25" t="n">
         <v>126.7594634122123</v>
@@ -29311,7 +29311,7 @@
         <v>212.8404435700394</v>
       </c>
       <c r="O26" t="n">
-        <v>212.8404435700377</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="P26" t="n">
         <v>212.8404435700394</v>
@@ -29351,16 +29351,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>161.0978951013911</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>66.41689487769113</v>
       </c>
       <c r="F27" t="n">
         <v>158.8234391199283</v>
@@ -29375,7 +29375,7 @@
         <v>107.1390224876151</v>
       </c>
       <c r="J27" t="n">
-        <v>51.85943295535305</v>
+        <v>51.85943295535306</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29414,10 +29414,10 @@
         <v>212.8404435700394</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="Y27" t="n">
         <v>212.8404435700394</v>
@@ -29430,49 +29430,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>177.6169206649681</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="C28" t="n">
-        <v>166.4571809719723</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="D28" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E28" t="n">
-        <v>141.676141212225</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="F28" t="n">
-        <v>138.9268822184467</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="G28" t="n">
         <v>168.6953110816783</v>
       </c>
       <c r="H28" t="n">
-        <v>165.7758191012691</v>
+        <v>176.1431460302045</v>
       </c>
       <c r="I28" t="n">
-        <v>212.8404435700394</v>
+        <v>164.6886553331604</v>
       </c>
       <c r="J28" t="n">
         <v>119.8533137078861</v>
       </c>
       <c r="K28" t="n">
-        <v>66.39518063773792</v>
+        <v>66.39518063773794</v>
       </c>
       <c r="L28" t="n">
-        <v>31.33949144013922</v>
+        <v>31.33949144013923</v>
       </c>
       <c r="M28" t="n">
-        <v>24.3603827851581</v>
+        <v>24.36038278515811</v>
       </c>
       <c r="N28" t="n">
-        <v>204.5842279023694</v>
+        <v>15.68403999776787</v>
       </c>
       <c r="O28" t="n">
         <v>36.70659427566596</v>
       </c>
       <c r="P28" t="n">
-        <v>57.81777162581083</v>
+        <v>57.81777162581085</v>
       </c>
       <c r="Q28" t="n">
         <v>126.7594634122123</v>
@@ -29542,7 +29542,7 @@
         <v>212.8404435700394</v>
       </c>
       <c r="M29" t="n">
-        <v>212.8404435700394</v>
+        <v>212.84044357004</v>
       </c>
       <c r="N29" t="n">
         <v>212.8404435700394</v>
@@ -29588,19 +29588,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>107.4297666079308</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>148.7380872222379</v>
@@ -29612,7 +29612,7 @@
         <v>107.1390224876151</v>
       </c>
       <c r="J30" t="n">
-        <v>51.85943295535305</v>
+        <v>51.85943295535306</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29645,7 +29645,7 @@
         <v>212.8404435700394</v>
       </c>
       <c r="U30" t="n">
-        <v>212.8404435700394</v>
+        <v>127.480260139088</v>
       </c>
       <c r="V30" t="n">
         <v>212.8404435700394</v>
@@ -29654,10 +29654,10 @@
         <v>212.8404435700394</v>
       </c>
       <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
         <v>212.8404435700394</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29667,19 +29667,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>212.8404435700394</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
-        <v>212.8404435700394</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
-        <v>212.8404435700394</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
-        <v>212.8404435700394</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
-        <v>155.5499771796462</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
         <v>168.6953110816783</v>
@@ -29694,22 +29694,22 @@
         <v>119.8533137078861</v>
       </c>
       <c r="K31" t="n">
-        <v>66.39518063773792</v>
+        <v>66.39518063773794</v>
       </c>
       <c r="L31" t="n">
-        <v>31.33949144013922</v>
+        <v>71.23506400934865</v>
       </c>
       <c r="M31" t="n">
-        <v>24.3603827851581</v>
+        <v>24.36038278515811</v>
       </c>
       <c r="N31" t="n">
-        <v>15.68403999776786</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="O31" t="n">
         <v>36.70659427566596</v>
       </c>
       <c r="P31" t="n">
-        <v>57.81777162581083</v>
+        <v>57.81777162581085</v>
       </c>
       <c r="Q31" t="n">
         <v>126.7594634122123</v>
@@ -29779,13 +29779,13 @@
         <v>212.8404435700394</v>
       </c>
       <c r="M32" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="N32" t="n">
         <v>212.8404435700394</v>
       </c>
       <c r="O32" t="n">
-        <v>212.8404435700394</v>
+        <v>212.8404435700401</v>
       </c>
       <c r="P32" t="n">
         <v>212.8404435700394</v>
@@ -29843,13 +29843,13 @@
         <v>148.7380872222379</v>
       </c>
       <c r="H33" t="n">
-        <v>125.6725816482287</v>
+        <v>75.4627519469509</v>
       </c>
       <c r="I33" t="n">
-        <v>107.1390224876151</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>51.85943295535305</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.037534323606007</v>
+        <v>6.037534323606014</v>
       </c>
       <c r="R33" t="n">
         <v>134.3151594521598</v>
@@ -29885,16 +29885,16 @@
         <v>212.8404435700394</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="X33" t="n">
-        <v>3.632158425793165</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>212.8404435700394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -29904,22 +29904,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>212.8404435700394</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
         <v>212.8404435700394</v>
       </c>
       <c r="D34" t="n">
-        <v>145.1826502507107</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="E34" t="n">
-        <v>141.676141212225</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="F34" t="n">
-        <v>212.8404435700394</v>
+        <v>190.7735000847175</v>
       </c>
       <c r="G34" t="n">
-        <v>212.8404435700394</v>
+        <v>168.6953110816783</v>
       </c>
       <c r="H34" t="n">
         <v>165.7758191012691</v>
@@ -29931,22 +29931,22 @@
         <v>119.8533137078861</v>
       </c>
       <c r="K34" t="n">
-        <v>66.39518063773792</v>
+        <v>66.39518063773794</v>
       </c>
       <c r="L34" t="n">
-        <v>31.33949144013922</v>
+        <v>31.33949144013923</v>
       </c>
       <c r="M34" t="n">
-        <v>24.3603827851581</v>
+        <v>24.36038278515811</v>
       </c>
       <c r="N34" t="n">
-        <v>53.07053679615639</v>
+        <v>15.68403999776787</v>
       </c>
       <c r="O34" t="n">
         <v>36.70659427566596</v>
       </c>
       <c r="P34" t="n">
-        <v>57.81777162581083</v>
+        <v>57.81777162581085</v>
       </c>
       <c r="Q34" t="n">
         <v>126.7594634122123</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="C35" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="D35" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="E35" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="F35" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="G35" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="H35" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="I35" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="J35" t="n">
-        <v>158.2123641736079</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="K35" t="n">
-        <v>5.17776063756709</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="L35" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="M35" t="n">
-        <v>236.2350917786668</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>236.2350917786668</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>140.5719283276651</v>
       </c>
       <c r="P35" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="Q35" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="R35" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="S35" t="n">
-        <v>227.2394267154776</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="T35" t="n">
-        <v>222.4125603583446</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="U35" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="V35" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="W35" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="X35" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="Y35" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
     </row>
     <row r="36">
@@ -30062,13 +30062,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>171.8275718397997</v>
@@ -30086,7 +30086,7 @@
         <v>107.1390224876151</v>
       </c>
       <c r="J36" t="n">
-        <v>51.85943295535305</v>
+        <v>51.85943295535306</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,28 +30107,28 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.037534323606014</v>
       </c>
       <c r="R36" t="n">
-        <v>134.3151594521598</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>191.4697362153245</v>
+        <v>47.25959023378269</v>
       </c>
       <c r="T36" t="n">
-        <v>177.3479771553143</v>
+        <v>214.9446545048526</v>
       </c>
       <c r="U36" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="V36" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="W36" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -30159,31 +30159,31 @@
         <v>168.6953110816783</v>
       </c>
       <c r="H37" t="n">
-        <v>236.2350917786668</v>
+        <v>165.7758191012691</v>
       </c>
       <c r="I37" t="n">
-        <v>197.6269448144839</v>
+        <v>164.6886553331604</v>
       </c>
       <c r="J37" t="n">
         <v>119.8533137078861</v>
       </c>
       <c r="K37" t="n">
-        <v>66.39518063773792</v>
+        <v>66.39518063773794</v>
       </c>
       <c r="L37" t="n">
-        <v>31.33949144013922</v>
+        <v>149.052689969285</v>
       </c>
       <c r="M37" t="n">
-        <v>24.3603827851581</v>
+        <v>24.36038278515811</v>
       </c>
       <c r="N37" t="n">
-        <v>15.68403999776786</v>
+        <v>15.68403999776787</v>
       </c>
       <c r="O37" t="n">
         <v>36.70659427566596</v>
       </c>
       <c r="P37" t="n">
-        <v>57.81777162581083</v>
+        <v>57.81777162581085</v>
       </c>
       <c r="Q37" t="n">
         <v>126.7594634122123</v>
@@ -30198,16 +30198,16 @@
         <v>223.7382129287516</v>
       </c>
       <c r="U37" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="V37" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="W37" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="X37" t="n">
-        <v>236.2350917786668</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y37" t="n">
         <v>217.1412728141684</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="C38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="D38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="E38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="F38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="G38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="H38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="I38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="J38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="K38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="L38" t="n">
-        <v>140.571928327663</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="O38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="P38" t="n">
-        <v>236.2350917786668</v>
+        <v>117.1124596958281</v>
       </c>
       <c r="Q38" t="n">
-        <v>236.2350917786668</v>
+        <v>88.39635779869053</v>
       </c>
       <c r="R38" t="n">
-        <v>236.2350917786668</v>
+        <v>194.1163990953234</v>
       </c>
       <c r="S38" t="n">
-        <v>236.2350917786668</v>
+        <v>227.2394267154776</v>
       </c>
       <c r="T38" t="n">
-        <v>236.2350917786668</v>
+        <v>222.4125603583446</v>
       </c>
       <c r="U38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="V38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="W38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="X38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="Y38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
     </row>
     <row r="39">
@@ -30302,16 +30302,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>148.7380872222379</v>
@@ -30320,10 +30320,10 @@
         <v>125.6725816482287</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>107.1390224876151</v>
       </c>
       <c r="J39" t="n">
-        <v>49.62769149762976</v>
+        <v>51.85943295535306</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>134.3151594521598</v>
       </c>
       <c r="S39" t="n">
         <v>191.4697362153245</v>
@@ -30356,13 +30356,13 @@
         <v>214.9446545048526</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="W39" t="n">
-        <v>236.2350917786668</v>
+        <v>197.4204623845079</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
@@ -30405,43 +30405,43 @@
         <v>119.8533137078861</v>
       </c>
       <c r="K40" t="n">
-        <v>66.39518063773792</v>
+        <v>66.39518063773794</v>
       </c>
       <c r="L40" t="n">
-        <v>31.33949144013922</v>
+        <v>31.33949144013923</v>
       </c>
       <c r="M40" t="n">
-        <v>24.3603827851581</v>
+        <v>24.36038278515811</v>
       </c>
       <c r="N40" t="n">
-        <v>133.3972385269133</v>
+        <v>15.68403999776787</v>
       </c>
       <c r="O40" t="n">
         <v>36.70659427566596</v>
       </c>
       <c r="P40" t="n">
-        <v>57.81777162581083</v>
+        <v>57.81777162581085</v>
       </c>
       <c r="Q40" t="n">
-        <v>126.7594634122123</v>
+        <v>198.9249781073632</v>
       </c>
       <c r="R40" t="n">
-        <v>203.184286794587</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="S40" t="n">
         <v>235.3428244409627</v>
       </c>
       <c r="T40" t="n">
-        <v>223.7382129287516</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="U40" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="V40" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="W40" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786667</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="C41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="D41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="E41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="F41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="G41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="H41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="I41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="J41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="K41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="L41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="M41" t="n">
-        <v>127.2315567567827</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="O41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="P41" t="n">
-        <v>13.34037157088128</v>
+        <v>13.3403715708813</v>
       </c>
       <c r="Q41" t="n">
-        <v>236.2350917786667</v>
+        <v>169.3502494401254</v>
       </c>
       <c r="R41" t="n">
-        <v>236.2350917786667</v>
+        <v>194.1163990953234</v>
       </c>
       <c r="S41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="T41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="U41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="V41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="W41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="X41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="Y41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
     </row>
     <row r="42">
@@ -30539,7 +30539,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -30554,13 +30554,13 @@
         <v>148.7380872222379</v>
       </c>
       <c r="H42" t="n">
-        <v>125.6725816482287</v>
+        <v>86.85795225406972</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>107.1390224876151</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>51.85943295535306</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>66.98083397660305</v>
+        <v>134.3151594521598</v>
       </c>
       <c r="S42" t="n">
         <v>191.4697362153245</v>
@@ -30593,13 +30593,13 @@
         <v>214.9446545048526</v>
       </c>
       <c r="U42" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="V42" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="W42" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
@@ -30627,10 +30627,10 @@
         <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>138.9268822184467</v>
+        <v>189.1003000506036</v>
       </c>
       <c r="G43" t="n">
-        <v>168.6953110816783</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="H43" t="n">
         <v>165.7758191012691</v>
@@ -30642,22 +30642,22 @@
         <v>119.8533137078861</v>
       </c>
       <c r="K43" t="n">
-        <v>184.1083791668837</v>
+        <v>66.39518063773794</v>
       </c>
       <c r="L43" t="n">
-        <v>31.33949144013922</v>
+        <v>31.33949144013923</v>
       </c>
       <c r="M43" t="n">
-        <v>24.3603827851581</v>
+        <v>24.36038278515811</v>
       </c>
       <c r="N43" t="n">
-        <v>15.68403999776786</v>
+        <v>15.68403999776787</v>
       </c>
       <c r="O43" t="n">
         <v>36.70659427566596</v>
       </c>
       <c r="P43" t="n">
-        <v>57.81777162581083</v>
+        <v>57.81777162581085</v>
       </c>
       <c r="Q43" t="n">
         <v>126.7594634122123</v>
@@ -30672,13 +30672,13 @@
         <v>223.7382129287516</v>
       </c>
       <c r="U43" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="V43" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="W43" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -30724,31 +30724,31 @@
         <v>236.2350917786668</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="N44" t="n">
-        <v>236.2350917786668</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>140.5719283276631</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>236.2350917786668</v>
       </c>
       <c r="Q44" t="n">
-        <v>236.2350917786668</v>
+        <v>163.3901248111746</v>
       </c>
       <c r="R44" t="n">
         <v>236.2350917786668</v>
       </c>
       <c r="S44" t="n">
-        <v>236.2350917786668</v>
+        <v>227.2394267154776</v>
       </c>
       <c r="T44" t="n">
-        <v>236.2350917786668</v>
+        <v>222.4125603583446</v>
       </c>
       <c r="U44" t="n">
         <v>236.2350917786668</v>
@@ -30776,13 +30776,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>60.64058099186994</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -30794,10 +30794,10 @@
         <v>125.6725816482287</v>
       </c>
       <c r="I45" t="n">
-        <v>68.32439309345594</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>51.85943295535305</v>
+        <v>51.85943295535306</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,10 +30818,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.037534323606014</v>
       </c>
       <c r="R45" t="n">
-        <v>134.3151594521598</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>191.4697362153245</v>
@@ -30842,7 +30842,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30879,22 +30879,22 @@
         <v>119.8533137078861</v>
       </c>
       <c r="K46" t="n">
-        <v>66.39518063773792</v>
+        <v>66.39518063773794</v>
       </c>
       <c r="L46" t="n">
-        <v>31.33949144013922</v>
+        <v>31.33949144013923</v>
       </c>
       <c r="M46" t="n">
-        <v>142.0735813143037</v>
+        <v>24.36038278515811</v>
       </c>
       <c r="N46" t="n">
-        <v>15.68403999776786</v>
+        <v>15.68403999776787</v>
       </c>
       <c r="O46" t="n">
         <v>36.70659427566596</v>
       </c>
       <c r="P46" t="n">
-        <v>57.81777162581083</v>
+        <v>175.5309701549563</v>
       </c>
       <c r="Q46" t="n">
         <v>126.7594634122123</v>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4188998381823995</v>
+        <v>0.4188998381823993</v>
       </c>
       <c r="H11" t="n">
-        <v>4.2900579677855</v>
+        <v>4.290057967785498</v>
       </c>
       <c r="I11" t="n">
         <v>16.14963601152697</v>
@@ -31762,37 +31762,37 @@
         <v>35.55360014093345</v>
       </c>
       <c r="K11" t="n">
-        <v>53.28563029119444</v>
+        <v>53.28563029119442</v>
       </c>
       <c r="L11" t="n">
-        <v>66.10553621396906</v>
+        <v>66.10553621396903</v>
       </c>
       <c r="M11" t="n">
-        <v>73.5551462112453</v>
+        <v>73.55514621124527</v>
       </c>
       <c r="N11" t="n">
-        <v>74.74534537648105</v>
+        <v>74.74534537648103</v>
       </c>
       <c r="O11" t="n">
-        <v>70.57991011055481</v>
+        <v>70.57991011055479</v>
       </c>
       <c r="P11" t="n">
-        <v>60.23832035542681</v>
+        <v>60.23832035542679</v>
       </c>
       <c r="Q11" t="n">
-        <v>45.23646990051962</v>
+        <v>45.23646990051961</v>
       </c>
       <c r="R11" t="n">
-        <v>26.31371696022517</v>
+        <v>26.31371696022516</v>
       </c>
       <c r="S11" t="n">
-        <v>9.545680062581436</v>
+        <v>9.545680062581434</v>
       </c>
       <c r="T11" t="n">
         <v>1.833734041643454</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03351198705459195</v>
+        <v>0.03351198705459194</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,43 +31832,43 @@
         <v>0.2241311728539132</v>
       </c>
       <c r="H12" t="n">
-        <v>2.164635274668057</v>
+        <v>2.164635274668056</v>
       </c>
       <c r="I12" t="n">
-        <v>7.716796960101838</v>
+        <v>7.716796960101836</v>
       </c>
       <c r="J12" t="n">
-        <v>21.17548067739538</v>
+        <v>21.17548067739537</v>
       </c>
       <c r="K12" t="n">
-        <v>36.19226925860756</v>
+        <v>36.19226925860755</v>
       </c>
       <c r="L12" t="n">
-        <v>48.66497242163586</v>
+        <v>48.66497242163585</v>
       </c>
       <c r="M12" t="n">
-        <v>56.7897274375902</v>
+        <v>56.78972743759019</v>
       </c>
       <c r="N12" t="n">
-        <v>58.29278253975527</v>
+        <v>58.29278253975525</v>
       </c>
       <c r="O12" t="n">
-        <v>53.32650760441329</v>
+        <v>53.32650760441328</v>
       </c>
       <c r="P12" t="n">
         <v>42.79922370049857</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.61014760851005</v>
+        <v>28.61014760851004</v>
       </c>
       <c r="R12" t="n">
-        <v>13.91579334614034</v>
+        <v>13.91579334614033</v>
       </c>
       <c r="S12" t="n">
-        <v>4.163138232615447</v>
+        <v>4.163138232615446</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9034059116348517</v>
+        <v>0.9034059116348514</v>
       </c>
       <c r="U12" t="n">
         <v>0.01474547189828377</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1879040462666543</v>
+        <v>0.1879040462666542</v>
       </c>
       <c r="H13" t="n">
         <v>1.6706377931708</v>
       </c>
       <c r="I13" t="n">
-        <v>5.650787136819024</v>
+        <v>5.650787136819022</v>
       </c>
       <c r="J13" t="n">
-        <v>13.28481607105246</v>
+        <v>13.28481607105245</v>
       </c>
       <c r="K13" t="n">
-        <v>21.83103373898038</v>
+        <v>21.83103373898037</v>
       </c>
       <c r="L13" t="n">
-        <v>27.93620702404423</v>
+        <v>27.93620702404422</v>
       </c>
       <c r="M13" t="n">
-        <v>29.45481336159927</v>
+        <v>29.45481336159926</v>
       </c>
       <c r="N13" t="n">
-        <v>28.7544437346054</v>
+        <v>28.75444373460539</v>
       </c>
       <c r="O13" t="n">
-        <v>26.55938283049038</v>
+        <v>26.55938283049037</v>
       </c>
       <c r="P13" t="n">
-        <v>22.72614028665062</v>
+        <v>22.72614028665061</v>
       </c>
       <c r="Q13" t="n">
         <v>15.73440154692866</v>
       </c>
       <c r="R13" t="n">
-        <v>8.448849207589745</v>
+        <v>8.448849207589742</v>
       </c>
       <c r="S13" t="n">
-        <v>3.274655060847056</v>
+        <v>3.274655060847055</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8028627431393409</v>
+        <v>0.8028627431393407</v>
       </c>
       <c r="U13" t="n">
         <v>0.01024931161454479</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4188998381823995</v>
+        <v>0.4188998381823993</v>
       </c>
       <c r="H14" t="n">
-        <v>4.2900579677855</v>
+        <v>4.290057967785498</v>
       </c>
       <c r="I14" t="n">
         <v>16.14963601152697</v>
@@ -31999,37 +31999,37 @@
         <v>35.55360014093345</v>
       </c>
       <c r="K14" t="n">
-        <v>53.28563029119444</v>
+        <v>53.28563029119442</v>
       </c>
       <c r="L14" t="n">
-        <v>66.10553621396906</v>
+        <v>66.10553621396903</v>
       </c>
       <c r="M14" t="n">
-        <v>73.5551462112453</v>
+        <v>73.55514621124527</v>
       </c>
       <c r="N14" t="n">
-        <v>74.74534537648105</v>
+        <v>74.74534537648103</v>
       </c>
       <c r="O14" t="n">
-        <v>70.57991011055481</v>
+        <v>70.57991011055479</v>
       </c>
       <c r="P14" t="n">
-        <v>60.23832035542681</v>
+        <v>60.23832035542679</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.23646990051962</v>
+        <v>45.23646990051961</v>
       </c>
       <c r="R14" t="n">
-        <v>26.31371696022517</v>
+        <v>26.31371696022516</v>
       </c>
       <c r="S14" t="n">
-        <v>9.545680062581436</v>
+        <v>9.545680062581434</v>
       </c>
       <c r="T14" t="n">
         <v>1.833734041643454</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03351198705459195</v>
+        <v>0.03351198705459194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,43 +32069,43 @@
         <v>0.2241311728539132</v>
       </c>
       <c r="H15" t="n">
-        <v>2.164635274668057</v>
+        <v>2.164635274668056</v>
       </c>
       <c r="I15" t="n">
-        <v>7.716796960101838</v>
+        <v>7.716796960101836</v>
       </c>
       <c r="J15" t="n">
-        <v>21.17548067739538</v>
+        <v>21.17548067739537</v>
       </c>
       <c r="K15" t="n">
-        <v>36.19226925860756</v>
+        <v>36.19226925860755</v>
       </c>
       <c r="L15" t="n">
-        <v>48.66497242163586</v>
+        <v>48.66497242163585</v>
       </c>
       <c r="M15" t="n">
-        <v>56.7897274375902</v>
+        <v>56.78972743759019</v>
       </c>
       <c r="N15" t="n">
-        <v>58.29278253975527</v>
+        <v>58.29278253975525</v>
       </c>
       <c r="O15" t="n">
-        <v>53.32650760441329</v>
+        <v>53.32650760441328</v>
       </c>
       <c r="P15" t="n">
         <v>42.79922370049857</v>
       </c>
       <c r="Q15" t="n">
-        <v>28.61014760851005</v>
+        <v>28.61014760851004</v>
       </c>
       <c r="R15" t="n">
-        <v>13.91579334614034</v>
+        <v>13.91579334614033</v>
       </c>
       <c r="S15" t="n">
-        <v>4.163138232615447</v>
+        <v>4.163138232615446</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9034059116348517</v>
+        <v>0.9034059116348514</v>
       </c>
       <c r="U15" t="n">
         <v>0.01474547189828377</v>
@@ -32145,46 +32145,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1879040462666543</v>
+        <v>0.1879040462666542</v>
       </c>
       <c r="H16" t="n">
         <v>1.6706377931708</v>
       </c>
       <c r="I16" t="n">
-        <v>5.650787136819024</v>
+        <v>5.650787136819022</v>
       </c>
       <c r="J16" t="n">
-        <v>13.28481607105246</v>
+        <v>13.28481607105245</v>
       </c>
       <c r="K16" t="n">
-        <v>21.83103373898038</v>
+        <v>21.83103373898037</v>
       </c>
       <c r="L16" t="n">
-        <v>27.93620702404423</v>
+        <v>27.93620702404422</v>
       </c>
       <c r="M16" t="n">
-        <v>29.45481336159927</v>
+        <v>29.45481336159926</v>
       </c>
       <c r="N16" t="n">
-        <v>28.7544437346054</v>
+        <v>28.75444373460539</v>
       </c>
       <c r="O16" t="n">
-        <v>26.55938283049038</v>
+        <v>26.55938283049037</v>
       </c>
       <c r="P16" t="n">
-        <v>22.72614028665062</v>
+        <v>22.72614028665061</v>
       </c>
       <c r="Q16" t="n">
         <v>15.73440154692866</v>
       </c>
       <c r="R16" t="n">
-        <v>8.448849207589745</v>
+        <v>8.448849207589742</v>
       </c>
       <c r="S16" t="n">
-        <v>3.274655060847056</v>
+        <v>3.274655060847055</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8028627431393409</v>
+        <v>0.8028627431393407</v>
       </c>
       <c r="U16" t="n">
         <v>0.01024931161454479</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4188998381823995</v>
+        <v>0.4188998381823993</v>
       </c>
       <c r="H17" t="n">
-        <v>4.2900579677855</v>
+        <v>4.290057967785498</v>
       </c>
       <c r="I17" t="n">
         <v>16.14963601152697</v>
@@ -32236,37 +32236,37 @@
         <v>35.55360014093345</v>
       </c>
       <c r="K17" t="n">
-        <v>53.28563029119444</v>
+        <v>53.28563029119442</v>
       </c>
       <c r="L17" t="n">
-        <v>66.10553621396906</v>
+        <v>66.10553621396903</v>
       </c>
       <c r="M17" t="n">
-        <v>73.5551462112453</v>
+        <v>73.55514621124527</v>
       </c>
       <c r="N17" t="n">
-        <v>74.74534537648105</v>
+        <v>74.74534537648103</v>
       </c>
       <c r="O17" t="n">
-        <v>70.57991011055481</v>
+        <v>70.57991011055479</v>
       </c>
       <c r="P17" t="n">
-        <v>60.23832035542681</v>
+        <v>60.23832035542679</v>
       </c>
       <c r="Q17" t="n">
-        <v>45.23646990051962</v>
+        <v>45.23646990051961</v>
       </c>
       <c r="R17" t="n">
-        <v>26.31371696022517</v>
+        <v>26.31371696022516</v>
       </c>
       <c r="S17" t="n">
-        <v>9.545680062581436</v>
+        <v>9.545680062581434</v>
       </c>
       <c r="T17" t="n">
         <v>1.833734041643454</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03351198705459195</v>
+        <v>0.03351198705459194</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,43 +32306,43 @@
         <v>0.2241311728539132</v>
       </c>
       <c r="H18" t="n">
-        <v>2.164635274668057</v>
+        <v>2.164635274668056</v>
       </c>
       <c r="I18" t="n">
-        <v>7.716796960101838</v>
+        <v>7.716796960101836</v>
       </c>
       <c r="J18" t="n">
-        <v>21.17548067739538</v>
+        <v>21.17548067739537</v>
       </c>
       <c r="K18" t="n">
-        <v>36.19226925860756</v>
+        <v>36.19226925860755</v>
       </c>
       <c r="L18" t="n">
-        <v>48.66497242163586</v>
+        <v>48.66497242163585</v>
       </c>
       <c r="M18" t="n">
-        <v>56.7897274375902</v>
+        <v>56.78972743759019</v>
       </c>
       <c r="N18" t="n">
-        <v>58.29278253975527</v>
+        <v>58.29278253975525</v>
       </c>
       <c r="O18" t="n">
-        <v>53.32650760441329</v>
+        <v>53.32650760441328</v>
       </c>
       <c r="P18" t="n">
         <v>42.79922370049857</v>
       </c>
       <c r="Q18" t="n">
-        <v>28.61014760851005</v>
+        <v>28.61014760851004</v>
       </c>
       <c r="R18" t="n">
-        <v>13.91579334614034</v>
+        <v>13.91579334614033</v>
       </c>
       <c r="S18" t="n">
-        <v>4.163138232615447</v>
+        <v>4.163138232615446</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9034059116348517</v>
+        <v>0.9034059116348514</v>
       </c>
       <c r="U18" t="n">
         <v>0.01474547189828377</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1879040462666543</v>
+        <v>0.1879040462666542</v>
       </c>
       <c r="H19" t="n">
         <v>1.6706377931708</v>
       </c>
       <c r="I19" t="n">
-        <v>5.650787136819024</v>
+        <v>5.650787136819022</v>
       </c>
       <c r="J19" t="n">
-        <v>13.28481607105246</v>
+        <v>13.28481607105245</v>
       </c>
       <c r="K19" t="n">
-        <v>21.83103373898038</v>
+        <v>21.83103373898037</v>
       </c>
       <c r="L19" t="n">
-        <v>27.93620702404423</v>
+        <v>27.93620702404422</v>
       </c>
       <c r="M19" t="n">
-        <v>29.45481336159927</v>
+        <v>29.45481336159926</v>
       </c>
       <c r="N19" t="n">
-        <v>28.7544437346054</v>
+        <v>28.75444373460539</v>
       </c>
       <c r="O19" t="n">
-        <v>26.55938283049038</v>
+        <v>26.55938283049037</v>
       </c>
       <c r="P19" t="n">
-        <v>22.72614028665062</v>
+        <v>22.72614028665061</v>
       </c>
       <c r="Q19" t="n">
         <v>15.73440154692866</v>
       </c>
       <c r="R19" t="n">
-        <v>8.448849207589745</v>
+        <v>8.448849207589742</v>
       </c>
       <c r="S19" t="n">
-        <v>3.274655060847056</v>
+        <v>3.274655060847055</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8028627431393409</v>
+        <v>0.8028627431393407</v>
       </c>
       <c r="U19" t="n">
         <v>0.01024931161454479</v>
@@ -32461,10 +32461,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4188998381823995</v>
+        <v>0.4188998381823993</v>
       </c>
       <c r="H20" t="n">
-        <v>4.2900579677855</v>
+        <v>4.290057967785498</v>
       </c>
       <c r="I20" t="n">
         <v>16.14963601152697</v>
@@ -32473,37 +32473,37 @@
         <v>35.55360014093345</v>
       </c>
       <c r="K20" t="n">
-        <v>53.28563029119444</v>
+        <v>53.28563029119442</v>
       </c>
       <c r="L20" t="n">
-        <v>66.10553621396906</v>
+        <v>66.10553621396903</v>
       </c>
       <c r="M20" t="n">
-        <v>73.5551462112453</v>
+        <v>73.55514621124527</v>
       </c>
       <c r="N20" t="n">
-        <v>74.74534537648105</v>
+        <v>74.74534537648103</v>
       </c>
       <c r="O20" t="n">
-        <v>70.57991011055481</v>
+        <v>70.57991011055479</v>
       </c>
       <c r="P20" t="n">
-        <v>60.23832035542681</v>
+        <v>60.23832035542679</v>
       </c>
       <c r="Q20" t="n">
-        <v>45.23646990051962</v>
+        <v>45.23646990051961</v>
       </c>
       <c r="R20" t="n">
-        <v>26.31371696022517</v>
+        <v>26.31371696022516</v>
       </c>
       <c r="S20" t="n">
-        <v>9.545680062581436</v>
+        <v>9.545680062581434</v>
       </c>
       <c r="T20" t="n">
         <v>1.833734041643454</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03351198705459195</v>
+        <v>0.03351198705459194</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,43 +32543,43 @@
         <v>0.2241311728539132</v>
       </c>
       <c r="H21" t="n">
-        <v>2.164635274668057</v>
+        <v>2.164635274668056</v>
       </c>
       <c r="I21" t="n">
-        <v>7.716796960101838</v>
+        <v>7.716796960101836</v>
       </c>
       <c r="J21" t="n">
-        <v>21.17548067739538</v>
+        <v>21.17548067739537</v>
       </c>
       <c r="K21" t="n">
-        <v>36.19226925860756</v>
+        <v>36.19226925860755</v>
       </c>
       <c r="L21" t="n">
-        <v>48.66497242163586</v>
+        <v>48.66497242163585</v>
       </c>
       <c r="M21" t="n">
-        <v>56.7897274375902</v>
+        <v>56.78972743759019</v>
       </c>
       <c r="N21" t="n">
-        <v>58.29278253975527</v>
+        <v>58.29278253975525</v>
       </c>
       <c r="O21" t="n">
-        <v>53.32650760441329</v>
+        <v>53.32650760441328</v>
       </c>
       <c r="P21" t="n">
         <v>42.79922370049857</v>
       </c>
       <c r="Q21" t="n">
-        <v>28.61014760851005</v>
+        <v>28.61014760851004</v>
       </c>
       <c r="R21" t="n">
-        <v>13.91579334614034</v>
+        <v>13.91579334614033</v>
       </c>
       <c r="S21" t="n">
-        <v>4.163138232615447</v>
+        <v>4.163138232615446</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9034059116348517</v>
+        <v>0.9034059116348514</v>
       </c>
       <c r="U21" t="n">
         <v>0.01474547189828377</v>
@@ -32619,46 +32619,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1879040462666543</v>
+        <v>0.1879040462666542</v>
       </c>
       <c r="H22" t="n">
         <v>1.6706377931708</v>
       </c>
       <c r="I22" t="n">
-        <v>5.650787136819024</v>
+        <v>5.650787136819022</v>
       </c>
       <c r="J22" t="n">
-        <v>13.28481607105246</v>
+        <v>13.28481607105245</v>
       </c>
       <c r="K22" t="n">
-        <v>21.83103373898038</v>
+        <v>21.83103373898037</v>
       </c>
       <c r="L22" t="n">
-        <v>27.93620702404423</v>
+        <v>27.93620702404422</v>
       </c>
       <c r="M22" t="n">
-        <v>29.45481336159927</v>
+        <v>29.45481336159926</v>
       </c>
       <c r="N22" t="n">
-        <v>28.7544437346054</v>
+        <v>28.75444373460539</v>
       </c>
       <c r="O22" t="n">
-        <v>26.55938283049038</v>
+        <v>26.55938283049037</v>
       </c>
       <c r="P22" t="n">
-        <v>22.72614028665062</v>
+        <v>22.72614028665061</v>
       </c>
       <c r="Q22" t="n">
         <v>15.73440154692866</v>
       </c>
       <c r="R22" t="n">
-        <v>8.448849207589745</v>
+        <v>8.448849207589742</v>
       </c>
       <c r="S22" t="n">
-        <v>3.274655060847056</v>
+        <v>3.274655060847055</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8028627431393409</v>
+        <v>0.8028627431393407</v>
       </c>
       <c r="U22" t="n">
         <v>0.01024931161454479</v>
@@ -32698,10 +32698,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4188998381823995</v>
+        <v>0.4188998381823993</v>
       </c>
       <c r="H23" t="n">
-        <v>4.2900579677855</v>
+        <v>4.290057967785498</v>
       </c>
       <c r="I23" t="n">
         <v>16.14963601152697</v>
@@ -32710,37 +32710,37 @@
         <v>35.55360014093345</v>
       </c>
       <c r="K23" t="n">
-        <v>53.28563029119444</v>
+        <v>53.28563029119442</v>
       </c>
       <c r="L23" t="n">
-        <v>66.10553621396906</v>
+        <v>66.10553621396903</v>
       </c>
       <c r="M23" t="n">
-        <v>73.5551462112453</v>
+        <v>73.55514621124527</v>
       </c>
       <c r="N23" t="n">
-        <v>74.74534537648105</v>
+        <v>74.74534537648103</v>
       </c>
       <c r="O23" t="n">
-        <v>70.57991011055481</v>
+        <v>70.57991011055479</v>
       </c>
       <c r="P23" t="n">
-        <v>60.23832035542681</v>
+        <v>60.23832035542679</v>
       </c>
       <c r="Q23" t="n">
-        <v>45.23646990051962</v>
+        <v>45.23646990051961</v>
       </c>
       <c r="R23" t="n">
-        <v>26.31371696022517</v>
+        <v>26.31371696022516</v>
       </c>
       <c r="S23" t="n">
-        <v>9.545680062581436</v>
+        <v>9.545680062581434</v>
       </c>
       <c r="T23" t="n">
         <v>1.833734041643454</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03351198705459195</v>
+        <v>0.03351198705459194</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,43 +32780,43 @@
         <v>0.2241311728539132</v>
       </c>
       <c r="H24" t="n">
-        <v>2.164635274668057</v>
+        <v>2.164635274668056</v>
       </c>
       <c r="I24" t="n">
-        <v>7.716796960101838</v>
+        <v>7.716796960101836</v>
       </c>
       <c r="J24" t="n">
-        <v>21.17548067739538</v>
+        <v>21.17548067739537</v>
       </c>
       <c r="K24" t="n">
-        <v>36.19226925860756</v>
+        <v>36.19226925860755</v>
       </c>
       <c r="L24" t="n">
-        <v>48.66497242163586</v>
+        <v>48.66497242163585</v>
       </c>
       <c r="M24" t="n">
-        <v>56.7897274375902</v>
+        <v>56.78972743759019</v>
       </c>
       <c r="N24" t="n">
-        <v>58.29278253975527</v>
+        <v>58.29278253975525</v>
       </c>
       <c r="O24" t="n">
-        <v>53.32650760441329</v>
+        <v>53.32650760441328</v>
       </c>
       <c r="P24" t="n">
         <v>42.79922370049857</v>
       </c>
       <c r="Q24" t="n">
-        <v>28.61014760851005</v>
+        <v>28.61014760851004</v>
       </c>
       <c r="R24" t="n">
-        <v>13.91579334614034</v>
+        <v>13.91579334614033</v>
       </c>
       <c r="S24" t="n">
-        <v>4.163138232615447</v>
+        <v>4.163138232615446</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9034059116348517</v>
+        <v>0.9034059116348514</v>
       </c>
       <c r="U24" t="n">
         <v>0.01474547189828377</v>
@@ -32856,46 +32856,46 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1879040462666543</v>
+        <v>0.1879040462666542</v>
       </c>
       <c r="H25" t="n">
         <v>1.6706377931708</v>
       </c>
       <c r="I25" t="n">
-        <v>5.650787136819024</v>
+        <v>5.650787136819022</v>
       </c>
       <c r="J25" t="n">
-        <v>13.28481607105246</v>
+        <v>13.28481607105245</v>
       </c>
       <c r="K25" t="n">
-        <v>21.83103373898038</v>
+        <v>21.83103373898037</v>
       </c>
       <c r="L25" t="n">
-        <v>27.93620702404423</v>
+        <v>27.93620702404422</v>
       </c>
       <c r="M25" t="n">
-        <v>29.45481336159927</v>
+        <v>29.45481336159926</v>
       </c>
       <c r="N25" t="n">
-        <v>28.7544437346054</v>
+        <v>28.75444373460539</v>
       </c>
       <c r="O25" t="n">
-        <v>26.55938283049038</v>
+        <v>26.55938283049037</v>
       </c>
       <c r="P25" t="n">
-        <v>22.72614028665062</v>
+        <v>22.72614028665061</v>
       </c>
       <c r="Q25" t="n">
         <v>15.73440154692866</v>
       </c>
       <c r="R25" t="n">
-        <v>8.448849207589745</v>
+        <v>8.448849207589742</v>
       </c>
       <c r="S25" t="n">
-        <v>3.274655060847056</v>
+        <v>3.274655060847055</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8028627431393409</v>
+        <v>0.8028627431393407</v>
       </c>
       <c r="U25" t="n">
         <v>0.01024931161454479</v>
@@ -32935,10 +32935,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4188998381823995</v>
+        <v>0.4188998381823993</v>
       </c>
       <c r="H26" t="n">
-        <v>4.2900579677855</v>
+        <v>4.290057967785498</v>
       </c>
       <c r="I26" t="n">
         <v>16.14963601152697</v>
@@ -32947,37 +32947,37 @@
         <v>35.55360014093345</v>
       </c>
       <c r="K26" t="n">
-        <v>53.28563029119444</v>
+        <v>53.28563029119442</v>
       </c>
       <c r="L26" t="n">
-        <v>66.10553621396906</v>
+        <v>66.10553621396903</v>
       </c>
       <c r="M26" t="n">
-        <v>73.5551462112453</v>
+        <v>73.55514621124527</v>
       </c>
       <c r="N26" t="n">
-        <v>74.74534537648105</v>
+        <v>74.74534537648103</v>
       </c>
       <c r="O26" t="n">
-        <v>70.57991011055481</v>
+        <v>70.57991011055479</v>
       </c>
       <c r="P26" t="n">
-        <v>60.23832035542681</v>
+        <v>60.23832035542679</v>
       </c>
       <c r="Q26" t="n">
-        <v>45.23646990051962</v>
+        <v>45.23646990051961</v>
       </c>
       <c r="R26" t="n">
-        <v>26.31371696022517</v>
+        <v>26.31371696022516</v>
       </c>
       <c r="S26" t="n">
-        <v>9.545680062581436</v>
+        <v>9.545680062581434</v>
       </c>
       <c r="T26" t="n">
         <v>1.833734041643454</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03351198705459195</v>
+        <v>0.03351198705459194</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,43 +33017,43 @@
         <v>0.2241311728539132</v>
       </c>
       <c r="H27" t="n">
-        <v>2.164635274668057</v>
+        <v>2.164635274668056</v>
       </c>
       <c r="I27" t="n">
-        <v>7.716796960101838</v>
+        <v>7.716796960101836</v>
       </c>
       <c r="J27" t="n">
-        <v>21.17548067739538</v>
+        <v>21.17548067739537</v>
       </c>
       <c r="K27" t="n">
-        <v>36.19226925860756</v>
+        <v>36.19226925860755</v>
       </c>
       <c r="L27" t="n">
-        <v>48.66497242163586</v>
+        <v>48.66497242163585</v>
       </c>
       <c r="M27" t="n">
-        <v>56.7897274375902</v>
+        <v>56.78972743759019</v>
       </c>
       <c r="N27" t="n">
-        <v>58.29278253975527</v>
+        <v>58.29278253975525</v>
       </c>
       <c r="O27" t="n">
-        <v>53.32650760441329</v>
+        <v>53.32650760441328</v>
       </c>
       <c r="P27" t="n">
         <v>42.79922370049857</v>
       </c>
       <c r="Q27" t="n">
-        <v>28.61014760851005</v>
+        <v>28.61014760851004</v>
       </c>
       <c r="R27" t="n">
-        <v>13.91579334614034</v>
+        <v>13.91579334614033</v>
       </c>
       <c r="S27" t="n">
-        <v>4.163138232615447</v>
+        <v>4.163138232615446</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9034059116348517</v>
+        <v>0.9034059116348514</v>
       </c>
       <c r="U27" t="n">
         <v>0.01474547189828377</v>
@@ -33093,46 +33093,46 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1879040462666543</v>
+        <v>0.1879040462666542</v>
       </c>
       <c r="H28" t="n">
         <v>1.6706377931708</v>
       </c>
       <c r="I28" t="n">
-        <v>5.650787136819024</v>
+        <v>5.650787136819022</v>
       </c>
       <c r="J28" t="n">
-        <v>13.28481607105246</v>
+        <v>13.28481607105245</v>
       </c>
       <c r="K28" t="n">
-        <v>21.83103373898038</v>
+        <v>21.83103373898037</v>
       </c>
       <c r="L28" t="n">
-        <v>27.93620702404423</v>
+        <v>27.93620702404422</v>
       </c>
       <c r="M28" t="n">
-        <v>29.45481336159927</v>
+        <v>29.45481336159926</v>
       </c>
       <c r="N28" t="n">
-        <v>28.7544437346054</v>
+        <v>28.75444373460539</v>
       </c>
       <c r="O28" t="n">
-        <v>26.55938283049038</v>
+        <v>26.55938283049037</v>
       </c>
       <c r="P28" t="n">
-        <v>22.72614028665062</v>
+        <v>22.72614028665061</v>
       </c>
       <c r="Q28" t="n">
         <v>15.73440154692866</v>
       </c>
       <c r="R28" t="n">
-        <v>8.448849207589745</v>
+        <v>8.448849207589742</v>
       </c>
       <c r="S28" t="n">
-        <v>3.274655060847056</v>
+        <v>3.274655060847055</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8028627431393409</v>
+        <v>0.8028627431393407</v>
       </c>
       <c r="U28" t="n">
         <v>0.01024931161454479</v>
@@ -33172,10 +33172,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4188998381823995</v>
+        <v>0.4188998381823993</v>
       </c>
       <c r="H29" t="n">
-        <v>4.2900579677855</v>
+        <v>4.290057967785498</v>
       </c>
       <c r="I29" t="n">
         <v>16.14963601152697</v>
@@ -33184,37 +33184,37 @@
         <v>35.55360014093345</v>
       </c>
       <c r="K29" t="n">
-        <v>53.28563029119444</v>
+        <v>53.28563029119442</v>
       </c>
       <c r="L29" t="n">
-        <v>66.10553621396906</v>
+        <v>66.10553621396903</v>
       </c>
       <c r="M29" t="n">
-        <v>73.5551462112453</v>
+        <v>73.55514621124527</v>
       </c>
       <c r="N29" t="n">
-        <v>74.74534537648105</v>
+        <v>74.74534537648103</v>
       </c>
       <c r="O29" t="n">
-        <v>70.57991011055481</v>
+        <v>70.57991011055479</v>
       </c>
       <c r="P29" t="n">
-        <v>60.23832035542681</v>
+        <v>60.23832035542679</v>
       </c>
       <c r="Q29" t="n">
-        <v>45.23646990051962</v>
+        <v>45.23646990051961</v>
       </c>
       <c r="R29" t="n">
-        <v>26.31371696022517</v>
+        <v>26.31371696022516</v>
       </c>
       <c r="S29" t="n">
-        <v>9.545680062581436</v>
+        <v>9.545680062581434</v>
       </c>
       <c r="T29" t="n">
         <v>1.833734041643454</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03351198705459195</v>
+        <v>0.03351198705459194</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,43 +33254,43 @@
         <v>0.2241311728539132</v>
       </c>
       <c r="H30" t="n">
-        <v>2.164635274668057</v>
+        <v>2.164635274668056</v>
       </c>
       <c r="I30" t="n">
-        <v>7.716796960101838</v>
+        <v>7.716796960101836</v>
       </c>
       <c r="J30" t="n">
-        <v>21.17548067739538</v>
+        <v>21.17548067739537</v>
       </c>
       <c r="K30" t="n">
-        <v>36.19226925860756</v>
+        <v>36.19226925860755</v>
       </c>
       <c r="L30" t="n">
-        <v>48.66497242163586</v>
+        <v>48.66497242163585</v>
       </c>
       <c r="M30" t="n">
-        <v>56.7897274375902</v>
+        <v>56.78972743759019</v>
       </c>
       <c r="N30" t="n">
-        <v>58.29278253975527</v>
+        <v>58.29278253975525</v>
       </c>
       <c r="O30" t="n">
-        <v>53.32650760441329</v>
+        <v>53.32650760441328</v>
       </c>
       <c r="P30" t="n">
         <v>42.79922370049857</v>
       </c>
       <c r="Q30" t="n">
-        <v>28.61014760851005</v>
+        <v>28.61014760851004</v>
       </c>
       <c r="R30" t="n">
-        <v>13.91579334614034</v>
+        <v>13.91579334614033</v>
       </c>
       <c r="S30" t="n">
-        <v>4.163138232615447</v>
+        <v>4.163138232615446</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9034059116348517</v>
+        <v>0.9034059116348514</v>
       </c>
       <c r="U30" t="n">
         <v>0.01474547189828377</v>
@@ -33330,46 +33330,46 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1879040462666543</v>
+        <v>0.1879040462666542</v>
       </c>
       <c r="H31" t="n">
         <v>1.6706377931708</v>
       </c>
       <c r="I31" t="n">
-        <v>5.650787136819024</v>
+        <v>5.650787136819022</v>
       </c>
       <c r="J31" t="n">
-        <v>13.28481607105246</v>
+        <v>13.28481607105245</v>
       </c>
       <c r="K31" t="n">
-        <v>21.83103373898038</v>
+        <v>21.83103373898037</v>
       </c>
       <c r="L31" t="n">
-        <v>27.93620702404423</v>
+        <v>27.93620702404422</v>
       </c>
       <c r="M31" t="n">
-        <v>29.45481336159927</v>
+        <v>29.45481336159926</v>
       </c>
       <c r="N31" t="n">
-        <v>28.7544437346054</v>
+        <v>28.75444373460539</v>
       </c>
       <c r="O31" t="n">
-        <v>26.55938283049038</v>
+        <v>26.55938283049037</v>
       </c>
       <c r="P31" t="n">
-        <v>22.72614028665062</v>
+        <v>22.72614028665061</v>
       </c>
       <c r="Q31" t="n">
         <v>15.73440154692866</v>
       </c>
       <c r="R31" t="n">
-        <v>8.448849207589745</v>
+        <v>8.448849207589742</v>
       </c>
       <c r="S31" t="n">
-        <v>3.274655060847056</v>
+        <v>3.274655060847055</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8028627431393409</v>
+        <v>0.8028627431393407</v>
       </c>
       <c r="U31" t="n">
         <v>0.01024931161454479</v>
@@ -33409,10 +33409,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4188998381823995</v>
+        <v>0.4188998381823993</v>
       </c>
       <c r="H32" t="n">
-        <v>4.2900579677855</v>
+        <v>4.290057967785498</v>
       </c>
       <c r="I32" t="n">
         <v>16.14963601152697</v>
@@ -33421,37 +33421,37 @@
         <v>35.55360014093345</v>
       </c>
       <c r="K32" t="n">
-        <v>53.28563029119444</v>
+        <v>53.28563029119442</v>
       </c>
       <c r="L32" t="n">
-        <v>66.10553621396906</v>
+        <v>66.10553621396903</v>
       </c>
       <c r="M32" t="n">
-        <v>73.5551462112453</v>
+        <v>73.55514621124527</v>
       </c>
       <c r="N32" t="n">
-        <v>74.74534537648105</v>
+        <v>74.74534537648103</v>
       </c>
       <c r="O32" t="n">
-        <v>70.57991011055481</v>
+        <v>70.57991011055479</v>
       </c>
       <c r="P32" t="n">
-        <v>60.23832035542681</v>
+        <v>60.23832035542679</v>
       </c>
       <c r="Q32" t="n">
-        <v>45.23646990051962</v>
+        <v>45.23646990051961</v>
       </c>
       <c r="R32" t="n">
-        <v>26.31371696022517</v>
+        <v>26.31371696022516</v>
       </c>
       <c r="S32" t="n">
-        <v>9.545680062581436</v>
+        <v>9.545680062581434</v>
       </c>
       <c r="T32" t="n">
         <v>1.833734041643454</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03351198705459195</v>
+        <v>0.03351198705459194</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,43 +33491,43 @@
         <v>0.2241311728539132</v>
       </c>
       <c r="H33" t="n">
-        <v>2.164635274668057</v>
+        <v>2.164635274668056</v>
       </c>
       <c r="I33" t="n">
-        <v>7.716796960101838</v>
+        <v>7.716796960101836</v>
       </c>
       <c r="J33" t="n">
-        <v>21.17548067739538</v>
+        <v>21.17548067739537</v>
       </c>
       <c r="K33" t="n">
-        <v>36.19226925860756</v>
+        <v>36.19226925860755</v>
       </c>
       <c r="L33" t="n">
-        <v>48.66497242163586</v>
+        <v>48.66497242163585</v>
       </c>
       <c r="M33" t="n">
-        <v>56.7897274375902</v>
+        <v>56.78972743759019</v>
       </c>
       <c r="N33" t="n">
-        <v>58.29278253975527</v>
+        <v>58.29278253975525</v>
       </c>
       <c r="O33" t="n">
-        <v>53.32650760441329</v>
+        <v>53.32650760441328</v>
       </c>
       <c r="P33" t="n">
         <v>42.79922370049857</v>
       </c>
       <c r="Q33" t="n">
-        <v>28.61014760851005</v>
+        <v>28.61014760851004</v>
       </c>
       <c r="R33" t="n">
-        <v>13.91579334614034</v>
+        <v>13.91579334614033</v>
       </c>
       <c r="S33" t="n">
-        <v>4.163138232615447</v>
+        <v>4.163138232615446</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9034059116348517</v>
+        <v>0.9034059116348514</v>
       </c>
       <c r="U33" t="n">
         <v>0.01474547189828377</v>
@@ -33567,46 +33567,46 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1879040462666543</v>
+        <v>0.1879040462666542</v>
       </c>
       <c r="H34" t="n">
         <v>1.6706377931708</v>
       </c>
       <c r="I34" t="n">
-        <v>5.650787136819024</v>
+        <v>5.650787136819022</v>
       </c>
       <c r="J34" t="n">
-        <v>13.28481607105246</v>
+        <v>13.28481607105245</v>
       </c>
       <c r="K34" t="n">
-        <v>21.83103373898038</v>
+        <v>21.83103373898037</v>
       </c>
       <c r="L34" t="n">
-        <v>27.93620702404423</v>
+        <v>27.93620702404422</v>
       </c>
       <c r="M34" t="n">
-        <v>29.45481336159927</v>
+        <v>29.45481336159926</v>
       </c>
       <c r="N34" t="n">
-        <v>28.7544437346054</v>
+        <v>28.75444373460539</v>
       </c>
       <c r="O34" t="n">
-        <v>26.55938283049038</v>
+        <v>26.55938283049037</v>
       </c>
       <c r="P34" t="n">
-        <v>22.72614028665062</v>
+        <v>22.72614028665061</v>
       </c>
       <c r="Q34" t="n">
         <v>15.73440154692866</v>
       </c>
       <c r="R34" t="n">
-        <v>8.448849207589745</v>
+        <v>8.448849207589742</v>
       </c>
       <c r="S34" t="n">
-        <v>3.274655060847056</v>
+        <v>3.274655060847055</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8028627431393409</v>
+        <v>0.8028627431393407</v>
       </c>
       <c r="U34" t="n">
         <v>0.01024931161454479</v>
@@ -33646,10 +33646,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4188998381823995</v>
+        <v>0.4188998381823993</v>
       </c>
       <c r="H35" t="n">
-        <v>4.2900579677855</v>
+        <v>4.290057967785498</v>
       </c>
       <c r="I35" t="n">
         <v>16.14963601152697</v>
@@ -33658,37 +33658,37 @@
         <v>35.55360014093345</v>
       </c>
       <c r="K35" t="n">
-        <v>53.28563029119444</v>
+        <v>53.28563029119442</v>
       </c>
       <c r="L35" t="n">
-        <v>66.10553621396906</v>
+        <v>66.10553621396903</v>
       </c>
       <c r="M35" t="n">
-        <v>73.5551462112453</v>
+        <v>73.55514621124527</v>
       </c>
       <c r="N35" t="n">
-        <v>74.74534537648105</v>
+        <v>74.74534537648103</v>
       </c>
       <c r="O35" t="n">
-        <v>70.57991011055481</v>
+        <v>70.57991011055479</v>
       </c>
       <c r="P35" t="n">
-        <v>60.23832035542681</v>
+        <v>60.23832035542679</v>
       </c>
       <c r="Q35" t="n">
-        <v>45.23646990051962</v>
+        <v>45.23646990051961</v>
       </c>
       <c r="R35" t="n">
-        <v>26.31371696022517</v>
+        <v>26.31371696022516</v>
       </c>
       <c r="S35" t="n">
-        <v>9.545680062581436</v>
+        <v>9.545680062581434</v>
       </c>
       <c r="T35" t="n">
         <v>1.833734041643454</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03351198705459195</v>
+        <v>0.03351198705459194</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,43 +33728,43 @@
         <v>0.2241311728539132</v>
       </c>
       <c r="H36" t="n">
-        <v>2.164635274668057</v>
+        <v>2.164635274668056</v>
       </c>
       <c r="I36" t="n">
-        <v>7.716796960101838</v>
+        <v>7.716796960101836</v>
       </c>
       <c r="J36" t="n">
-        <v>21.17548067739538</v>
+        <v>21.17548067739537</v>
       </c>
       <c r="K36" t="n">
-        <v>36.19226925860756</v>
+        <v>36.19226925860755</v>
       </c>
       <c r="L36" t="n">
-        <v>48.66497242163586</v>
+        <v>48.66497242163585</v>
       </c>
       <c r="M36" t="n">
-        <v>56.7897274375902</v>
+        <v>56.78972743759019</v>
       </c>
       <c r="N36" t="n">
-        <v>58.29278253975527</v>
+        <v>58.29278253975525</v>
       </c>
       <c r="O36" t="n">
-        <v>53.32650760441329</v>
+        <v>53.32650760441328</v>
       </c>
       <c r="P36" t="n">
         <v>42.79922370049857</v>
       </c>
       <c r="Q36" t="n">
-        <v>28.61014760851005</v>
+        <v>28.61014760851004</v>
       </c>
       <c r="R36" t="n">
-        <v>13.91579334614034</v>
+        <v>13.91579334614033</v>
       </c>
       <c r="S36" t="n">
-        <v>4.163138232615447</v>
+        <v>4.163138232615446</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9034059116348517</v>
+        <v>0.9034059116348514</v>
       </c>
       <c r="U36" t="n">
         <v>0.01474547189828377</v>
@@ -33804,46 +33804,46 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1879040462666543</v>
+        <v>0.1879040462666542</v>
       </c>
       <c r="H37" t="n">
         <v>1.6706377931708</v>
       </c>
       <c r="I37" t="n">
-        <v>5.650787136819024</v>
+        <v>5.650787136819022</v>
       </c>
       <c r="J37" t="n">
-        <v>13.28481607105246</v>
+        <v>13.28481607105245</v>
       </c>
       <c r="K37" t="n">
-        <v>21.83103373898038</v>
+        <v>21.83103373898037</v>
       </c>
       <c r="L37" t="n">
-        <v>27.93620702404423</v>
+        <v>27.93620702404422</v>
       </c>
       <c r="M37" t="n">
-        <v>29.45481336159927</v>
+        <v>29.45481336159926</v>
       </c>
       <c r="N37" t="n">
-        <v>28.7544437346054</v>
+        <v>28.75444373460539</v>
       </c>
       <c r="O37" t="n">
-        <v>26.55938283049038</v>
+        <v>26.55938283049037</v>
       </c>
       <c r="P37" t="n">
-        <v>22.72614028665062</v>
+        <v>22.72614028665061</v>
       </c>
       <c r="Q37" t="n">
         <v>15.73440154692866</v>
       </c>
       <c r="R37" t="n">
-        <v>8.448849207589745</v>
+        <v>8.448849207589742</v>
       </c>
       <c r="S37" t="n">
-        <v>3.274655060847056</v>
+        <v>3.274655060847055</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8028627431393409</v>
+        <v>0.8028627431393407</v>
       </c>
       <c r="U37" t="n">
         <v>0.01024931161454479</v>
@@ -33883,10 +33883,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4188998381823995</v>
+        <v>0.4188998381823993</v>
       </c>
       <c r="H38" t="n">
-        <v>4.2900579677855</v>
+        <v>4.290057967785498</v>
       </c>
       <c r="I38" t="n">
         <v>16.14963601152697</v>
@@ -33895,37 +33895,37 @@
         <v>35.55360014093345</v>
       </c>
       <c r="K38" t="n">
-        <v>53.28563029119444</v>
+        <v>53.28563029119442</v>
       </c>
       <c r="L38" t="n">
-        <v>66.10553621396906</v>
+        <v>66.10553621396903</v>
       </c>
       <c r="M38" t="n">
-        <v>73.5551462112453</v>
+        <v>73.55514621124527</v>
       </c>
       <c r="N38" t="n">
-        <v>74.74534537648105</v>
+        <v>74.74534537648103</v>
       </c>
       <c r="O38" t="n">
-        <v>70.57991011055481</v>
+        <v>70.57991011055479</v>
       </c>
       <c r="P38" t="n">
-        <v>60.23832035542681</v>
+        <v>60.23832035542679</v>
       </c>
       <c r="Q38" t="n">
-        <v>45.23646990051962</v>
+        <v>45.23646990051961</v>
       </c>
       <c r="R38" t="n">
-        <v>26.31371696022517</v>
+        <v>26.31371696022516</v>
       </c>
       <c r="S38" t="n">
-        <v>9.545680062581436</v>
+        <v>9.545680062581434</v>
       </c>
       <c r="T38" t="n">
         <v>1.833734041643454</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03351198705459195</v>
+        <v>0.03351198705459194</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,43 +33965,43 @@
         <v>0.2241311728539132</v>
       </c>
       <c r="H39" t="n">
-        <v>2.164635274668057</v>
+        <v>2.164635274668056</v>
       </c>
       <c r="I39" t="n">
-        <v>7.716796960101838</v>
+        <v>7.716796960101836</v>
       </c>
       <c r="J39" t="n">
-        <v>21.17548067739538</v>
+        <v>21.17548067739537</v>
       </c>
       <c r="K39" t="n">
-        <v>36.19226925860756</v>
+        <v>36.19226925860755</v>
       </c>
       <c r="L39" t="n">
-        <v>48.66497242163586</v>
+        <v>48.66497242163585</v>
       </c>
       <c r="M39" t="n">
-        <v>56.7897274375902</v>
+        <v>56.78972743759019</v>
       </c>
       <c r="N39" t="n">
-        <v>58.29278253975527</v>
+        <v>58.29278253975525</v>
       </c>
       <c r="O39" t="n">
-        <v>53.32650760441329</v>
+        <v>53.32650760441328</v>
       </c>
       <c r="P39" t="n">
         <v>42.79922370049857</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.61014760851005</v>
+        <v>28.61014760851004</v>
       </c>
       <c r="R39" t="n">
-        <v>13.91579334614034</v>
+        <v>13.91579334614033</v>
       </c>
       <c r="S39" t="n">
-        <v>4.163138232615447</v>
+        <v>4.163138232615446</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9034059116348517</v>
+        <v>0.9034059116348514</v>
       </c>
       <c r="U39" t="n">
         <v>0.01474547189828377</v>
@@ -34041,46 +34041,46 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1879040462666543</v>
+        <v>0.1879040462666542</v>
       </c>
       <c r="H40" t="n">
         <v>1.6706377931708</v>
       </c>
       <c r="I40" t="n">
-        <v>5.650787136819024</v>
+        <v>5.650787136819022</v>
       </c>
       <c r="J40" t="n">
-        <v>13.28481607105246</v>
+        <v>13.28481607105245</v>
       </c>
       <c r="K40" t="n">
-        <v>21.83103373898038</v>
+        <v>21.83103373898037</v>
       </c>
       <c r="L40" t="n">
-        <v>27.93620702404423</v>
+        <v>27.93620702404422</v>
       </c>
       <c r="M40" t="n">
-        <v>29.45481336159927</v>
+        <v>29.45481336159926</v>
       </c>
       <c r="N40" t="n">
-        <v>28.7544437346054</v>
+        <v>28.75444373460539</v>
       </c>
       <c r="O40" t="n">
-        <v>26.55938283049038</v>
+        <v>26.55938283049037</v>
       </c>
       <c r="P40" t="n">
-        <v>22.72614028665062</v>
+        <v>22.72614028665061</v>
       </c>
       <c r="Q40" t="n">
         <v>15.73440154692866</v>
       </c>
       <c r="R40" t="n">
-        <v>8.448849207589745</v>
+        <v>8.448849207589742</v>
       </c>
       <c r="S40" t="n">
-        <v>3.274655060847056</v>
+        <v>3.274655060847055</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8028627431393409</v>
+        <v>0.8028627431393407</v>
       </c>
       <c r="U40" t="n">
         <v>0.01024931161454479</v>
@@ -34120,10 +34120,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4188998381823995</v>
+        <v>0.4188998381823993</v>
       </c>
       <c r="H41" t="n">
-        <v>4.2900579677855</v>
+        <v>4.290057967785498</v>
       </c>
       <c r="I41" t="n">
         <v>16.14963601152697</v>
@@ -34132,37 +34132,37 @@
         <v>35.55360014093345</v>
       </c>
       <c r="K41" t="n">
-        <v>53.28563029119444</v>
+        <v>53.28563029119442</v>
       </c>
       <c r="L41" t="n">
-        <v>66.10553621396906</v>
+        <v>66.10553621396903</v>
       </c>
       <c r="M41" t="n">
-        <v>73.5551462112453</v>
+        <v>73.55514621124527</v>
       </c>
       <c r="N41" t="n">
-        <v>74.74534537648105</v>
+        <v>74.74534537648103</v>
       </c>
       <c r="O41" t="n">
-        <v>70.57991011055481</v>
+        <v>70.57991011055479</v>
       </c>
       <c r="P41" t="n">
-        <v>60.23832035542681</v>
+        <v>60.23832035542679</v>
       </c>
       <c r="Q41" t="n">
-        <v>45.23646990051962</v>
+        <v>45.23646990051961</v>
       </c>
       <c r="R41" t="n">
-        <v>26.31371696022517</v>
+        <v>26.31371696022516</v>
       </c>
       <c r="S41" t="n">
-        <v>9.545680062581436</v>
+        <v>9.545680062581434</v>
       </c>
       <c r="T41" t="n">
         <v>1.833734041643454</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03351198705459195</v>
+        <v>0.03351198705459194</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,43 +34202,43 @@
         <v>0.2241311728539132</v>
       </c>
       <c r="H42" t="n">
-        <v>2.164635274668057</v>
+        <v>2.164635274668056</v>
       </c>
       <c r="I42" t="n">
-        <v>7.716796960101838</v>
+        <v>7.716796960101836</v>
       </c>
       <c r="J42" t="n">
-        <v>21.17548067739538</v>
+        <v>21.17548067739537</v>
       </c>
       <c r="K42" t="n">
-        <v>36.19226925860756</v>
+        <v>36.19226925860755</v>
       </c>
       <c r="L42" t="n">
-        <v>48.66497242163586</v>
+        <v>48.66497242163585</v>
       </c>
       <c r="M42" t="n">
-        <v>56.7897274375902</v>
+        <v>56.78972743759019</v>
       </c>
       <c r="N42" t="n">
-        <v>58.29278253975527</v>
+        <v>58.29278253975525</v>
       </c>
       <c r="O42" t="n">
-        <v>53.32650760441329</v>
+        <v>53.32650760441328</v>
       </c>
       <c r="P42" t="n">
         <v>42.79922370049857</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.61014760851005</v>
+        <v>28.61014760851004</v>
       </c>
       <c r="R42" t="n">
-        <v>13.91579334614034</v>
+        <v>13.91579334614033</v>
       </c>
       <c r="S42" t="n">
-        <v>4.163138232615447</v>
+        <v>4.163138232615446</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9034059116348517</v>
+        <v>0.9034059116348514</v>
       </c>
       <c r="U42" t="n">
         <v>0.01474547189828377</v>
@@ -34278,46 +34278,46 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1879040462666543</v>
+        <v>0.1879040462666542</v>
       </c>
       <c r="H43" t="n">
         <v>1.6706377931708</v>
       </c>
       <c r="I43" t="n">
-        <v>5.650787136819024</v>
+        <v>5.650787136819022</v>
       </c>
       <c r="J43" t="n">
-        <v>13.28481607105246</v>
+        <v>13.28481607105245</v>
       </c>
       <c r="K43" t="n">
-        <v>21.83103373898038</v>
+        <v>21.83103373898037</v>
       </c>
       <c r="L43" t="n">
-        <v>27.93620702404423</v>
+        <v>27.93620702404422</v>
       </c>
       <c r="M43" t="n">
-        <v>29.45481336159927</v>
+        <v>29.45481336159926</v>
       </c>
       <c r="N43" t="n">
-        <v>28.7544437346054</v>
+        <v>28.75444373460539</v>
       </c>
       <c r="O43" t="n">
-        <v>26.55938283049038</v>
+        <v>26.55938283049037</v>
       </c>
       <c r="P43" t="n">
-        <v>22.72614028665062</v>
+        <v>22.72614028665061</v>
       </c>
       <c r="Q43" t="n">
         <v>15.73440154692866</v>
       </c>
       <c r="R43" t="n">
-        <v>8.448849207589745</v>
+        <v>8.448849207589742</v>
       </c>
       <c r="S43" t="n">
-        <v>3.274655060847056</v>
+        <v>3.274655060847055</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8028627431393409</v>
+        <v>0.8028627431393407</v>
       </c>
       <c r="U43" t="n">
         <v>0.01024931161454479</v>
@@ -34357,10 +34357,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4188998381823995</v>
+        <v>0.4188998381823993</v>
       </c>
       <c r="H44" t="n">
-        <v>4.2900579677855</v>
+        <v>4.290057967785498</v>
       </c>
       <c r="I44" t="n">
         <v>16.14963601152697</v>
@@ -34369,37 +34369,37 @@
         <v>35.55360014093345</v>
       </c>
       <c r="K44" t="n">
-        <v>53.28563029119444</v>
+        <v>53.28563029119442</v>
       </c>
       <c r="L44" t="n">
-        <v>66.10553621396906</v>
+        <v>66.10553621396903</v>
       </c>
       <c r="M44" t="n">
-        <v>73.5551462112453</v>
+        <v>73.55514621124527</v>
       </c>
       <c r="N44" t="n">
-        <v>74.74534537648105</v>
+        <v>74.74534537648103</v>
       </c>
       <c r="O44" t="n">
-        <v>70.57991011055481</v>
+        <v>70.57991011055479</v>
       </c>
       <c r="P44" t="n">
-        <v>60.23832035542681</v>
+        <v>60.23832035542679</v>
       </c>
       <c r="Q44" t="n">
-        <v>45.23646990051962</v>
+        <v>45.23646990051961</v>
       </c>
       <c r="R44" t="n">
-        <v>26.31371696022517</v>
+        <v>26.31371696022516</v>
       </c>
       <c r="S44" t="n">
-        <v>9.545680062581436</v>
+        <v>9.545680062581434</v>
       </c>
       <c r="T44" t="n">
         <v>1.833734041643454</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03351198705459195</v>
+        <v>0.03351198705459194</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,43 +34439,43 @@
         <v>0.2241311728539132</v>
       </c>
       <c r="H45" t="n">
-        <v>2.164635274668057</v>
+        <v>2.164635274668056</v>
       </c>
       <c r="I45" t="n">
-        <v>7.716796960101838</v>
+        <v>7.716796960101836</v>
       </c>
       <c r="J45" t="n">
-        <v>21.17548067739538</v>
+        <v>21.17548067739537</v>
       </c>
       <c r="K45" t="n">
-        <v>36.19226925860756</v>
+        <v>36.19226925860755</v>
       </c>
       <c r="L45" t="n">
-        <v>48.66497242163586</v>
+        <v>48.66497242163585</v>
       </c>
       <c r="M45" t="n">
-        <v>56.7897274375902</v>
+        <v>56.78972743759019</v>
       </c>
       <c r="N45" t="n">
-        <v>58.29278253975527</v>
+        <v>58.29278253975525</v>
       </c>
       <c r="O45" t="n">
-        <v>53.32650760441329</v>
+        <v>53.32650760441328</v>
       </c>
       <c r="P45" t="n">
         <v>42.79922370049857</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.61014760851005</v>
+        <v>28.61014760851004</v>
       </c>
       <c r="R45" t="n">
-        <v>13.91579334614034</v>
+        <v>13.91579334614033</v>
       </c>
       <c r="S45" t="n">
-        <v>4.163138232615447</v>
+        <v>4.163138232615446</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9034059116348517</v>
+        <v>0.9034059116348514</v>
       </c>
       <c r="U45" t="n">
         <v>0.01474547189828377</v>
@@ -34515,46 +34515,46 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1879040462666543</v>
+        <v>0.1879040462666542</v>
       </c>
       <c r="H46" t="n">
         <v>1.6706377931708</v>
       </c>
       <c r="I46" t="n">
-        <v>5.650787136819024</v>
+        <v>5.650787136819022</v>
       </c>
       <c r="J46" t="n">
-        <v>13.28481607105246</v>
+        <v>13.28481607105245</v>
       </c>
       <c r="K46" t="n">
-        <v>21.83103373898038</v>
+        <v>21.83103373898037</v>
       </c>
       <c r="L46" t="n">
-        <v>27.93620702404423</v>
+        <v>27.93620702404422</v>
       </c>
       <c r="M46" t="n">
-        <v>29.45481336159927</v>
+        <v>29.45481336159926</v>
       </c>
       <c r="N46" t="n">
-        <v>28.7544437346054</v>
+        <v>28.75444373460539</v>
       </c>
       <c r="O46" t="n">
-        <v>26.55938283049038</v>
+        <v>26.55938283049037</v>
       </c>
       <c r="P46" t="n">
-        <v>22.72614028665062</v>
+        <v>22.72614028665061</v>
       </c>
       <c r="Q46" t="n">
         <v>15.73440154692866</v>
       </c>
       <c r="R46" t="n">
-        <v>8.448849207589745</v>
+        <v>8.448849207589742</v>
       </c>
       <c r="S46" t="n">
-        <v>3.274655060847056</v>
+        <v>3.274655060847055</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8028627431393409</v>
+        <v>0.8028627431393407</v>
       </c>
       <c r="U46" t="n">
         <v>0.01024931161454479</v>
@@ -35410,28 +35410,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>76.95496121777111</v>
       </c>
       <c r="L11" t="n">
-        <v>49.11497697927649</v>
+        <v>49.11497697927646</v>
       </c>
       <c r="M11" t="n">
-        <v>83.81751137732806</v>
+        <v>83.81751137732803</v>
       </c>
       <c r="N11" t="n">
-        <v>78.26221480760586</v>
+        <v>78.26221480760583</v>
       </c>
       <c r="O11" t="n">
-        <v>36.61860963435598</v>
+        <v>36.61860963435596</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>84.54481721446604</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>2.405186634146244</v>
+        <v>9.99504263084124</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>39.39918729404057</v>
+        <v>39.39918729404056</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="M12" t="n">
-        <v>41.72967770973993</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="N12" t="n">
-        <v>84.54481721446604</v>
+        <v>41.72967770973995</v>
       </c>
       <c r="O12" t="n">
         <v>84.54481721446604</v>
       </c>
       <c r="P12" t="n">
-        <v>84.54481721446604</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,55 +35541,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.49452106119654</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>58.92879147545392</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>62.43530051393964</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>65.18455950771798</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>38.33562262489555</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>84.25812801827857</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.07093818510556406</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>12.33854607349596</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>77.35197831395232</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>0.9271549315776006</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>76.95496121777111</v>
       </c>
       <c r="L14" t="n">
-        <v>49.11497697927649</v>
+        <v>49.11497697927646</v>
       </c>
       <c r="M14" t="n">
-        <v>83.81751137732806</v>
+        <v>83.81751137732803</v>
       </c>
       <c r="N14" t="n">
-        <v>78.26221480760586</v>
+        <v>78.26221480760583</v>
       </c>
       <c r="O14" t="n">
-        <v>36.61860963435598</v>
+        <v>36.61860963435596</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>76.95496121777103</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>9.995042630841247</v>
+        <v>9.99504263084124</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>39.39918729404056</v>
       </c>
       <c r="L15" t="n">
         <v>84.54481721446604</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>41.72967770973995</v>
+      </c>
+      <c r="O15" t="n">
         <v>84.54481721446604</v>
-      </c>
-      <c r="N15" t="n">
-        <v>81.12886500378052</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>84.54481721446604</v>
@@ -35784,25 +35784,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>58.92879147545392</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>62.43530051393964</v>
       </c>
       <c r="F16" t="n">
-        <v>12.93035219949297</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>38.33562262489555</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>7.540550345134702</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>84.25812801827857</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -35814,16 +35814,16 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="O16" t="n">
-        <v>84.54481721446604</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>84.54481721446604</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>77.35197831395232</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>72.39689513743188</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -35887,16 +35887,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>49.11497697927649</v>
+        <v>49.11497697927646</v>
       </c>
       <c r="M17" t="n">
-        <v>83.81751137732806</v>
+        <v>83.81751137732803</v>
       </c>
       <c r="N17" t="n">
-        <v>78.26221480760586</v>
+        <v>78.26221480760583</v>
       </c>
       <c r="O17" t="n">
-        <v>36.61860963435598</v>
+        <v>36.61860963435596</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35914,7 +35914,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>72.3968951374318</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>14.55310871118047</v>
@@ -35963,16 +35963,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>39.39918729404057</v>
+        <v>39.39918729404056</v>
       </c>
       <c r="L18" t="n">
         <v>84.54481721446604</v>
       </c>
       <c r="M18" t="n">
-        <v>41.72967770973992</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>41.72967770973995</v>
       </c>
       <c r="O18" t="n">
         <v>84.54481721446604</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2.405186634146295</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -36124,16 +36124,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>49.11497697927649</v>
+        <v>49.11497697927646</v>
       </c>
       <c r="M20" t="n">
-        <v>83.81751137732806</v>
+        <v>83.81751137732803</v>
       </c>
       <c r="N20" t="n">
-        <v>78.26221480760586</v>
+        <v>78.26221480760583</v>
       </c>
       <c r="O20" t="n">
-        <v>36.61860963435598</v>
+        <v>36.61860963435596</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36148,13 +36148,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>72.39689513743191</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>84.54481721446604</v>
       </c>
       <c r="V20" t="n">
-        <v>14.55310871118036</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36200,19 +36200,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>39.39918729404057</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>81.1288650037805</v>
+      </c>
+      <c r="N21" t="n">
         <v>84.54481721446604</v>
       </c>
-      <c r="M21" t="n">
+      <c r="O21" t="n">
         <v>84.54481721446604</v>
-      </c>
-      <c r="N21" t="n">
-        <v>41.72967770973995</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>84.54481721446604</v>
@@ -36361,16 +36361,16 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>49.11497697927649</v>
+        <v>49.11497697927646</v>
       </c>
       <c r="M23" t="n">
-        <v>83.81751137732806</v>
+        <v>83.81751137732803</v>
       </c>
       <c r="N23" t="n">
-        <v>78.26221480760586</v>
+        <v>78.26221480760583</v>
       </c>
       <c r="O23" t="n">
-        <v>36.61860963435598</v>
+        <v>36.61860963435596</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36382,16 +36382,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.54481721446604</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>2.405186634146244</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>72.39689513743188</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>14.55310871118047</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36446,10 +36446,10 @@
         <v>84.54481721446604</v>
       </c>
       <c r="N24" t="n">
+        <v>81.1288650037805</v>
+      </c>
+      <c r="O24" t="n">
         <v>84.54481721446604</v>
-      </c>
-      <c r="O24" t="n">
-        <v>81.12886500378052</v>
       </c>
       <c r="P24" t="n">
         <v>84.54481721446604</v>
@@ -36595,28 +36595,28 @@
         <v>137.0926468199194</v>
       </c>
       <c r="K26" t="n">
-        <v>207.6626829324724</v>
+        <v>207.6626829324723</v>
       </c>
       <c r="L26" t="n">
-        <v>261.9554205493159</v>
+        <v>261.9554205493158</v>
       </c>
       <c r="M26" t="n">
-        <v>296.6579549473675</v>
+        <v>296.6579549473674</v>
       </c>
       <c r="N26" t="n">
-        <v>291.1026583776453</v>
+        <v>291.1026583776452</v>
       </c>
       <c r="O26" t="n">
-        <v>249.4590532043937</v>
+        <v>249.4590532043953</v>
       </c>
       <c r="P26" t="n">
-        <v>199.5000719991582</v>
+        <v>199.5000719991581</v>
       </c>
       <c r="Q26" t="n">
         <v>124.4440857713489</v>
       </c>
       <c r="R26" t="n">
-        <v>18.72404447471606</v>
+        <v>18.72404447471598</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>39.39918729404057</v>
+        <v>39.39918729404056</v>
       </c>
       <c r="L27" t="n">
         <v>119.9331728468309</v>
@@ -36686,7 +36686,7 @@
         <v>208.6697523727113</v>
       </c>
       <c r="O27" t="n">
-        <v>134.5818722735119</v>
+        <v>134.5818722735118</v>
       </c>
       <c r="P27" t="n">
         <v>85.71432073369496</v>
@@ -36726,28 +36726,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>35.22352290507129</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>46.38326259806703</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>71.16430235781439</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>73.91356135159273</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>10.36732692893549</v>
       </c>
       <c r="I28" t="n">
-        <v>48.15178823687905</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -36762,7 +36762,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>188.9001879046015</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -36835,16 +36835,16 @@
         <v>207.6626829324723</v>
       </c>
       <c r="L29" t="n">
-        <v>261.9554205493159</v>
+        <v>261.9554205493158</v>
       </c>
       <c r="M29" t="n">
-        <v>296.6579549473674</v>
+        <v>296.6579549473681</v>
       </c>
       <c r="N29" t="n">
         <v>291.1026583776452</v>
       </c>
       <c r="O29" t="n">
-        <v>249.4590532043954</v>
+        <v>249.4590532043953</v>
       </c>
       <c r="P29" t="n">
         <v>199.5000719991581</v>
@@ -36853,7 +36853,7 @@
         <v>124.4440857713489</v>
       </c>
       <c r="R29" t="n">
-        <v>18.72404447471601</v>
+        <v>18.724044474716</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>39.39918729404057</v>
+        <v>39.39918729404056</v>
       </c>
       <c r="L30" t="n">
         <v>119.9331728468309</v>
@@ -36923,7 +36923,7 @@
         <v>208.6697523727113</v>
       </c>
       <c r="O30" t="n">
-        <v>134.5818722735119</v>
+        <v>134.5818722735118</v>
       </c>
       <c r="P30" t="n">
         <v>85.71432073369496</v>
@@ -36963,19 +36963,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.22352290507129</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>46.38326259806703</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>67.65779331932868</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>71.16430235781439</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>16.62309496119955</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36993,13 +36993,13 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>39.89557256920941</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>197.1564035722715</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -37072,16 +37072,16 @@
         <v>207.6626829324723</v>
       </c>
       <c r="L32" t="n">
-        <v>261.9554205493159</v>
+        <v>261.9554205493158</v>
       </c>
       <c r="M32" t="n">
         <v>296.6579549473674</v>
       </c>
       <c r="N32" t="n">
-        <v>291.1026583776453</v>
+        <v>291.1026583776452</v>
       </c>
       <c r="O32" t="n">
-        <v>249.4590532043954</v>
+        <v>249.459053204396</v>
       </c>
       <c r="P32" t="n">
         <v>199.5000719991581</v>
@@ -37090,7 +37090,7 @@
         <v>124.4440857713489</v>
       </c>
       <c r="R32" t="n">
-        <v>18.72404447471603</v>
+        <v>18.724044474716</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>39.39918729404057</v>
+        <v>39.39918729404056</v>
       </c>
       <c r="L33" t="n">
         <v>119.9331728468309</v>
@@ -37160,7 +37160,7 @@
         <v>208.6697523727113</v>
       </c>
       <c r="O33" t="n">
-        <v>134.5818722735119</v>
+        <v>134.5818722735118</v>
       </c>
       <c r="P33" t="n">
         <v>85.71432073369496</v>
@@ -37200,22 +37200,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.22352290507132</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>46.38326259806706</v>
+        <v>46.38326259806703</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>67.65779331932868</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>71.16430235781439</v>
       </c>
       <c r="F34" t="n">
-        <v>73.91356135159276</v>
+        <v>51.84661786627085</v>
       </c>
       <c r="G34" t="n">
-        <v>44.1451324883611</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>37.38649679838853</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -37303,37 +37303,37 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>82.46456742348785</v>
+        <v>160.4872950285467</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>231.0573311410996</v>
       </c>
       <c r="L35" t="n">
-        <v>285.3500687579433</v>
+        <v>285.3500687579432</v>
       </c>
       <c r="M35" t="n">
-        <v>320.0526031559949</v>
+        <v>83.81751137732803</v>
       </c>
       <c r="N35" t="n">
-        <v>314.4973065862727</v>
+        <v>78.26221480760583</v>
       </c>
       <c r="O35" t="n">
-        <v>36.61860963435598</v>
+        <v>177.1905379620211</v>
       </c>
       <c r="P35" t="n">
-        <v>222.8947202077855</v>
+        <v>222.8947202077854</v>
       </c>
       <c r="Q35" t="n">
-        <v>147.8387339799763</v>
+        <v>147.8387339799762</v>
       </c>
       <c r="R35" t="n">
-        <v>42.11869268334342</v>
+        <v>42.11869268334333</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>8.995665063189145</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>13.82253142032212</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>39.39918729404057</v>
+        <v>39.39918729404056</v>
       </c>
       <c r="L36" t="n">
         <v>119.9331728468309</v>
@@ -37397,7 +37397,7 @@
         <v>208.6697523727113</v>
       </c>
       <c r="O36" t="n">
-        <v>134.5818722735119</v>
+        <v>134.5818722735118</v>
       </c>
       <c r="P36" t="n">
         <v>85.71432073369496</v>
@@ -37455,10 +37455,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>70.45927267739772</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>32.93828948132351</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>117.7131985291457</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -37503,7 +37503,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>14.31563637042427</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -37540,37 +37540,37 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>160.4872950285468</v>
+        <v>160.4872950285467</v>
       </c>
       <c r="K38" t="n">
-        <v>231.0573311410997</v>
+        <v>231.0573311410996</v>
       </c>
       <c r="L38" t="n">
-        <v>189.6869053069395</v>
+        <v>49.11497697927646</v>
       </c>
       <c r="M38" t="n">
-        <v>83.81751137732806</v>
+        <v>320.0526031559947</v>
       </c>
       <c r="N38" t="n">
-        <v>78.26221480760586</v>
+        <v>314.4973065862725</v>
       </c>
       <c r="O38" t="n">
-        <v>272.8537014130228</v>
+        <v>272.8537014130227</v>
       </c>
       <c r="P38" t="n">
-        <v>222.8947202077855</v>
+        <v>103.7720881249468</v>
       </c>
       <c r="Q38" t="n">
-        <v>147.8387339799763</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>42.11869268334342</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>8.995665063189232</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>13.82253142032221</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>39.39918729404057</v>
+        <v>39.39918729404056</v>
       </c>
       <c r="L39" t="n">
         <v>119.9331728468309</v>
@@ -37634,7 +37634,7 @@
         <v>208.6697523727113</v>
       </c>
       <c r="O39" t="n">
-        <v>134.5818722735119</v>
+        <v>134.5818722735118</v>
       </c>
       <c r="P39" t="n">
         <v>85.71432073369496</v>
@@ -37710,7 +37710,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>117.7131985291455</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -37719,16 +37719,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>72.16551469515095</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>33.05080498407969</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>12.4968788499151</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>160.4872950285467</v>
+        <v>160.4872950285468</v>
       </c>
       <c r="K41" t="n">
-        <v>231.0573311410996</v>
+        <v>231.0573311410997</v>
       </c>
       <c r="L41" t="n">
-        <v>285.3500687579432</v>
+        <v>285.3500687579433</v>
       </c>
       <c r="M41" t="n">
-        <v>211.0490681341108</v>
+        <v>83.81751137732803</v>
       </c>
       <c r="N41" t="n">
-        <v>78.26221480760586</v>
+        <v>314.4973065862727</v>
       </c>
       <c r="O41" t="n">
         <v>272.8537014130227</v>
@@ -37798,16 +37798,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>147.8387339799762</v>
+        <v>80.95389164143491</v>
       </c>
       <c r="R41" t="n">
-        <v>42.11869268334333</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>8.995665063189147</v>
+        <v>8.995665063189231</v>
       </c>
       <c r="T41" t="n">
-        <v>13.82253142032212</v>
+        <v>13.82253142032221</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>39.39918729404057</v>
+        <v>39.39918729404056</v>
       </c>
       <c r="L42" t="n">
         <v>119.9331728468309</v>
@@ -37871,7 +37871,7 @@
         <v>208.6697523727113</v>
       </c>
       <c r="O42" t="n">
-        <v>134.5818722735119</v>
+        <v>134.5818722735118</v>
       </c>
       <c r="P42" t="n">
         <v>85.71432073369496</v>
@@ -37923,10 +37923,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>50.17341783215699</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>67.53978069698849</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>117.7131985291457</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -38020,31 +38020,31 @@
         <v>231.0573311410997</v>
       </c>
       <c r="L44" t="n">
-        <v>49.11497697927649</v>
+        <v>285.3500687579433</v>
       </c>
       <c r="M44" t="n">
-        <v>83.81751137732806</v>
+        <v>320.0526031559948</v>
       </c>
       <c r="N44" t="n">
-        <v>314.4973065862727</v>
+        <v>78.26221480760583</v>
       </c>
       <c r="O44" t="n">
-        <v>177.1905379620191</v>
+        <v>36.61860963435596</v>
       </c>
       <c r="P44" t="n">
         <v>222.8947202077855</v>
       </c>
       <c r="Q44" t="n">
-        <v>147.8387339799762</v>
+        <v>74.99376701248411</v>
       </c>
       <c r="R44" t="n">
-        <v>42.11869268334339</v>
+        <v>42.11869268334341</v>
       </c>
       <c r="S44" t="n">
-        <v>8.995665063189204</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>13.82253142032218</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.39918729404057</v>
+        <v>39.39918729404056</v>
       </c>
       <c r="L45" t="n">
         <v>119.9331728468309</v>
@@ -38108,7 +38108,7 @@
         <v>208.6697523727113</v>
       </c>
       <c r="O45" t="n">
-        <v>134.5818722735119</v>
+        <v>134.5818722735118</v>
       </c>
       <c r="P45" t="n">
         <v>85.71432073369496</v>
@@ -38181,7 +38181,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>117.7131985291456</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -38190,7 +38190,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>117.7131985291455</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
